--- a/model results/2025 Results.xlsx
+++ b/model results/2025 Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmiller/Documents/Fun/nfl/model results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF4F9D7-1407-5140-A580-2501E0F45402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0BE091-0A9D-5446-B80D-E1ACE8C00FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Week 6" sheetId="1" r:id="rId2"/>
     <sheet name="Week 7" sheetId="3" r:id="rId3"/>
     <sheet name="Week 8" sheetId="4" r:id="rId4"/>
+    <sheet name="Week 9" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="122">
   <si>
     <t>season</t>
   </si>
@@ -333,6 +334,75 @@
   </si>
   <si>
     <t>+160</t>
+  </si>
+  <si>
+    <t>+123</t>
+  </si>
+  <si>
+    <t>-123</t>
+  </si>
+  <si>
+    <t>-150</t>
+  </si>
+  <si>
+    <t>+150</t>
+  </si>
+  <si>
+    <t>-230</t>
+  </si>
+  <si>
+    <t>+230</t>
+  </si>
+  <si>
+    <t>-245</t>
+  </si>
+  <si>
+    <t>+245</t>
+  </si>
+  <si>
+    <t>-102</t>
+  </si>
+  <si>
+    <t>-162</t>
+  </si>
+  <si>
+    <t>+162</t>
+  </si>
+  <si>
+    <t>+106</t>
+  </si>
+  <si>
+    <t>-106</t>
+  </si>
+  <si>
+    <t>+177</t>
+  </si>
+  <si>
+    <t>-177</t>
+  </si>
+  <si>
+    <t>+301</t>
+  </si>
+  <si>
+    <t>-301</t>
+  </si>
+  <si>
+    <t>-307</t>
+  </si>
+  <si>
+    <t>+307</t>
+  </si>
+  <si>
+    <t>+152</t>
+  </si>
+  <si>
+    <t>-152</t>
+  </si>
+  <si>
+    <t>-108</t>
+  </si>
+  <si>
+    <t>+108</t>
   </si>
 </sst>
 </file>
@@ -786,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E32420-1D15-E549-AAF4-FB71DE782F62}">
-  <dimension ref="B2:S49"/>
+  <dimension ref="B2:S63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -819,7 +889,7 @@
       </c>
       <c r="C2" s="4">
         <f>SUM(L:L)</f>
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
@@ -828,7 +898,7 @@
       </c>
       <c r="C3" s="4">
         <f>COUNTA(L:L)</f>
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
@@ -837,7 +907,7 @@
       </c>
       <c r="C4" s="8">
         <f>C2/C3</f>
-        <v>0.72727272727272729</v>
+        <v>0.67241379310344829</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
@@ -3289,8 +3359,804 @@
         <v>0.18689228594303131</v>
       </c>
     </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B50" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C50" s="4">
+        <v>9</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.44668876121047069</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.55331123878952926</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" s="4">
+        <v>1</v>
+      </c>
+      <c r="M50" s="9">
+        <v>-1.8151554391342779</v>
+      </c>
+      <c r="N50" s="5">
+        <v>-0.225263125860869</v>
+      </c>
+      <c r="O50" s="5">
+        <v>-0.16305417027966729</v>
+      </c>
+      <c r="P50" s="5">
+        <v>-1.721596966187159E-2</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>0.16305417027966729</v>
+      </c>
+      <c r="R50" s="5">
+        <v>0.225263125860869</v>
+      </c>
+      <c r="S50" s="5">
+        <v>1.721596966187159E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B51" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C51" s="4">
+        <v>9</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.60003242203207108</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0.39996757796792892</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L51" s="4">
+        <v>0</v>
+      </c>
+      <c r="M51" s="9">
+        <v>5.213673208336898</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0.18499578748430531</v>
+      </c>
+      <c r="O51" s="5">
+        <v>-0.43041532585419812</v>
+      </c>
+      <c r="P51" s="5">
+        <v>0.35861015319824219</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>0.43041532585419812</v>
+      </c>
+      <c r="R51" s="5">
+        <v>-0.18499578748430531</v>
+      </c>
+      <c r="S51" s="5">
+        <v>-0.35861015319824219</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B52" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C52" s="4">
+        <v>9</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.69773234427470909</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0.30226765572529091</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0</v>
+      </c>
+      <c r="M52" s="9">
+        <v>5.1113255983497101</v>
+      </c>
+      <c r="N52" s="5">
+        <v>-3.801141065709731E-2</v>
+      </c>
+      <c r="O52" s="5">
+        <v>1.8339883035688259E-2</v>
+      </c>
+      <c r="P52" s="5">
+        <v>-0.17444229920705159</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>-1.8339883035688259E-2</v>
+      </c>
+      <c r="R52" s="5">
+        <v>3.801141065709731E-2</v>
+      </c>
+      <c r="S52" s="5">
+        <v>0.17444229920705159</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B53" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C53" s="4">
+        <v>9</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.71077260123876596</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0.28922739876123399</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0</v>
+      </c>
+      <c r="M53" s="9">
+        <v>8.8238013657149654</v>
+      </c>
+      <c r="N53" s="5">
+        <v>-1.5043538549672001E-3</v>
+      </c>
+      <c r="O53" s="5">
+        <v>-7.376173676037398E-2</v>
+      </c>
+      <c r="P53" s="5">
+        <v>-8.434862336691688E-3</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>7.376173676037398E-2</v>
+      </c>
+      <c r="R53" s="5">
+        <v>1.5043538549672001E-3</v>
+      </c>
+      <c r="S53" s="5">
+        <v>8.434862336691688E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B54" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C54" s="4">
+        <v>9</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.49332373862571433</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0.50667626137428567</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="4">
+        <v>1</v>
+      </c>
+      <c r="M54" s="9">
+        <v>-1.8833131638053471</v>
+      </c>
+      <c r="N54" s="5">
+        <v>-0.1960059592598363</v>
+      </c>
+      <c r="O54" s="5">
+        <v>0.1036794483661652</v>
+      </c>
+      <c r="P54" s="5">
+        <v>0.19043291666928461</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>-0.1036794483661652</v>
+      </c>
+      <c r="R54" s="5">
+        <v>0.1960059592598363</v>
+      </c>
+      <c r="S54" s="5">
+        <v>-0.19043291666928461</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B55" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C55" s="4">
+        <v>9</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.61882510976001703</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0.38117489023998302</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" s="4">
+        <v>1</v>
+      </c>
+      <c r="M55" s="9">
+        <v>4.6932068431331491</v>
+      </c>
+      <c r="N55" s="5">
+        <v>1.2460860184260779E-2</v>
+      </c>
+      <c r="O55" s="5">
+        <v>-3.4125897843958967E-2</v>
+      </c>
+      <c r="P55" s="5">
+        <v>6.7735273104447588E-2</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>3.4125897843958967E-2</v>
+      </c>
+      <c r="R55" s="5">
+        <v>-1.2460860184260779E-2</v>
+      </c>
+      <c r="S55" s="5">
+        <v>-6.7735273104447588E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B56" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C56" s="4">
+        <v>9</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0.48417670618079922</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0.51582329381920089</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L56" s="4">
+        <v>1</v>
+      </c>
+      <c r="M56" s="9">
+        <v>-2.1777639232161161</v>
+      </c>
+      <c r="N56" s="5">
+        <v>0.15103745460510251</v>
+      </c>
+      <c r="O56" s="5">
+        <v>-0.24087369101388109</v>
+      </c>
+      <c r="P56" s="5">
+        <v>-0.23305712938308709</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>0.24087369101388109</v>
+      </c>
+      <c r="R56" s="5">
+        <v>-0.15103745460510251</v>
+      </c>
+      <c r="S56" s="5">
+        <v>0.23305712938308709</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B57" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C57" s="4">
+        <v>9</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.36042278414131651</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0.63957721585868343</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L57" s="4">
+        <v>0</v>
+      </c>
+      <c r="M57" s="9">
+        <v>-3.7411637346719711</v>
+      </c>
+      <c r="N57" s="5">
+        <v>-0.1035743482185133</v>
+      </c>
+      <c r="O57" s="5">
+        <v>9.4617843627929688E-2</v>
+      </c>
+      <c r="P57" s="5">
+        <v>0.25383403566148538</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>-9.4617843627929688E-2</v>
+      </c>
+      <c r="R57" s="5">
+        <v>0.1035743482185133</v>
+      </c>
+      <c r="S57" s="5">
+        <v>-0.25383403566148538</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B58" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C58" s="4">
+        <v>9</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.24911203876744639</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0.75088796123255352</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L58" s="4">
+        <v>1</v>
+      </c>
+      <c r="M58" s="9">
+        <v>-10.468339235065191</v>
+      </c>
+      <c r="N58" s="5">
+        <v>-0.2447796257174745</v>
+      </c>
+      <c r="O58" s="5">
+        <v>-4.180908203125E-2</v>
+      </c>
+      <c r="P58" s="5">
+        <v>0.18575405252390889</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>4.180908203125E-2</v>
+      </c>
+      <c r="R58" s="5">
+        <v>0.2447796257174745</v>
+      </c>
+      <c r="S58" s="5">
+        <v>-0.18575405252390889</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B59" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C59" s="4">
+        <v>9</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0.75454089311519046</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0.24545910688480951</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" s="4">
+        <v>1</v>
+      </c>
+      <c r="M59" s="9">
+        <v>9.4243349182143561</v>
+      </c>
+      <c r="N59" s="5">
+        <v>0.25134553348316868</v>
+      </c>
+      <c r="O59" s="5">
+        <v>0.31206387565249488</v>
+      </c>
+      <c r="P59" s="5">
+        <v>-0.28692413413006329</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>-0.31206387565249488</v>
+      </c>
+      <c r="R59" s="5">
+        <v>-0.25134553348316868</v>
+      </c>
+      <c r="S59" s="5">
+        <v>0.28692413413006329</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B60" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C60" s="4">
+        <v>9</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0.3958420236876185</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0.60415797631238144</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L60" s="4">
+        <v>1</v>
+      </c>
+      <c r="M60" s="9">
+        <v>0.78178819988491799</v>
+      </c>
+      <c r="N60" s="5">
+        <v>0.14785484769451079</v>
+      </c>
+      <c r="O60" s="5">
+        <v>-0.1031479203557394</v>
+      </c>
+      <c r="P60" s="5">
+        <v>-0.13232756578005281</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>0.1031479203557394</v>
+      </c>
+      <c r="R60" s="5">
+        <v>-0.14785484769451079</v>
+      </c>
+      <c r="S60" s="5">
+        <v>0.13232756578005281</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B61" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C61" s="4">
+        <v>9</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0.49275135306535522</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0.50724864693464489</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L61" s="4">
+        <v>0</v>
+      </c>
+      <c r="M61" s="9">
+        <v>5.8964152963200789E-2</v>
+      </c>
+      <c r="N61" s="5">
+        <v>0.21633625030517581</v>
+      </c>
+      <c r="O61" s="5">
+        <v>2.2891673349565069E-3</v>
+      </c>
+      <c r="P61" s="5">
+        <v>-0.29582126617431642</v>
+      </c>
+      <c r="Q61" s="5">
+        <v>-2.2891673349565069E-3</v>
+      </c>
+      <c r="R61" s="5">
+        <v>-0.21633625030517581</v>
+      </c>
+      <c r="S61" s="5">
+        <v>0.29582126617431642</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B62" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C62" s="4">
+        <v>9</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0.51989649868481691</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0.48010350131518309</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L62" s="4">
+        <v>0</v>
+      </c>
+      <c r="M62" s="9">
+        <v>-1.6578183337499611E-2</v>
+      </c>
+      <c r="N62" s="5">
+        <v>-7.1753733498709546E-2</v>
+      </c>
+      <c r="O62" s="5">
+        <v>-0.41504895912026463</v>
+      </c>
+      <c r="P62" s="5">
+        <v>-0.1105420688788096</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>0.41504895912026463</v>
+      </c>
+      <c r="R62" s="5">
+        <v>7.1753733498709546E-2</v>
+      </c>
+      <c r="S62" s="5">
+        <v>0.1105420688788096</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B63" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C63" s="4">
+        <v>9</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0.5529272060086009</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0.4470727939913991</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" s="4">
+        <v>0</v>
+      </c>
+      <c r="M63" s="9">
+        <v>-1.4444052552290101</v>
+      </c>
+      <c r="N63" s="5">
+        <v>-0.13427269977072009</v>
+      </c>
+      <c r="O63" s="5">
+        <v>-0.110581043788365</v>
+      </c>
+      <c r="P63" s="5">
+        <v>0.124452443226524</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>0.110581043788365</v>
+      </c>
+      <c r="R63" s="5">
+        <v>0.13427269977072009</v>
+      </c>
+      <c r="S63" s="5">
+        <v>-0.124452443226524</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="N7:N21">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22:N36">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -3302,7 +4168,187 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N22:N36">
+  <conditionalFormatting sqref="N37:N49">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:O21">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O22:O36">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37:O49">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7:P21">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P22:P36">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37:P49">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7:Q21">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22:Q36">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q37:Q49">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7:R21">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22:R36">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R37:R49">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S7:S21">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22:S36">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S37:S49">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -3314,127 +4360,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O21">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O22:O36">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7:P21">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P22:P36">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q7:Q21">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q22:Q36">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7:R21">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R22:R36">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S7:S21">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S22:S36">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N37:N49">
+  <conditionalFormatting sqref="N50:N63">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3446,7 +4372,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O37:O49">
+  <conditionalFormatting sqref="O50:O63">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3458,7 +4384,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P37:P49">
+  <conditionalFormatting sqref="P50:P63">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3470,7 +4396,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q37:Q49">
+  <conditionalFormatting sqref="Q50:Q63">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3482,7 +4408,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R37:R49">
+  <conditionalFormatting sqref="R50:R63">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3494,7 +4420,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S37:S49">
+  <conditionalFormatting sqref="S50:S63">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3514,7 +4440,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{48C4D57C-361D-AB47-A2B7-3D4E42CE6188}">
+          <x14:cfRule type="iconSet" priority="15" id="{48C4D57C-361D-AB47-A2B7-3D4E42CE6188}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3533,7 +4459,26 @@
           <xm:sqref>L22:L36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{4DC6D28C-E799-D04F-BAD2-092B8419C03D}">
+          <x14:cfRule type="iconSet" priority="8" id="{C3D59626-8CA7-8645-8330-0E71AB30C540}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>L37:L49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="22" id="{4DC6D28C-E799-D04F-BAD2-092B8419C03D}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3552,7 +4497,7 @@
           <xm:sqref>L7:M21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{C3D59626-8CA7-8645-8330-0E71AB30C540}">
+          <x14:cfRule type="iconSet" priority="1" id="{6D153A18-6D77-9445-BF8D-3BA4EDDD3FBA}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3568,7 +4513,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L37:L49</xm:sqref>
+          <xm:sqref>L50:L63</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5728,7 +6673,7 @@
   <dimension ref="B2:S21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6701,4 +7646,1033 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D539A5CD-9ABB-684B-97CA-499DC15CED77}">
+  <dimension ref="B2:S21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S21" sqref="B8:S21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
+    <col min="12" max="13" width="10" customWidth="1"/>
+    <col min="14" max="15" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="4">
+        <f>SUM($L$8:$L$20)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="4">
+        <f>COUNTA($L$8:$L$21)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="8">
+        <f>C2/C3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="F6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.44668876121047069</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.55331123878952926</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="9">
+        <v>-1.8151554391342779</v>
+      </c>
+      <c r="N8" s="5">
+        <v>-0.225263125860869</v>
+      </c>
+      <c r="O8" s="5">
+        <v>-0.16305417027966729</v>
+      </c>
+      <c r="P8" s="5">
+        <v>-1.721596966187159E-2</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0.16305417027966729</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.225263125860869</v>
+      </c>
+      <c r="S8" s="5">
+        <v>1.721596966187159E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.60003242203207108</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.39996757796792892</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>5.213673208336898</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.18499578748430531</v>
+      </c>
+      <c r="O9" s="5">
+        <v>-0.43041532585419812</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.35861015319824219</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.43041532585419812</v>
+      </c>
+      <c r="R9" s="5">
+        <v>-0.18499578748430531</v>
+      </c>
+      <c r="S9" s="5">
+        <v>-0.35861015319824219</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.69773234427470909</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.30226765572529091</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>5.1113255983497101</v>
+      </c>
+      <c r="N10" s="5">
+        <v>-3.801141065709731E-2</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1.8339883035688259E-2</v>
+      </c>
+      <c r="P10" s="5">
+        <v>-0.17444229920705159</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>-1.8339883035688259E-2</v>
+      </c>
+      <c r="R10" s="5">
+        <v>3.801141065709731E-2</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0.17444229920705159</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="4">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.71077260123876596</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.28922739876123399</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>8.8238013657149654</v>
+      </c>
+      <c r="N11" s="5">
+        <v>-1.5043538549672001E-3</v>
+      </c>
+      <c r="O11" s="5">
+        <v>-7.376173676037398E-2</v>
+      </c>
+      <c r="P11" s="5">
+        <v>-8.434862336691688E-3</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>7.376173676037398E-2</v>
+      </c>
+      <c r="R11" s="5">
+        <v>1.5043538549672001E-3</v>
+      </c>
+      <c r="S11" s="5">
+        <v>8.434862336691688E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.49332373862571433</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.50667626137428567</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="9">
+        <v>-1.8833131638053471</v>
+      </c>
+      <c r="N12" s="5">
+        <v>-0.1960059592598363</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.1036794483661652</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.19043291666928461</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>-0.1036794483661652</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.1960059592598363</v>
+      </c>
+      <c r="S12" s="5">
+        <v>-0.19043291666928461</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.61882510976001703</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.38117489023998302</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="9">
+        <v>4.6932068431331491</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1.2460860184260779E-2</v>
+      </c>
+      <c r="O13" s="5">
+        <v>-3.4125897843958967E-2</v>
+      </c>
+      <c r="P13" s="5">
+        <v>6.7735273104447588E-2</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>3.4125897843958967E-2</v>
+      </c>
+      <c r="R13" s="5">
+        <v>-1.2460860184260779E-2</v>
+      </c>
+      <c r="S13" s="5">
+        <v>-6.7735273104447588E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.48417670618079922</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.51582329381920089</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="9">
+        <v>-2.1777639232161161</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.15103745460510251</v>
+      </c>
+      <c r="O14" s="5">
+        <v>-0.24087369101388109</v>
+      </c>
+      <c r="P14" s="5">
+        <v>-0.23305712938308709</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0.24087369101388109</v>
+      </c>
+      <c r="R14" s="5">
+        <v>-0.15103745460510251</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0.23305712938308709</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C15" s="4">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.36042278414131651</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.63957721585868343</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>-3.7411637346719711</v>
+      </c>
+      <c r="N15" s="5">
+        <v>-0.1035743482185133</v>
+      </c>
+      <c r="O15" s="5">
+        <v>9.4617843627929688E-2</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.25383403566148538</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>-9.4617843627929688E-2</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.1035743482185133</v>
+      </c>
+      <c r="S15" s="5">
+        <v>-0.25383403566148538</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B16" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.24911203876744639</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.75088796123255352</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="9">
+        <v>-10.468339235065191</v>
+      </c>
+      <c r="N16" s="5">
+        <v>-0.2447796257174745</v>
+      </c>
+      <c r="O16" s="5">
+        <v>-4.180908203125E-2</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0.18575405252390889</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>4.180908203125E-2</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0.2447796257174745</v>
+      </c>
+      <c r="S16" s="5">
+        <v>-0.18575405252390889</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B17" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C17" s="4">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.75454089311519046</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.24545910688480951</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9">
+        <v>9.4243349182143561</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.25134553348316868</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.31206387565249488</v>
+      </c>
+      <c r="P17" s="5">
+        <v>-0.28692413413006329</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>-0.31206387565249488</v>
+      </c>
+      <c r="R17" s="5">
+        <v>-0.25134553348316868</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0.28692413413006329</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B18" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.3958420236876185</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.60415797631238144</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.78178819988491799</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.14785484769451079</v>
+      </c>
+      <c r="O18" s="5">
+        <v>-0.1031479203557394</v>
+      </c>
+      <c r="P18" s="5">
+        <v>-0.13232756578005281</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0.1031479203557394</v>
+      </c>
+      <c r="R18" s="5">
+        <v>-0.14785484769451079</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0.13232756578005281</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B19" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C19" s="4">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.49275135306535522</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.50724864693464489</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>5.8964152963200789E-2</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.21633625030517581</v>
+      </c>
+      <c r="O19" s="5">
+        <v>2.2891673349565069E-3</v>
+      </c>
+      <c r="P19" s="5">
+        <v>-0.29582126617431642</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>-2.2891673349565069E-3</v>
+      </c>
+      <c r="R19" s="5">
+        <v>-0.21633625030517581</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0.29582126617431642</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B20" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.51989649868481691</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.48010350131518309</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>-1.6578183337499611E-2</v>
+      </c>
+      <c r="N20" s="5">
+        <v>-7.1753733498709546E-2</v>
+      </c>
+      <c r="O20" s="5">
+        <v>-0.41504895912026463</v>
+      </c>
+      <c r="P20" s="5">
+        <v>-0.1105420688788096</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0.41504895912026463</v>
+      </c>
+      <c r="R20" s="5">
+        <v>7.1753733498709546E-2</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.1105420688788096</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B21" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C21" s="4">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.5529272060086009</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.4470727939913991</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>-1.4444052552290101</v>
+      </c>
+      <c r="N21" s="5">
+        <v>-0.13427269977072009</v>
+      </c>
+      <c r="O21" s="5">
+        <v>-0.110581043788365</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0.124452443226524</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0.110581043788365</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0.13427269977072009</v>
+      </c>
+      <c r="S21" s="5">
+        <v>-0.124452443226524</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N8:N21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8:O21">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8:P21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8:Q21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8:R21">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8:S21">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{FD3B42A5-2F55-1346-A05B-64259B97C831}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>L8:L21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/model results/2025 Results.xlsx
+++ b/model results/2025 Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmiller/Documents/Fun/nfl/model results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F09C1C1-03FD-934B-8314-752D14095C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BE4696-2A3B-4D48-8F72-9CAB0179433E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Week 10" sheetId="6" r:id="rId6"/>
     <sheet name="Week 11" sheetId="8" r:id="rId7"/>
     <sheet name="Week 12" sheetId="9" r:id="rId8"/>
+    <sheet name="Week 13" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="199">
   <si>
     <t>season</t>
   </si>
@@ -569,6 +570,75 @@
   <si>
     <t>+195</t>
   </si>
+  <si>
+    <t>-116</t>
+  </si>
+  <si>
+    <t>-174</t>
+  </si>
+  <si>
+    <t>+174</t>
+  </si>
+  <si>
+    <t>-131</t>
+  </si>
+  <si>
+    <t>+131</t>
+  </si>
+  <si>
+    <t>+250</t>
+  </si>
+  <si>
+    <t>-250</t>
+  </si>
+  <si>
+    <t>+240</t>
+  </si>
+  <si>
+    <t>-240</t>
+  </si>
+  <si>
+    <t>-178</t>
+  </si>
+  <si>
+    <t>+178</t>
+  </si>
+  <si>
+    <t>-251</t>
+  </si>
+  <si>
+    <t>-118</t>
+  </si>
+  <si>
+    <t>+118</t>
+  </si>
+  <si>
+    <t>-319</t>
+  </si>
+  <si>
+    <t>+319</t>
+  </si>
+  <si>
+    <t>-314</t>
+  </si>
+  <si>
+    <t>+314</t>
+  </si>
+  <si>
+    <t>-151</t>
+  </si>
+  <si>
+    <t>+164</t>
+  </si>
+  <si>
+    <t>-164</t>
+  </si>
+  <si>
+    <t>-221</t>
+  </si>
+  <si>
+    <t>+221</t>
+  </si>
 </sst>
 </file>
 
@@ -681,7 +751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -720,6 +790,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -732,10 +803,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1039,11 +1106,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E32420-1D15-E549-AAF4-FB71DE782F62}">
-  <dimension ref="B2:AH108"/>
+  <dimension ref="B2:AH124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1090,8 +1157,8 @@
       <c r="E2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
@@ -1099,19 +1166,19 @@
       </c>
       <c r="C3" s="13">
         <f>SUM(N9:N1000)</f>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D3" s="13">
         <f>COUNTA(N9:N1000)</f>
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E3" s="14">
         <f>C3/D3</f>
-        <v>0.69</v>
-      </c>
-      <c r="F3" s="23">
+        <v>0.68103448275862066</v>
+      </c>
+      <c r="F3" s="18">
         <f>D3-C3</f>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -1121,15 +1188,15 @@
       </c>
       <c r="C4" s="13">
         <f>SUM(V9:V1000)</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D4" s="13">
         <f>COUNTA(V9:V1000)</f>
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E4" s="14">
         <f>C4/D4</f>
-        <v>0.48275862068965519</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1140,15 +1207,15 @@
       </c>
       <c r="C5" s="13">
         <f>SUM(AB9:AB1000)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13">
         <f>COUNTA(AB9:AB1000)</f>
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E5" s="14">
         <f>C5/D5</f>
-        <v>0.48275862068965519</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1158,45 +1225,45 @@
       <c r="C6" s="17"/>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18" t="s">
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18" t="s">
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18" t="s">
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18" t="s">
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -9082,6 +9149,1622 @@
         <v>-0.20380350521632601</v>
       </c>
     </row>
+    <row r="109" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B109" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C109" s="4">
+        <v>13</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F109" s="4">
+        <v>24</v>
+      </c>
+      <c r="G109" s="4">
+        <v>31</v>
+      </c>
+      <c r="H109" s="8">
+        <v>0.48253295193992413</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J109" s="8">
+        <v>0.51746704806007582</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M109" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N109" s="4">
+        <v>1</v>
+      </c>
+      <c r="O109" s="15">
+        <v>25.529233570599331</v>
+      </c>
+      <c r="P109" s="15">
+        <v>25.607126002885931</v>
+      </c>
+      <c r="Q109" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="R109" s="15">
+        <v>-7.7892432286603253E-2</v>
+      </c>
+      <c r="S109" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T109" s="4">
+        <v>-7</v>
+      </c>
+      <c r="U109" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V109" s="4">
+        <v>1</v>
+      </c>
+      <c r="W109" s="4">
+        <v>48.5</v>
+      </c>
+      <c r="X109" s="9">
+        <v>51.136359573485272</v>
+      </c>
+      <c r="Y109" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z109" s="4">
+        <v>55</v>
+      </c>
+      <c r="AA109" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB109" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC109" s="5">
+        <v>4.8194105662996797E-2</v>
+      </c>
+      <c r="AD109" s="5">
+        <v>-0.31817717471365198</v>
+      </c>
+      <c r="AE109" s="5">
+        <v>5.2845547596613557E-2</v>
+      </c>
+      <c r="AF109" s="5">
+        <v>0.31817717471365198</v>
+      </c>
+      <c r="AG109" s="5">
+        <v>-4.8194105662996797E-2</v>
+      </c>
+      <c r="AH109" s="5">
+        <v>-5.2845547596613557E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B110" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C110" s="4">
+        <v>13</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F110" s="4">
+        <v>31</v>
+      </c>
+      <c r="G110" s="4">
+        <v>28</v>
+      </c>
+      <c r="H110" s="8">
+        <v>0.46143532478045052</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J110" s="8">
+        <v>0.53856467521954954</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M110" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N110" s="4">
+        <v>0</v>
+      </c>
+      <c r="O110" s="15">
+        <v>23.335191684024949</v>
+      </c>
+      <c r="P110" s="15">
+        <v>27.11730556268461</v>
+      </c>
+      <c r="Q110" s="4">
+        <v>-3.5</v>
+      </c>
+      <c r="R110" s="15">
+        <v>-3.7821138786596542</v>
+      </c>
+      <c r="S110" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T110" s="4">
+        <v>3</v>
+      </c>
+      <c r="U110" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V110" s="4">
+        <v>0</v>
+      </c>
+      <c r="W110" s="4">
+        <v>53.5</v>
+      </c>
+      <c r="X110" s="9">
+        <v>50.452497246709562</v>
+      </c>
+      <c r="Y110" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z110" s="4">
+        <v>59</v>
+      </c>
+      <c r="AA110" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB110" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC110" s="5">
+        <v>0.27415717857471411</v>
+      </c>
+      <c r="AD110" s="5">
+        <v>-0.17532253265380859</v>
+      </c>
+      <c r="AE110" s="5">
+        <v>-7.3952504566737586E-3</v>
+      </c>
+      <c r="AF110" s="5">
+        <v>0.17532253265380859</v>
+      </c>
+      <c r="AG110" s="5">
+        <v>-0.27415717857471411</v>
+      </c>
+      <c r="AH110" s="5">
+        <v>7.3952504566737586E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B111" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C111" s="4">
+        <v>13</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F111" s="4">
+        <v>14</v>
+      </c>
+      <c r="G111" s="4">
+        <v>32</v>
+      </c>
+      <c r="H111" s="8">
+        <v>0.63629110319441307</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J111" s="8">
+        <v>0.36370889680558688</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L111" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M111" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N111" s="4">
+        <v>0</v>
+      </c>
+      <c r="O111" s="15">
+        <v>25.27901628321883</v>
+      </c>
+      <c r="P111" s="15">
+        <v>20.5041983289656</v>
+      </c>
+      <c r="Q111" s="4">
+        <v>7</v>
+      </c>
+      <c r="R111" s="9">
+        <v>4.774817954253237</v>
+      </c>
+      <c r="S111" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T111" s="4">
+        <v>-18</v>
+      </c>
+      <c r="U111" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V111" s="4">
+        <v>1</v>
+      </c>
+      <c r="W111" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="X111" s="9">
+        <v>45.78321461218443</v>
+      </c>
+      <c r="Y111" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z111" s="4">
+        <v>46</v>
+      </c>
+      <c r="AA111" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB111" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC111" s="5">
+        <v>-0.33492178836111303</v>
+      </c>
+      <c r="AD111" s="5">
+        <v>-1.9006772213671579E-2</v>
+      </c>
+      <c r="AE111" s="5">
+        <v>-0.16997030929282861</v>
+      </c>
+      <c r="AF111" s="5">
+        <v>1.9006772213671579E-2</v>
+      </c>
+      <c r="AG111" s="5">
+        <v>0.33492178836111303</v>
+      </c>
+      <c r="AH111" s="5">
+        <v>0.16997030929282861</v>
+      </c>
+    </row>
+    <row r="112" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B112" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C112" s="4">
+        <v>13</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F112" s="4">
+        <v>15</v>
+      </c>
+      <c r="G112" s="4">
+        <v>24</v>
+      </c>
+      <c r="H112" s="8">
+        <v>0.56753267068476598</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J112" s="8">
+        <v>0.43246732931523402</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M112" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N112" s="4">
+        <v>0</v>
+      </c>
+      <c r="O112" s="15">
+        <v>24.962502032181931</v>
+      </c>
+      <c r="P112" s="15">
+        <v>18.993511265401501</v>
+      </c>
+      <c r="Q112" s="4">
+        <v>7</v>
+      </c>
+      <c r="R112" s="9">
+        <v>5.9689907667804292</v>
+      </c>
+      <c r="S112" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T112" s="4">
+        <v>-9</v>
+      </c>
+      <c r="U112" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V112" s="4">
+        <v>1</v>
+      </c>
+      <c r="W112" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="X112" s="9">
+        <v>43.956013297583432</v>
+      </c>
+      <c r="Y112" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z112" s="4">
+        <v>39</v>
+      </c>
+      <c r="AA112" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB112" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC112" s="5">
+        <v>-3.8964977451399263E-2</v>
+      </c>
+      <c r="AD112" s="5">
+        <v>-4.2160286459811902E-2</v>
+      </c>
+      <c r="AE112" s="5">
+        <v>-0.1730813407897949</v>
+      </c>
+      <c r="AF112" s="5">
+        <v>4.2160286459811902E-2</v>
+      </c>
+      <c r="AG112" s="5">
+        <v>3.8964977451399263E-2</v>
+      </c>
+      <c r="AH112" s="5">
+        <v>0.1730813407897949</v>
+      </c>
+    </row>
+    <row r="113" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B113" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C113" s="4">
+        <v>13</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" s="4">
+        <v>31</v>
+      </c>
+      <c r="G113" s="4">
+        <v>28</v>
+      </c>
+      <c r="H113" s="8">
+        <v>0.28542976443971663</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J113" s="8">
+        <v>0.71457023556028343</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L113" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M113" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N113" s="4">
+        <v>0</v>
+      </c>
+      <c r="O113" s="15">
+        <v>21.008246054848851</v>
+      </c>
+      <c r="P113" s="15">
+        <v>27.144541748462359</v>
+      </c>
+      <c r="Q113" s="4">
+        <v>-10</v>
+      </c>
+      <c r="R113" s="9">
+        <v>-6.1362956936135076</v>
+      </c>
+      <c r="S113" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T113" s="4">
+        <v>3</v>
+      </c>
+      <c r="U113" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V113" s="4">
+        <v>1</v>
+      </c>
+      <c r="W113" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X113" s="9">
+        <v>48.152787803311213</v>
+      </c>
+      <c r="Y113" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z113" s="4">
+        <v>59</v>
+      </c>
+      <c r="AA113" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB113" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC113" s="5">
+        <v>0.19092290909563911</v>
+      </c>
+      <c r="AD113" s="5">
+        <v>-0.14862052132101619</v>
+      </c>
+      <c r="AE113" s="5">
+        <v>-0.12567351758480069</v>
+      </c>
+      <c r="AF113" s="5">
+        <v>0.14862052132101619</v>
+      </c>
+      <c r="AG113" s="5">
+        <v>-0.19092290909563911</v>
+      </c>
+      <c r="AH113" s="5">
+        <v>0.12567351758480069</v>
+      </c>
+    </row>
+    <row r="114" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B114" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C114" s="4">
+        <v>13</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" s="4">
+        <v>8</v>
+      </c>
+      <c r="G114" s="4">
+        <v>26</v>
+      </c>
+      <c r="H114" s="8">
+        <v>0.29341196841472611</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="J114" s="8">
+        <v>0.70658803158527395</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L114" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M114" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N114" s="4">
+        <v>1</v>
+      </c>
+      <c r="O114" s="15">
+        <v>19.126576732061579</v>
+      </c>
+      <c r="P114" s="15">
+        <v>24.024825809834759</v>
+      </c>
+      <c r="Q114" s="4">
+        <v>-5.5</v>
+      </c>
+      <c r="R114" s="15">
+        <v>-4.8982490777731833</v>
+      </c>
+      <c r="S114" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T114" s="4">
+        <v>-18</v>
+      </c>
+      <c r="U114" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V114" s="4">
+        <v>0</v>
+      </c>
+      <c r="W114" s="4">
+        <v>35.5</v>
+      </c>
+      <c r="X114" s="9">
+        <v>43.151402541896353</v>
+      </c>
+      <c r="Y114" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z114" s="4">
+        <v>34</v>
+      </c>
+      <c r="AA114" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB114" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC114" s="5">
+        <v>-0.237057993488927</v>
+      </c>
+      <c r="AD114" s="5">
+        <v>-2.5767023746783919E-2</v>
+      </c>
+      <c r="AE114" s="5">
+        <v>-0.40003050457347522</v>
+      </c>
+      <c r="AF114" s="5">
+        <v>2.5767023746783919E-2</v>
+      </c>
+      <c r="AG114" s="5">
+        <v>0.237057993488927</v>
+      </c>
+      <c r="AH114" s="5">
+        <v>0.40003050457347522</v>
+      </c>
+    </row>
+    <row r="115" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B115" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C115" s="4">
+        <v>13</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F115" s="4">
+        <v>16</v>
+      </c>
+      <c r="G115" s="4">
+        <v>20</v>
+      </c>
+      <c r="H115" s="8">
+        <v>0.64065800177892263</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J115" s="8">
+        <v>0.35934199822107737</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L115" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M115" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N115" s="4">
+        <v>0</v>
+      </c>
+      <c r="O115" s="15">
+        <v>26.080700971734249</v>
+      </c>
+      <c r="P115" s="15">
+        <v>21.40125468180058</v>
+      </c>
+      <c r="Q115" s="4">
+        <v>3</v>
+      </c>
+      <c r="R115" s="9">
+        <v>4.6794462899336624</v>
+      </c>
+      <c r="S115" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T115" s="4">
+        <v>-4</v>
+      </c>
+      <c r="U115" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V115" s="4">
+        <v>0</v>
+      </c>
+      <c r="W115" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X115" s="9">
+        <v>47.481955653534833</v>
+      </c>
+      <c r="Y115" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z115" s="4">
+        <v>36</v>
+      </c>
+      <c r="AA115" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB115" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC115" s="5">
+        <v>-3.4005244572957359E-2</v>
+      </c>
+      <c r="AD115" s="5">
+        <v>-3.0582845211029049E-2</v>
+      </c>
+      <c r="AE115" s="5">
+        <v>-0.1390877257693898</v>
+      </c>
+      <c r="AF115" s="5">
+        <v>3.0582845211029049E-2</v>
+      </c>
+      <c r="AG115" s="5">
+        <v>3.4005244572957359E-2</v>
+      </c>
+      <c r="AH115" s="5">
+        <v>0.1390877257693898</v>
+      </c>
+    </row>
+    <row r="116" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B116" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C116" s="4">
+        <v>13</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F116" s="4">
+        <v>21</v>
+      </c>
+      <c r="G116" s="4">
+        <v>17</v>
+      </c>
+      <c r="H116" s="8">
+        <v>0.71553632687105495</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J116" s="8">
+        <v>0.28446367312894499</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L116" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M116" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N116" s="4">
+        <v>1</v>
+      </c>
+      <c r="O116" s="15">
+        <v>26.918813575615321</v>
+      </c>
+      <c r="P116" s="15">
+        <v>17.904846113736539</v>
+      </c>
+      <c r="Q116" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="R116" s="15">
+        <v>9.0139674618787886</v>
+      </c>
+      <c r="S116" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T116" s="4">
+        <v>4</v>
+      </c>
+      <c r="U116" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V116" s="4">
+        <v>0</v>
+      </c>
+      <c r="W116" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="X116" s="9">
+        <v>44.823659689351857</v>
+      </c>
+      <c r="Y116" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z116" s="4">
+        <v>38</v>
+      </c>
+      <c r="AA116" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB116" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC116" s="5">
+        <v>-0.1349042739186968</v>
+      </c>
+      <c r="AD116" s="5">
+        <v>0.14688459123883929</v>
+      </c>
+      <c r="AE116" s="5">
+        <v>1.8373789610686121E-2</v>
+      </c>
+      <c r="AF116" s="5">
+        <v>-0.14688459123883929</v>
+      </c>
+      <c r="AG116" s="5">
+        <v>0.1349042739186968</v>
+      </c>
+      <c r="AH116" s="5">
+        <v>-1.8373789610686121E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B117" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C117" s="4">
+        <v>13</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F117" s="4">
+        <v>27</v>
+      </c>
+      <c r="G117" s="4">
+        <v>24</v>
+      </c>
+      <c r="H117" s="8">
+        <v>0.46351676924061591</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J117" s="8">
+        <v>0.53648323075938409</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="L117" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M117" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N117" s="4">
+        <v>0</v>
+      </c>
+      <c r="O117" s="15">
+        <v>24.52010004134878</v>
+      </c>
+      <c r="P117" s="15">
+        <v>24.57762602875588</v>
+      </c>
+      <c r="Q117" s="4">
+        <v>-3</v>
+      </c>
+      <c r="R117" s="9">
+        <v>-5.7525987407096579E-2</v>
+      </c>
+      <c r="S117" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T117" s="4">
+        <v>3</v>
+      </c>
+      <c r="U117" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V117" s="4">
+        <v>1</v>
+      </c>
+      <c r="W117" s="4">
+        <v>38.5</v>
+      </c>
+      <c r="X117" s="9">
+        <v>49.097726070104663</v>
+      </c>
+      <c r="Y117" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z117" s="4">
+        <v>51</v>
+      </c>
+      <c r="AA117" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB117" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC117" s="5">
+        <v>2.3049904749943659E-2</v>
+      </c>
+      <c r="AD117" s="5">
+        <v>-0.1808726822120556</v>
+      </c>
+      <c r="AE117" s="5">
+        <v>0.46029137120102392</v>
+      </c>
+      <c r="AF117" s="5">
+        <v>0.1808726822120556</v>
+      </c>
+      <c r="AG117" s="5">
+        <v>-2.3049904749943659E-2</v>
+      </c>
+      <c r="AH117" s="5">
+        <v>-0.46029137120102392</v>
+      </c>
+    </row>
+    <row r="118" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B118" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C118" s="4">
+        <v>13</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118" s="4">
+        <v>20</v>
+      </c>
+      <c r="G118" s="4">
+        <v>17</v>
+      </c>
+      <c r="H118" s="8">
+        <v>0.54317326890060746</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J118" s="8">
+        <v>0.45682673109939248</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L118" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M118" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N118" s="4">
+        <v>1</v>
+      </c>
+      <c r="O118" s="15">
+        <v>22.25229424880515</v>
+      </c>
+      <c r="P118" s="15">
+        <v>19.465320455178389</v>
+      </c>
+      <c r="Q118" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R118" s="9">
+        <v>2.7869737936267569</v>
+      </c>
+      <c r="S118" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T118" s="4">
+        <v>3</v>
+      </c>
+      <c r="U118" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V118" s="4">
+        <v>1</v>
+      </c>
+      <c r="W118" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X118" s="9">
+        <v>41.717614703983543</v>
+      </c>
+      <c r="Y118" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z118" s="4">
+        <v>37</v>
+      </c>
+      <c r="AA118" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB118" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC118" s="5">
+        <v>-2.9960443233621532E-2</v>
+      </c>
+      <c r="AD118" s="5">
+        <v>2.6304463545481369E-2</v>
+      </c>
+      <c r="AE118" s="5">
+        <v>0.3582997114762016</v>
+      </c>
+      <c r="AF118" s="5">
+        <v>-2.6304463545481369E-2</v>
+      </c>
+      <c r="AG118" s="5">
+        <v>2.9960443233621532E-2</v>
+      </c>
+      <c r="AH118" s="5">
+        <v>-0.3582997114762016</v>
+      </c>
+    </row>
+    <row r="119" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B119" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C119" s="4">
+        <v>13</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" s="4">
+        <v>3</v>
+      </c>
+      <c r="G119" s="4">
+        <v>25</v>
+      </c>
+      <c r="H119" s="8">
+        <v>0.31470373992465139</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J119" s="8">
+        <v>0.68529626007534861</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="L119" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M119" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N119" s="4">
+        <v>1</v>
+      </c>
+      <c r="O119" s="15">
+        <v>19.256245495337371</v>
+      </c>
+      <c r="P119" s="15">
+        <v>24.747670521983679</v>
+      </c>
+      <c r="Q119" s="4">
+        <v>-6</v>
+      </c>
+      <c r="R119" s="15">
+        <v>-5.4914250266463078</v>
+      </c>
+      <c r="S119" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T119" s="4">
+        <v>-22</v>
+      </c>
+      <c r="U119" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V119" s="4">
+        <v>0</v>
+      </c>
+      <c r="W119" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="X119" s="9">
+        <v>44.003916017321053</v>
+      </c>
+      <c r="Y119" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z119" s="4">
+        <v>28</v>
+      </c>
+      <c r="AA119" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB119" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC119" s="5">
+        <v>-0.37743313029661019</v>
+      </c>
+      <c r="AD119" s="5">
+        <v>-9.9263052145640053E-3</v>
+      </c>
+      <c r="AE119" s="5">
+        <v>-8.1854213367808945E-2</v>
+      </c>
+      <c r="AF119" s="5">
+        <v>9.9263052145640053E-3</v>
+      </c>
+      <c r="AG119" s="5">
+        <v>0.37743313029661019</v>
+      </c>
+      <c r="AH119" s="5">
+        <v>8.1854213367808945E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B120" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C120" s="4">
+        <v>13</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F120" s="4">
+        <v>26</v>
+      </c>
+      <c r="G120" s="4">
+        <v>0</v>
+      </c>
+      <c r="H120" s="8">
+        <v>0.76149653354981373</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J120" s="8">
+        <v>0.2385034664501863</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="L120" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M120" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N120" s="4">
+        <v>1</v>
+      </c>
+      <c r="O120" s="15">
+        <v>26.62777531950438</v>
+      </c>
+      <c r="P120" s="15">
+        <v>17.542469137365181</v>
+      </c>
+      <c r="Q120" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="R120" s="9">
+        <v>9.0853061821392025</v>
+      </c>
+      <c r="S120" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T120" s="4">
+        <v>26</v>
+      </c>
+      <c r="U120" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V120" s="4">
+        <v>0</v>
+      </c>
+      <c r="W120" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="X120" s="9">
+        <v>44.170244456869547</v>
+      </c>
+      <c r="Y120" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z120" s="4">
+        <v>26</v>
+      </c>
+      <c r="AA120" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB120" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC120" s="5">
+        <v>-0.1377916763077921</v>
+      </c>
+      <c r="AD120" s="5">
+        <v>0.6641845703125</v>
+      </c>
+      <c r="AE120" s="5">
+        <v>0.18704989682073181</v>
+      </c>
+      <c r="AF120" s="5">
+        <v>-0.6641845703125</v>
+      </c>
+      <c r="AG120" s="5">
+        <v>0.1377916763077921</v>
+      </c>
+      <c r="AH120" s="5">
+        <v>-0.18704989682073181</v>
+      </c>
+    </row>
+    <row r="121" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B121" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C121" s="4">
+        <v>13</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F121" s="4">
+        <v>31</v>
+      </c>
+      <c r="G121" s="4">
+        <v>14</v>
+      </c>
+      <c r="H121" s="8">
+        <v>0.75882698175695307</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J121" s="8">
+        <v>0.2411730182430469</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="L121" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M121" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N121" s="4">
+        <v>1</v>
+      </c>
+      <c r="O121" s="15">
+        <v>26.695924407346009</v>
+      </c>
+      <c r="P121" s="15">
+        <v>16.29599177358509</v>
+      </c>
+      <c r="Q121" s="4">
+        <v>10</v>
+      </c>
+      <c r="R121" s="9">
+        <v>10.399932633760921</v>
+      </c>
+      <c r="S121" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T121" s="4">
+        <v>17</v>
+      </c>
+      <c r="U121" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V121" s="4">
+        <v>1</v>
+      </c>
+      <c r="W121" s="4">
+        <v>40.5</v>
+      </c>
+      <c r="X121" s="9">
+        <v>42.991916180931099</v>
+      </c>
+      <c r="Y121" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z121" s="4">
+        <v>45</v>
+      </c>
+      <c r="AA121" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB121" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC121" s="5">
+        <v>0.1381939227764423</v>
+      </c>
+      <c r="AD121" s="5">
+        <v>0.25111865997314448</v>
+      </c>
+      <c r="AE121" s="5">
+        <v>9.6234646710482513E-2</v>
+      </c>
+      <c r="AF121" s="5">
+        <v>-0.25111865997314448</v>
+      </c>
+      <c r="AG121" s="5">
+        <v>-0.1381939227764423</v>
+      </c>
+      <c r="AH121" s="5">
+        <v>-9.6234646710482513E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B122" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C122" s="4">
+        <v>13</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F122" s="4">
+        <v>7</v>
+      </c>
+      <c r="G122" s="4">
+        <v>26</v>
+      </c>
+      <c r="H122" s="8">
+        <v>0.39730694064557293</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J122" s="8">
+        <v>0.60269305935442707</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M122" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N122" s="4">
+        <v>1</v>
+      </c>
+      <c r="O122" s="9">
+        <v>20.211740109905939</v>
+      </c>
+      <c r="P122" s="15">
+        <v>26.383452346648141</v>
+      </c>
+      <c r="Q122" s="4">
+        <v>-3</v>
+      </c>
+      <c r="R122" s="9">
+        <v>-6.1717122367422057</v>
+      </c>
+      <c r="S122" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T122" s="4">
+        <v>-19</v>
+      </c>
+      <c r="U122" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V122" s="4">
+        <v>1</v>
+      </c>
+      <c r="W122" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X122" s="9">
+        <v>46.595192456554066</v>
+      </c>
+      <c r="Y122" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z122" s="4">
+        <v>33</v>
+      </c>
+      <c r="AA122" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB122" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC122" s="5">
+        <v>-0.42424911676451221</v>
+      </c>
+      <c r="AD122" s="5">
+        <v>-0.10006493491095469</v>
+      </c>
+      <c r="AE122" s="5">
+        <v>3.5115478932857512E-2</v>
+      </c>
+      <c r="AF122" s="5">
+        <v>0.10006493491095469</v>
+      </c>
+      <c r="AG122" s="5">
+        <v>0.42424911676451221</v>
+      </c>
+      <c r="AH122" s="5">
+        <v>-3.5115478932857512E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B123" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C123" s="4">
+        <v>13</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="4">
+        <v>26</v>
+      </c>
+      <c r="G123" s="4">
+        <v>27</v>
+      </c>
+      <c r="H123" s="8">
+        <v>0.37833675513830672</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J123" s="8">
+        <v>0.62166324486169333</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L123" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M123" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N123" s="4">
+        <v>1</v>
+      </c>
+      <c r="O123" s="9">
+        <v>20.29185647762786</v>
+      </c>
+      <c r="P123" s="15">
+        <v>25.954848263773609</v>
+      </c>
+      <c r="Q123" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="R123" s="9">
+        <v>-5.6629917861457528</v>
+      </c>
+      <c r="S123" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T123" s="4">
+        <v>-1</v>
+      </c>
+      <c r="U123" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V123" s="4">
+        <v>1</v>
+      </c>
+      <c r="W123" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="X123" s="9">
+        <v>46.246704741401473</v>
+      </c>
+      <c r="Y123" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z123" s="4">
+        <v>53</v>
+      </c>
+      <c r="AA123" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB123" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC123" s="5">
+        <v>9.9916902455416595E-2</v>
+      </c>
+      <c r="AD123" s="5">
+        <v>-0.15219854627336771</v>
+      </c>
+      <c r="AE123" s="5">
+        <v>1.051500687996546E-2</v>
+      </c>
+      <c r="AF123" s="5">
+        <v>0.15219854627336771</v>
+      </c>
+      <c r="AG123" s="5">
+        <v>-9.9916902455416595E-2</v>
+      </c>
+      <c r="AH123" s="5">
+        <v>-1.051500687996546E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B124" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C124" s="4">
+        <v>13</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="4">
+        <v>33</v>
+      </c>
+      <c r="G124" s="4">
+        <v>15</v>
+      </c>
+      <c r="H124" s="8">
+        <v>0.6888767985257922</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="J124" s="8">
+        <v>0.3111232014742078</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="L124" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M124" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N124" s="4">
+        <v>1</v>
+      </c>
+      <c r="O124" s="9">
+        <v>29.212794798274679</v>
+      </c>
+      <c r="P124" s="15">
+        <v>20.605659243440741</v>
+      </c>
+      <c r="Q124" s="4">
+        <v>7</v>
+      </c>
+      <c r="R124" s="9">
+        <v>8.6071355548339383</v>
+      </c>
+      <c r="S124" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T124" s="4">
+        <v>18</v>
+      </c>
+      <c r="U124" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V124" s="4">
+        <v>1</v>
+      </c>
+      <c r="W124" s="4">
+        <v>46.5</v>
+      </c>
+      <c r="X124" s="9">
+        <v>49.81845404171542</v>
+      </c>
+      <c r="Y124" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z124" s="4">
+        <v>48</v>
+      </c>
+      <c r="AA124" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB124" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC124" s="5">
+        <v>0.15040765489850719</v>
+      </c>
+      <c r="AD124" s="5">
+        <v>9.7416504946621976E-2</v>
+      </c>
+      <c r="AE124" s="5">
+        <v>0.19194484674013579</v>
+      </c>
+      <c r="AF124" s="5">
+        <v>-9.7416504946621976E-2</v>
+      </c>
+      <c r="AG124" s="5">
+        <v>-0.15040765489850719</v>
+      </c>
+      <c r="AH124" s="5">
+        <v>-0.19194484674013579</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="AF7:AH7"/>
@@ -9092,6 +10775,186 @@
     <mergeCell ref="AC7:AE7"/>
   </mergeCells>
   <conditionalFormatting sqref="AC9:AC23">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC24:AC38">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC39:AC51">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC52:AC65">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC66:AC79">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC80:AC94">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC95:AC108">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD9:AD23">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD24:AD38">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD39:AD51">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD52:AD65">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD66:AD79">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD80:AD94">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD95:AD108">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9:AE23">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE24:AE38">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -9103,79 +10966,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC24:AC38">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC39:AC51">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC52:AC65">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC66:AC79">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC80:AC94">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD9:AD23">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD24:AD38">
+  <conditionalFormatting sqref="AE39:AE51">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -9187,92 +10978,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD39:AD51">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD52:AD65">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD66:AD79">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD80:AD94">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE9:AE23">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE24:AE38">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE39:AE51">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AE52:AE65">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9284,7 +10991,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE66:AE79">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9296,6 +11003,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE80:AE94">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE95:AE108">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -9308,6 +11027,186 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF9:AF23">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF24:AF38">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF39:AF51">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF52:AF65">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF66:AF79">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF80:AF94">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF95:AF108">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9:AG23">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG24:AG38">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG39:AG51">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG52:AG65">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG66:AG79">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG80:AG94">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG95:AG108">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH9:AH23">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH24:AH38">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -9319,139 +11218,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF24:AF38">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF39:AF51">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF52:AF65">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF66:AF79">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF80:AF94">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG9:AG23">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG24:AG38">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG39:AG51">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG52:AG65">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG66:AG79">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG80:AG94">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH9:AH23">
+  <conditionalFormatting sqref="AH39:AH51">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -9463,7 +11230,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH24:AH38">
+  <conditionalFormatting sqref="AH52:AH65">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -9475,32 +11242,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH39:AH51">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH52:AH65">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AH66:AH79">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9512,7 +11255,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH80:AH94">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9523,7 +11266,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC95:AC108">
+  <conditionalFormatting sqref="AH95:AH108">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC109:AC124">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -9535,7 +11290,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD95:AD108">
+  <conditionalFormatting sqref="AD109:AD124">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -9547,7 +11302,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE95:AE108">
+  <conditionalFormatting sqref="AE109:AE124">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -9559,7 +11314,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF95:AF108">
+  <conditionalFormatting sqref="AF109:AF124">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -9571,7 +11326,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG95:AG108">
+  <conditionalFormatting sqref="AG109:AG124">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -9583,7 +11338,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH95:AH108">
+  <conditionalFormatting sqref="AH109:AH124">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -9603,7 +11358,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{EDEA8277-96E2-534B-9496-1DB5484BFD68}">
+          <x14:cfRule type="iconSet" priority="27" id="{EDEA8277-96E2-534B-9496-1DB5484BFD68}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9622,7 +11377,26 @@
           <xm:sqref>N80:N94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="40" id="{48C4D57C-361D-AB47-A2B7-3D4E42CE6188}">
+          <x14:cfRule type="iconSet" priority="10" id="{DD4EF5CC-2E62-F245-AF58-2756E5752FDF}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>N95:N108</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="49" id="{48C4D57C-361D-AB47-A2B7-3D4E42CE6188}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9641,7 +11415,7 @@
           <xm:sqref>N24:AA38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="33" id="{C3D59626-8CA7-8645-8330-0E71AB30C540}">
+          <x14:cfRule type="iconSet" priority="42" id="{C3D59626-8CA7-8645-8330-0E71AB30C540}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9660,7 +11434,7 @@
           <xm:sqref>N39:AA51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{6D153A18-6D77-9445-BF8D-3BA4EDDD3FBA}">
+          <x14:cfRule type="iconSet" priority="35" id="{6D153A18-6D77-9445-BF8D-3BA4EDDD3FBA}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9679,7 +11453,7 @@
           <xm:sqref>N52:AA65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{C34C5491-7DF8-D04C-B3C0-3779DAAA33EE}">
+          <x14:cfRule type="iconSet" priority="28" id="{C34C5491-7DF8-D04C-B3C0-3779DAAA33EE}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9698,7 +11472,7 @@
           <xm:sqref>N66:AA79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="47" id="{4DC6D28C-E799-D04F-BAD2-092B8419C03D}">
+          <x14:cfRule type="iconSet" priority="56" id="{4DC6D28C-E799-D04F-BAD2-092B8419C03D}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9717,7 +11491,7 @@
           <xm:sqref>N9:AB23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{92AD66C2-D91E-D648-9AC6-2417C2445C43}">
+          <x14:cfRule type="iconSet" priority="20" id="{92AD66C2-D91E-D648-9AC6-2417C2445C43}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9736,7 +11510,26 @@
           <xm:sqref>V80:V94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{409D8166-545E-3045-805D-7C96DC6956B1}">
+          <x14:cfRule type="iconSet" priority="11" id="{2D523F71-4BB4-9940-8B5D-C962CA9D6F15}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>V95:V108</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="19" id="{409D8166-545E-3045-805D-7C96DC6956B1}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9755,45 +11548,7 @@
           <xm:sqref>AB80:AB94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{DD4EF5CC-2E62-F245-AF58-2756E5752FDF}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>N95:N108</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{2D523F71-4BB4-9940-8B5D-C962CA9D6F15}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>V95:V108</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{578139A0-9556-A24C-89D1-3B66D89331FA}">
+          <x14:cfRule type="iconSet" priority="12" id="{578139A0-9556-A24C-89D1-3B66D89331FA}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9810,6 +11565,63 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>AB95:AB108</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{37C61786-4A12-0746-A763-4990B69F05C7}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>N109:N124</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{2094B9A9-658A-3D41-A969-4F7B5F1A7D42}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>V109:V124</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{869A3731-7EDB-9143-AD0D-591DEB781BAF}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AB109:AB124</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9872,27 +11684,27 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="18" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18" t="s">
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -10930,28 +12742,28 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="18" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18" t="s">
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -12022,28 +13834,28 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="18" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18" t="s">
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -13002,28 +14814,28 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="18" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18" t="s">
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -14031,28 +15843,28 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="18" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18" t="s">
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -16113,45 +17925,45 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18" t="s">
+      <c r="N7" s="19"/>
+      <c r="O7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18" t="s">
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18" t="s">
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18" t="s">
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -17825,7 +19637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5168B967-3FE3-EE4E-A104-AA63F82E9BED}">
   <dimension ref="B2:AH22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
@@ -17914,45 +19726,45 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18" t="s">
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18" t="s">
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18" t="s">
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18" t="s">
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -19471,12 +21283,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AF7:AH7"/>
     <mergeCell ref="H7:N7"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="Q7:V7"/>
     <mergeCell ref="W7:AB7"/>
     <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="AF7:AH7"/>
   </mergeCells>
   <conditionalFormatting sqref="AC9:AC22">
     <cfRule type="colorScale" priority="48">
@@ -19618,4 +21430,2005 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44FA5A1-BBDB-B847-B56F-A988AF1A9410}">
+  <dimension ref="B2:AH24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="13">
+        <f>COUNTA($C$9:$C$24)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="13">
+        <f>SUM(N9:$N$24)</f>
+        <v>10</v>
+      </c>
+      <c r="D3" s="14">
+        <f>C3/$C$2</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="13">
+        <f>SUM(V9:$V$24)</f>
+        <v>10</v>
+      </c>
+      <c r="D4" s="14">
+        <f t="shared" ref="D4:D5" si="0">C4/$C$2</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="13">
+        <f>SUM(AB9:$AB$24)</f>
+        <v>8</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="H7" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B9" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="4">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="4">
+        <v>24</v>
+      </c>
+      <c r="G9" s="4">
+        <v>31</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.48253295193992413</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.51746704806007582</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="15">
+        <v>25.529233570599331</v>
+      </c>
+      <c r="P9" s="15">
+        <v>25.607126002885931</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="R9" s="15">
+        <v>-7.7892432286603253E-2</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T9" s="4">
+        <v>-7</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
+      <c r="W9" s="4">
+        <v>48.5</v>
+      </c>
+      <c r="X9" s="9">
+        <v>51.136359573485272</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>55</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>4.8194105662996797E-2</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>-0.31817717471365198</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>5.2845547596613557E-2</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>0.31817717471365198</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>-4.8194105662996797E-2</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>-5.2845547596613557E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B10" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="4">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="4">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4">
+        <v>28</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.46143532478045052</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.53856467521954954</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="15">
+        <v>23.335191684024949</v>
+      </c>
+      <c r="P10" s="15">
+        <v>27.11730556268461</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>-3.5</v>
+      </c>
+      <c r="R10" s="15">
+        <v>-3.7821138786596542</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T10" s="4">
+        <v>3</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>53.5</v>
+      </c>
+      <c r="X10" s="9">
+        <v>50.452497246709562</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>59</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>0.27415717857471411</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>-0.17532253265380859</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>-7.3952504566737586E-3</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>0.17532253265380859</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>-0.27415717857471411</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>7.3952504566737586E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B11" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="4">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="4">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4">
+        <v>32</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.63629110319441307</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.36370889680558688</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15">
+        <v>25.27901628321883</v>
+      </c>
+      <c r="P11" s="15">
+        <v>20.5041983289656</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>7</v>
+      </c>
+      <c r="R11" s="9">
+        <v>4.774817954253237</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T11" s="4">
+        <v>-18</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V11" s="4">
+        <v>1</v>
+      </c>
+      <c r="W11" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="X11" s="9">
+        <v>45.78321461218443</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>46</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>-0.33492178836111303</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>-1.9006772213671579E-2</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>-0.16997030929282861</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>1.9006772213671579E-2</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>0.33492178836111303</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>0.16997030929282861</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B12" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C12" s="4">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="4">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4">
+        <v>24</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.56753267068476598</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.43246732931523402</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="15">
+        <v>24.962502032181931</v>
+      </c>
+      <c r="P12" s="15">
+        <v>18.993511265401501</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>7</v>
+      </c>
+      <c r="R12" s="9">
+        <v>5.9689907667804292</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T12" s="4">
+        <v>-9</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V12" s="4">
+        <v>1</v>
+      </c>
+      <c r="W12" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="X12" s="9">
+        <v>43.956013297583432</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>39</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>-3.8964977451399263E-2</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>-4.2160286459811902E-2</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>-0.1730813407897949</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>4.2160286459811902E-2</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>3.8964977451399263E-2</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>0.1730813407897949</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B13" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C13" s="4">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="4">
+        <v>31</v>
+      </c>
+      <c r="G13" s="4">
+        <v>28</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.28542976443971663</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.71457023556028343</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="15">
+        <v>21.008246054848851</v>
+      </c>
+      <c r="P13" s="15">
+        <v>27.144541748462359</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>-10</v>
+      </c>
+      <c r="R13" s="9">
+        <v>-6.1362956936135076</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T13" s="4">
+        <v>3</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V13" s="4">
+        <v>1</v>
+      </c>
+      <c r="W13" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X13" s="9">
+        <v>48.152787803311213</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>59</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>0.19092290909563911</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>-0.14862052132101619</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>-0.12567351758480069</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>0.14862052132101619</v>
+      </c>
+      <c r="AG13" s="5">
+        <v>-0.19092290909563911</v>
+      </c>
+      <c r="AH13" s="5">
+        <v>0.12567351758480069</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B14" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C14" s="4">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="4">
+        <v>8</v>
+      </c>
+      <c r="G14" s="4">
+        <v>26</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.29341196841472611</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.70658803158527395</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="15">
+        <v>19.126576732061579</v>
+      </c>
+      <c r="P14" s="15">
+        <v>24.024825809834759</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>-5.5</v>
+      </c>
+      <c r="R14" s="15">
+        <v>-4.8982490777731833</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T14" s="4">
+        <v>-18</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <v>35.5</v>
+      </c>
+      <c r="X14" s="9">
+        <v>43.151402541896353</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>34</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>-0.237057993488927</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>-2.5767023746783919E-2</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>-0.40003050457347522</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>2.5767023746783919E-2</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>0.237057993488927</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>0.40003050457347522</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B15" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C15" s="4">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="4">
+        <v>16</v>
+      </c>
+      <c r="G15" s="4">
+        <v>20</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.64065800177892263</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.35934199822107737</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="15">
+        <v>26.080700971734249</v>
+      </c>
+      <c r="P15" s="15">
+        <v>21.40125468180058</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>3</v>
+      </c>
+      <c r="R15" s="9">
+        <v>4.6794462899336624</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T15" s="4">
+        <v>-4</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X15" s="9">
+        <v>47.481955653534833</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>36</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>-3.4005244572957359E-2</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>-3.0582845211029049E-2</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>-0.1390877257693898</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>3.0582845211029049E-2</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>3.4005244572957359E-2</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>0.1390877257693898</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B16" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C16" s="4">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="4">
+        <v>21</v>
+      </c>
+      <c r="G16" s="4">
+        <v>17</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.71553632687105495</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.28446367312894499</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="15">
+        <v>26.918813575615321</v>
+      </c>
+      <c r="P16" s="15">
+        <v>17.904846113736539</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="R16" s="15">
+        <v>9.0139674618787886</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T16" s="4">
+        <v>4</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="X16" s="9">
+        <v>44.823659689351857</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>38</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>-0.1349042739186968</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>0.14688459123883929</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>1.8373789610686121E-2</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>-0.14688459123883929</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>0.1349042739186968</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>-1.8373789610686121E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B17" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C17" s="4">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="4">
+        <v>27</v>
+      </c>
+      <c r="G17" s="4">
+        <v>24</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.46351676924061591</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.53648323075938409</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="15">
+        <v>24.52010004134878</v>
+      </c>
+      <c r="P17" s="15">
+        <v>24.57762602875588</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>-3</v>
+      </c>
+      <c r="R17" s="9">
+        <v>-5.7525987407096579E-2</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T17" s="4">
+        <v>3</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V17" s="4">
+        <v>1</v>
+      </c>
+      <c r="W17" s="4">
+        <v>38.5</v>
+      </c>
+      <c r="X17" s="9">
+        <v>49.097726070104663</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>51</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>2.3049904749943659E-2</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>-0.1808726822120556</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>0.46029137120102392</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>0.1808726822120556</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>-2.3049904749943659E-2</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>-0.46029137120102392</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B18" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C18" s="4">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="4">
+        <v>20</v>
+      </c>
+      <c r="G18" s="4">
+        <v>17</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.54317326890060746</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.45682673109939248</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="O18" s="15">
+        <v>22.25229424880515</v>
+      </c>
+      <c r="P18" s="15">
+        <v>19.465320455178389</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R18" s="9">
+        <v>2.7869737936267569</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T18" s="4">
+        <v>3</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V18" s="4">
+        <v>1</v>
+      </c>
+      <c r="W18" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X18" s="9">
+        <v>41.717614703983543</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>37</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>-2.9960443233621532E-2</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>2.6304463545481369E-2</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>0.3582997114762016</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>-2.6304463545481369E-2</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>2.9960443233621532E-2</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>-0.3582997114762016</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B19" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C19" s="4">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3</v>
+      </c>
+      <c r="G19" s="4">
+        <v>25</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.31470373992465139</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.68529626007534861</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="15">
+        <v>19.256245495337371</v>
+      </c>
+      <c r="P19" s="15">
+        <v>24.747670521983679</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>-6</v>
+      </c>
+      <c r="R19" s="15">
+        <v>-5.4914250266463078</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T19" s="4">
+        <v>-22</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="X19" s="9">
+        <v>44.003916017321053</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>28</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>-0.37743313029661019</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>-9.9263052145640053E-3</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>-8.1854213367808945E-2</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>9.9263052145640053E-3</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>0.37743313029661019</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>8.1854213367808945E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B20" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C20" s="4">
+        <v>13</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="4">
+        <v>26</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.76149653354981373</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.2385034664501863</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="O20" s="15">
+        <v>26.62777531950438</v>
+      </c>
+      <c r="P20" s="15">
+        <v>17.542469137365181</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="R20" s="9">
+        <v>9.0853061821392025</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T20" s="4">
+        <v>26</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="X20" s="9">
+        <v>44.170244456869547</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>26</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>-0.1377916763077921</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>0.6641845703125</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>0.18704989682073181</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>-0.6641845703125</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>0.1377916763077921</v>
+      </c>
+      <c r="AH20" s="5">
+        <v>-0.18704989682073181</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B21" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C21" s="4">
+        <v>13</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="4">
+        <v>31</v>
+      </c>
+      <c r="G21" s="4">
+        <v>14</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.75882698175695307</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0.2411730182430469</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="15">
+        <v>26.695924407346009</v>
+      </c>
+      <c r="P21" s="15">
+        <v>16.29599177358509</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>10</v>
+      </c>
+      <c r="R21" s="9">
+        <v>10.399932633760921</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T21" s="4">
+        <v>17</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V21" s="4">
+        <v>1</v>
+      </c>
+      <c r="W21" s="4">
+        <v>40.5</v>
+      </c>
+      <c r="X21" s="9">
+        <v>42.991916180931099</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>45</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>0.1381939227764423</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>0.25111865997314448</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>9.6234646710482513E-2</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>-0.25111865997314448</v>
+      </c>
+      <c r="AG21" s="5">
+        <v>-0.1381939227764423</v>
+      </c>
+      <c r="AH21" s="5">
+        <v>-9.6234646710482513E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B22" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C22" s="4">
+        <v>13</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="4">
+        <v>7</v>
+      </c>
+      <c r="G22" s="4">
+        <v>26</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.39730694064557293</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.60269305935442707</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
+      <c r="O22" s="9">
+        <v>20.211740109905939</v>
+      </c>
+      <c r="P22" s="15">
+        <v>26.383452346648141</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>-3</v>
+      </c>
+      <c r="R22" s="9">
+        <v>-6.1717122367422057</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T22" s="4">
+        <v>-19</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V22" s="4">
+        <v>1</v>
+      </c>
+      <c r="W22" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X22" s="9">
+        <v>46.595192456554066</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>33</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>-0.42424911676451221</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>-0.10006493491095469</v>
+      </c>
+      <c r="AE22" s="5">
+        <v>3.5115478932857512E-2</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>0.10006493491095469</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>0.42424911676451221</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>-3.5115478932857512E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B23" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C23" s="4">
+        <v>13</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="4">
+        <v>26</v>
+      </c>
+      <c r="G23" s="4">
+        <v>27</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.37833675513830672</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.62166324486169333</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1</v>
+      </c>
+      <c r="O23" s="9">
+        <v>20.29185647762786</v>
+      </c>
+      <c r="P23" s="15">
+        <v>25.954848263773609</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="R23" s="9">
+        <v>-5.6629917861457528</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V23" s="4">
+        <v>1</v>
+      </c>
+      <c r="W23" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="X23" s="9">
+        <v>46.246704741401473</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>53</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="5">
+        <v>9.9916902455416595E-2</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>-0.15219854627336771</v>
+      </c>
+      <c r="AE23" s="5">
+        <v>1.051500687996546E-2</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>0.15219854627336771</v>
+      </c>
+      <c r="AG23" s="5">
+        <v>-9.9916902455416595E-2</v>
+      </c>
+      <c r="AH23" s="5">
+        <v>-1.051500687996546E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B24" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C24" s="4">
+        <v>13</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="4">
+        <v>33</v>
+      </c>
+      <c r="G24" s="4">
+        <v>15</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0.6888767985257922</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.3111232014742078</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1</v>
+      </c>
+      <c r="O24" s="9">
+        <v>29.212794798274679</v>
+      </c>
+      <c r="P24" s="15">
+        <v>20.605659243440741</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>7</v>
+      </c>
+      <c r="R24" s="9">
+        <v>8.6071355548339383</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T24" s="4">
+        <v>18</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V24" s="4">
+        <v>1</v>
+      </c>
+      <c r="W24" s="4">
+        <v>46.5</v>
+      </c>
+      <c r="X24" s="9">
+        <v>49.81845404171542</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>48</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>0.15040765489850719</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>9.7416504946621976E-2</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>0.19194484674013579</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>-9.7416504946621976E-2</v>
+      </c>
+      <c r="AG24" s="5">
+        <v>-0.15040765489850719</v>
+      </c>
+      <c r="AH24" s="5">
+        <v>-0.19194484674013579</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="W7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AF7:AH7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="AC9:AC24">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD9:AD24">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9:AE24">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF9:AF24">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9:AG24">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH9:AH24">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="I9:I24 K9:K24" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{F0045535-50AB-FD43-BD0D-DA5C2BC9A48E}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>N9:N24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{7F3AA7BA-ACA0-A44B-A7C2-F377D285B9E5}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>V9:V24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{76996824-64F7-F44B-9CF9-E228A6EF54ED}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AB9:AB24</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/model results/2025 Results.xlsx
+++ b/model results/2025 Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmiller/Documents/Fun/nfl/model results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BE4696-2A3B-4D48-8F72-9CAB0179433E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8270270B-8CFF-4846-86D0-8B07216FB90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Week 11" sheetId="8" r:id="rId7"/>
     <sheet name="Week 12" sheetId="9" r:id="rId8"/>
     <sheet name="Week 13" sheetId="10" r:id="rId9"/>
+    <sheet name="Week 14" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="222">
   <si>
     <t>season</t>
   </si>
@@ -639,6 +640,75 @@
   <si>
     <t>+221</t>
   </si>
+  <si>
+    <t>-130</t>
+  </si>
+  <si>
+    <t>+130</t>
+  </si>
+  <si>
+    <t>-180</t>
+  </si>
+  <si>
+    <t>+180</t>
+  </si>
+  <si>
+    <t>-156</t>
+  </si>
+  <si>
+    <t>+156</t>
+  </si>
+  <si>
+    <t>+125</t>
+  </si>
+  <si>
+    <t>-125</t>
+  </si>
+  <si>
+    <t>-160</t>
+  </si>
+  <si>
+    <t>+109</t>
+  </si>
+  <si>
+    <t>-109</t>
+  </si>
+  <si>
+    <t>-194</t>
+  </si>
+  <si>
+    <t>+194</t>
+  </si>
+  <si>
+    <t>+322</t>
+  </si>
+  <si>
+    <t>-322</t>
+  </si>
+  <si>
+    <t>+293</t>
+  </si>
+  <si>
+    <t>-293</t>
+  </si>
+  <si>
+    <t>-159</t>
+  </si>
+  <si>
+    <t>+159</t>
+  </si>
+  <si>
+    <t>-141</t>
+  </si>
+  <si>
+    <t>+141</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
 </sst>
 </file>
 
@@ -751,7 +821,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -790,7 +860,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1106,11 +1175,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E32420-1D15-E549-AAF4-FB71DE782F62}">
-  <dimension ref="B2:AH124"/>
+  <dimension ref="B2:AH138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1149,15 +1218,17 @@
   <sheetData>
     <row r="2" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C2" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.2">
@@ -1165,20 +1236,20 @@
         <v>145</v>
       </c>
       <c r="C3" s="13">
+        <f>COUNTA(N9:N1000)</f>
+        <v>130</v>
+      </c>
+      <c r="D3" s="13">
         <f>SUM(N9:N1000)</f>
-        <v>79</v>
-      </c>
-      <c r="D3" s="13">
-        <f>COUNTA(N9:N1000)</f>
-        <v>116</v>
-      </c>
-      <c r="E3" s="14">
-        <f>C3/D3</f>
-        <v>0.68103448275862066</v>
-      </c>
-      <c r="F3" s="18">
-        <f>D3-C3</f>
-        <v>37</v>
+        <v>87</v>
+      </c>
+      <c r="E3" s="13">
+        <f>C3-D3</f>
+        <v>43</v>
+      </c>
+      <c r="F3" s="14">
+        <f>D3/C3</f>
+        <v>0.66923076923076918</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -1187,18 +1258,21 @@
         <v>146</v>
       </c>
       <c r="C4" s="13">
+        <f>COUNTA(V9:V1000)</f>
+        <v>59</v>
+      </c>
+      <c r="D4" s="13">
         <f>SUM(V9:V1000)</f>
-        <v>24</v>
-      </c>
-      <c r="D4" s="13">
-        <f>COUNTA(V9:V1000)</f>
-        <v>45</v>
-      </c>
-      <c r="E4" s="14">
-        <f>C4/D4</f>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="F4" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="E4" s="13">
+        <f>C4-D4</f>
+        <v>27</v>
+      </c>
+      <c r="F4" s="14">
+        <f>D4/C4</f>
+        <v>0.5423728813559322</v>
+      </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.2">
@@ -1206,18 +1280,21 @@
         <v>150</v>
       </c>
       <c r="C5" s="13">
+        <f>COUNTA(AB9:AB1000)</f>
+        <v>59</v>
+      </c>
+      <c r="D5" s="13">
         <f>SUM(AB9:AB1000)</f>
-        <v>22</v>
-      </c>
-      <c r="D5" s="13">
-        <f>COUNTA(AB9:AB1000)</f>
-        <v>45</v>
-      </c>
-      <c r="E5" s="14">
-        <f>C5/D5</f>
-        <v>0.48888888888888887</v>
-      </c>
-      <c r="F5" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="E5" s="13">
+        <f>C5-D5</f>
+        <v>33</v>
+      </c>
+      <c r="F5" s="14">
+        <f>D5/C5</f>
+        <v>0.44067796610169491</v>
+      </c>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.2">
@@ -1225,45 +1302,45 @@
       <c r="C6" s="17"/>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19" t="s">
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19" t="s">
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19" t="s">
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19" t="s">
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -10765,6 +10842,1420 @@
         <v>-0.19194484674013579</v>
       </c>
     </row>
+    <row r="125" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B125" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C125" s="4">
+        <v>14</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125" s="4">
+        <v>44</v>
+      </c>
+      <c r="G125" s="4">
+        <v>30</v>
+      </c>
+      <c r="H125" s="8">
+        <v>0.51872586974214685</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J125" s="8">
+        <v>0.48127413025785309</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L125" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M125" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N125" s="4">
+        <v>1</v>
+      </c>
+      <c r="O125" s="15">
+        <v>26.082421122049201</v>
+      </c>
+      <c r="P125" s="15">
+        <v>23.23212581345059</v>
+      </c>
+      <c r="Q125" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="R125" s="15">
+        <v>2.8502953085986178</v>
+      </c>
+      <c r="S125" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T125" s="4">
+        <v>14</v>
+      </c>
+      <c r="U125" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V125" s="4">
+        <v>0</v>
+      </c>
+      <c r="W125" s="4">
+        <v>55.5</v>
+      </c>
+      <c r="X125" s="9">
+        <v>49.314546935499791</v>
+      </c>
+      <c r="Y125" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z125" s="4">
+        <v>74</v>
+      </c>
+      <c r="AA125" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB125" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC125" s="5">
+        <v>0.2641339619954427</v>
+      </c>
+      <c r="AD125" s="5">
+        <v>6.7213211530520595E-2</v>
+      </c>
+      <c r="AE125" s="5">
+        <v>-0.22207884107317241</v>
+      </c>
+      <c r="AF125" s="5">
+        <v>-6.7213211530520595E-2</v>
+      </c>
+      <c r="AG125" s="5">
+        <v>-0.2641339619954427</v>
+      </c>
+      <c r="AH125" s="5">
+        <v>0.22207884107317241</v>
+      </c>
+    </row>
+    <row r="126" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B126" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C126" s="4">
+        <v>14</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F126" s="4">
+        <v>9</v>
+      </c>
+      <c r="G126" s="4">
+        <v>37</v>
+      </c>
+      <c r="H126" s="8">
+        <v>0.41498900290638502</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J126" s="8">
+        <v>0.58501099709361504</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M126" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N126" s="4">
+        <v>1</v>
+      </c>
+      <c r="O126" s="15">
+        <v>21.281556408156519</v>
+      </c>
+      <c r="P126" s="15">
+        <v>22.920687871562979</v>
+      </c>
+      <c r="Q126" s="4">
+        <v>-7</v>
+      </c>
+      <c r="R126" s="15">
+        <v>-1.639131463406464</v>
+      </c>
+      <c r="S126" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T126" s="4">
+        <v>-28</v>
+      </c>
+      <c r="U126" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V126" s="4">
+        <v>0</v>
+      </c>
+      <c r="W126" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X126" s="9">
+        <v>44.202244279719501</v>
+      </c>
+      <c r="Y126" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z126" s="4">
+        <v>46</v>
+      </c>
+      <c r="AA126" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB126" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC126" s="5">
+        <v>-0.2973821759223938</v>
+      </c>
+      <c r="AD126" s="5">
+        <v>-0.1188917550884309</v>
+      </c>
+      <c r="AE126" s="5">
+        <v>-0.25661842028299969</v>
+      </c>
+      <c r="AF126" s="5">
+        <v>0.1188917550884309</v>
+      </c>
+      <c r="AG126" s="5">
+        <v>0.2973821759223938</v>
+      </c>
+      <c r="AH126" s="5">
+        <v>0.25661842028299969</v>
+      </c>
+    </row>
+    <row r="127" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B127" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C127" s="4">
+        <v>14</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F127" s="4">
+        <v>22</v>
+      </c>
+      <c r="G127" s="4">
+        <v>27</v>
+      </c>
+      <c r="H127" s="8">
+        <v>0.56606634291720703</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J127" s="8">
+        <v>0.43393365708279302</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M127" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N127" s="4">
+        <v>0</v>
+      </c>
+      <c r="O127" s="15">
+        <v>20.586488304350539</v>
+      </c>
+      <c r="P127" s="15">
+        <v>17.640015408147601</v>
+      </c>
+      <c r="Q127" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="R127" s="9">
+        <v>2.9464728962029381</v>
+      </c>
+      <c r="S127" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T127" s="4">
+        <v>-5</v>
+      </c>
+      <c r="U127" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V127" s="4">
+        <v>1</v>
+      </c>
+      <c r="W127" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="X127" s="9">
+        <v>38.226503712498143</v>
+      </c>
+      <c r="Y127" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z127" s="4">
+        <v>49</v>
+      </c>
+      <c r="AA127" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB127" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC127" s="5">
+        <v>2.4042957868331521E-2</v>
+      </c>
+      <c r="AD127" s="5">
+        <v>-0.24276742748185701</v>
+      </c>
+      <c r="AE127" s="5">
+        <v>4.1653892823628018E-2</v>
+      </c>
+      <c r="AF127" s="5">
+        <v>0.24276742748185701</v>
+      </c>
+      <c r="AG127" s="5">
+        <v>-2.4042957868331521E-2</v>
+      </c>
+      <c r="AH127" s="5">
+        <v>-4.1653892823628018E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B128" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C128" s="4">
+        <v>14</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F128" s="4">
+        <v>39</v>
+      </c>
+      <c r="G128" s="4">
+        <v>34</v>
+      </c>
+      <c r="H128" s="8">
+        <v>0.64344730114031246</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J128" s="8">
+        <v>0.35655269885968749</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L128" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M128" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N128" s="4">
+        <v>1</v>
+      </c>
+      <c r="O128" s="15">
+        <v>25.81515874475074</v>
+      </c>
+      <c r="P128" s="15">
+        <v>22.745751219596269</v>
+      </c>
+      <c r="Q128" s="4">
+        <v>6</v>
+      </c>
+      <c r="R128" s="9">
+        <v>3.069407525154475</v>
+      </c>
+      <c r="S128" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T128" s="4">
+        <v>5</v>
+      </c>
+      <c r="U128" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V128" s="4">
+        <v>1</v>
+      </c>
+      <c r="W128" s="4">
+        <v>54.5</v>
+      </c>
+      <c r="X128" s="9">
+        <v>48.560909964347012</v>
+      </c>
+      <c r="Y128" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z128" s="4">
+        <v>73</v>
+      </c>
+      <c r="AA128" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB128" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC128" s="5">
+        <v>0.26668303807576499</v>
+      </c>
+      <c r="AD128" s="5">
+        <v>-0.187973701347739</v>
+      </c>
+      <c r="AE128" s="5">
+        <v>-1.9132118958693281E-2</v>
+      </c>
+      <c r="AF128" s="5">
+        <v>0.187973701347739</v>
+      </c>
+      <c r="AG128" s="5">
+        <v>-0.26668303807576499</v>
+      </c>
+      <c r="AH128" s="5">
+        <v>1.9132118958693281E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B129" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C129" s="4">
+        <v>14</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F129" s="4">
+        <v>29</v>
+      </c>
+      <c r="G129" s="4">
+        <v>31</v>
+      </c>
+      <c r="H129" s="8">
+        <v>0.61064355659787484</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="J129" s="8">
+        <v>0.38935644340212522</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M129" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N129" s="4">
+        <v>0</v>
+      </c>
+      <c r="O129" s="15">
+        <v>21.745571355545529</v>
+      </c>
+      <c r="P129" s="15">
+        <v>19.382764623152521</v>
+      </c>
+      <c r="Q129" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R129" s="9">
+        <v>2.362806732393008</v>
+      </c>
+      <c r="S129" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T129" s="4">
+        <v>-2</v>
+      </c>
+      <c r="U129" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V129" s="4">
+        <v>1</v>
+      </c>
+      <c r="W129" s="4">
+        <v>33.5</v>
+      </c>
+      <c r="X129" s="9">
+        <v>41.128335978698047</v>
+      </c>
+      <c r="Y129" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z129" s="4">
+        <v>60</v>
+      </c>
+      <c r="AA129" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB129" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC129" s="5">
+        <v>-2.806742867427086E-2</v>
+      </c>
+      <c r="AD129" s="5">
+        <v>0.10117867498686819</v>
+      </c>
+      <c r="AE129" s="5">
+        <v>-0.27779840778660131</v>
+      </c>
+      <c r="AF129" s="5">
+        <v>-0.10117867498686819</v>
+      </c>
+      <c r="AG129" s="5">
+        <v>2.806742867427086E-2</v>
+      </c>
+      <c r="AH129" s="5">
+        <v>0.27779840778660131</v>
+      </c>
+    </row>
+    <row r="130" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B130" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C130" s="4">
+        <v>14</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F130" s="4">
+        <v>36</v>
+      </c>
+      <c r="G130" s="4">
+        <v>19</v>
+      </c>
+      <c r="H130" s="8">
+        <v>0.44249000306642372</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J130" s="8">
+        <v>0.55750999693357639</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L130" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M130" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N130" s="4">
+        <v>0</v>
+      </c>
+      <c r="O130" s="15">
+        <v>23.558138792925071</v>
+      </c>
+      <c r="P130" s="15">
+        <v>22.157250809323219</v>
+      </c>
+      <c r="Q130" s="4">
+        <v>-2.5</v>
+      </c>
+      <c r="R130" s="15">
+        <v>1.4008879836018551</v>
+      </c>
+      <c r="S130" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T130" s="4">
+        <v>17</v>
+      </c>
+      <c r="U130" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V130" s="4">
+        <v>1</v>
+      </c>
+      <c r="W130" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X130" s="9">
+        <v>45.715389602248287</v>
+      </c>
+      <c r="Y130" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z130" s="4">
+        <v>55</v>
+      </c>
+      <c r="AA130" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB130" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC130" s="5">
+        <v>6.9307522695572651E-2</v>
+      </c>
+      <c r="AD130" s="5">
+        <v>0.1406877742094152</v>
+      </c>
+      <c r="AE130" s="5">
+        <v>0.1256219148635864</v>
+      </c>
+      <c r="AF130" s="5">
+        <v>-0.1406877742094152</v>
+      </c>
+      <c r="AG130" s="5">
+        <v>-6.9307522695572651E-2</v>
+      </c>
+      <c r="AH130" s="5">
+        <v>-0.1256219148635864</v>
+      </c>
+    </row>
+    <row r="131" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B131" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C131" s="4">
+        <v>14</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F131" s="4">
+        <v>31</v>
+      </c>
+      <c r="G131" s="4">
+        <v>0</v>
+      </c>
+      <c r="H131" s="8">
+        <v>0.38445518210763951</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J131" s="8">
+        <v>0.61554481789236049</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M131" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N131" s="4">
+        <v>0</v>
+      </c>
+      <c r="O131" s="15">
+        <v>20.682521724811011</v>
+      </c>
+      <c r="P131" s="15">
+        <v>22.82301635712933</v>
+      </c>
+      <c r="Q131" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="R131" s="9">
+        <v>-2.140494632318322</v>
+      </c>
+      <c r="S131" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T131" s="4">
+        <v>31</v>
+      </c>
+      <c r="U131" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V131" s="4">
+        <v>0</v>
+      </c>
+      <c r="W131" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="X131" s="9">
+        <v>43.505538081940337</v>
+      </c>
+      <c r="Y131" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z131" s="4">
+        <v>31</v>
+      </c>
+      <c r="AA131" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB131" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC131" s="5">
+        <v>0.30457706451416022</v>
+      </c>
+      <c r="AD131" s="5">
+        <v>0.37201723685631383</v>
+      </c>
+      <c r="AE131" s="5">
+        <v>0.2078226953744888</v>
+      </c>
+      <c r="AF131" s="5">
+        <v>-0.37201723685631383</v>
+      </c>
+      <c r="AG131" s="5">
+        <v>-0.30457706451416022</v>
+      </c>
+      <c r="AH131" s="5">
+        <v>-0.2078226953744888</v>
+      </c>
+    </row>
+    <row r="132" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B132" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C132" s="4">
+        <v>14</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F132" s="4">
+        <v>10</v>
+      </c>
+      <c r="G132" s="4">
+        <v>34</v>
+      </c>
+      <c r="H132" s="8">
+        <v>0.47827311700536812</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J132" s="8">
+        <v>0.52172688299463199</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="L132" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M132" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N132" s="4">
+        <v>1</v>
+      </c>
+      <c r="O132" s="15">
+        <v>23.31364207408232</v>
+      </c>
+      <c r="P132" s="15">
+        <v>23.38174447974518</v>
+      </c>
+      <c r="Q132" s="4">
+        <v>-2.5</v>
+      </c>
+      <c r="R132" s="15">
+        <v>-6.8102405662859411E-2</v>
+      </c>
+      <c r="S132" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T132" s="4">
+        <v>-24</v>
+      </c>
+      <c r="U132" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V132" s="4">
+        <v>0</v>
+      </c>
+      <c r="W132" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="X132" s="9">
+        <v>46.695386553827497</v>
+      </c>
+      <c r="Y132" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z132" s="4">
+        <v>44</v>
+      </c>
+      <c r="AA132" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB132" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC132" s="5">
+        <v>-0.40068050966424462</v>
+      </c>
+      <c r="AD132" s="5">
+        <v>-0.21568928067646331</v>
+      </c>
+      <c r="AE132" s="5">
+        <v>0.16751027504603069</v>
+      </c>
+      <c r="AF132" s="5">
+        <v>0.21568928067646331</v>
+      </c>
+      <c r="AG132" s="5">
+        <v>0.40068050966424462</v>
+      </c>
+      <c r="AH132" s="5">
+        <v>-0.16751027504603069</v>
+      </c>
+    </row>
+    <row r="133" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B133" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C133" s="4">
+        <v>14</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F133" s="4">
+        <v>20</v>
+      </c>
+      <c r="G133" s="4">
+        <v>24</v>
+      </c>
+      <c r="H133" s="8">
+        <v>0.65998997864793829</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J133" s="8">
+        <v>0.34001002135206171</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M133" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N133" s="4">
+        <v>0</v>
+      </c>
+      <c r="O133" s="15">
+        <v>24.01809321828236</v>
+      </c>
+      <c r="P133" s="15">
+        <v>17.234152513095399</v>
+      </c>
+      <c r="Q133" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="R133" s="9">
+        <v>6.7839407051869571</v>
+      </c>
+      <c r="S133" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T133" s="4">
+        <v>-4</v>
+      </c>
+      <c r="U133" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V133" s="4">
+        <v>1</v>
+      </c>
+      <c r="W133" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="X133" s="9">
+        <v>41.252245731377762</v>
+      </c>
+      <c r="Y133" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z133" s="4">
+        <v>44</v>
+      </c>
+      <c r="AA133" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB133" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC133" s="5">
+        <v>-0.14934490822456981</v>
+      </c>
+      <c r="AD133" s="5">
+        <v>-1.1082674775804791E-3</v>
+      </c>
+      <c r="AE133" s="5">
+        <v>8.6620735085528824E-2</v>
+      </c>
+      <c r="AF133" s="5">
+        <v>1.1082674775804791E-3</v>
+      </c>
+      <c r="AG133" s="5">
+        <v>0.14934490822456981</v>
+      </c>
+      <c r="AH133" s="5">
+        <v>-8.6620735085528824E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B134" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C134" s="4">
+        <v>14</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" s="4">
+        <v>17</v>
+      </c>
+      <c r="G134" s="4">
+        <v>24</v>
+      </c>
+      <c r="H134" s="8">
+        <v>0.2366009774534466</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J134" s="8">
+        <v>0.76339902254655334</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="L134" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M134" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N134" s="4">
+        <v>1</v>
+      </c>
+      <c r="O134" s="15">
+        <v>13.824416276482729</v>
+      </c>
+      <c r="P134" s="15">
+        <v>25.89895427149396</v>
+      </c>
+      <c r="Q134" s="4">
+        <v>-8.5</v>
+      </c>
+      <c r="R134" s="9">
+        <v>-12.074537995011219</v>
+      </c>
+      <c r="S134" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T134" s="4">
+        <v>-7</v>
+      </c>
+      <c r="U134" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V134" s="4">
+        <v>0</v>
+      </c>
+      <c r="W134" s="4">
+        <v>40.5</v>
+      </c>
+      <c r="X134" s="9">
+        <v>39.723370547976693</v>
+      </c>
+      <c r="Y134" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z134" s="4">
+        <v>41</v>
+      </c>
+      <c r="AA134" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB134" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC134" s="5">
+        <v>1.238377571105957E-2</v>
+      </c>
+      <c r="AD134" s="5">
+        <v>-0.1455832816459037</v>
+      </c>
+      <c r="AE134" s="5">
+        <v>-5.2487238457328403E-2</v>
+      </c>
+      <c r="AF134" s="5">
+        <v>0.1455832816459037</v>
+      </c>
+      <c r="AG134" s="5">
+        <v>-1.238377571105957E-2</v>
+      </c>
+      <c r="AH134" s="5">
+        <v>5.2487238457328403E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B135" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C135" s="4">
+        <v>14</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F135" s="4">
+        <v>17</v>
+      </c>
+      <c r="G135" s="4">
+        <v>45</v>
+      </c>
+      <c r="H135" s="8">
+        <v>0.2543071218872075</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J135" s="8">
+        <v>0.7456928781127925</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="L135" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M135" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N135" s="4">
+        <v>1</v>
+      </c>
+      <c r="O135" s="15">
+        <v>16.828829019756881</v>
+      </c>
+      <c r="P135" s="15">
+        <v>26.52248276866775</v>
+      </c>
+      <c r="Q135" s="4">
+        <v>-9.5</v>
+      </c>
+      <c r="R135" s="15">
+        <v>-9.6936537489108652</v>
+      </c>
+      <c r="S135" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T135" s="4">
+        <v>-28</v>
+      </c>
+      <c r="U135" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V135" s="4">
+        <v>1</v>
+      </c>
+      <c r="W135" s="4">
+        <v>49.5</v>
+      </c>
+      <c r="X135" s="9">
+        <v>43.351311788424617</v>
+      </c>
+      <c r="Y135" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z135" s="4">
+        <v>62</v>
+      </c>
+      <c r="AA135" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB135" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC135" s="5">
+        <v>-7.8832572506320087E-2</v>
+      </c>
+      <c r="AD135" s="5">
+        <v>-0.43546619699962102</v>
+      </c>
+      <c r="AE135" s="5">
+        <v>-2.7752737845143961E-2</v>
+      </c>
+      <c r="AF135" s="5">
+        <v>0.43546619699962102</v>
+      </c>
+      <c r="AG135" s="5">
+        <v>7.8832572506320087E-2</v>
+      </c>
+      <c r="AH135" s="5">
+        <v>2.7752737845143961E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B136" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C136" s="4">
+        <v>14</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F136" s="4">
+        <v>28</v>
+      </c>
+      <c r="G136" s="4">
+        <v>21</v>
+      </c>
+      <c r="H136" s="8">
+        <v>0.61412239240691768</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J136" s="8">
+        <v>0.38587760759308232</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="L136" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N136" s="4">
+        <v>1</v>
+      </c>
+      <c r="O136" s="15">
+        <v>24.651050080501729</v>
+      </c>
+      <c r="P136" s="15">
+        <v>21.08481265992522</v>
+      </c>
+      <c r="Q136" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="R136" s="9">
+        <v>3.5662374205765102</v>
+      </c>
+      <c r="S136" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T136" s="4">
+        <v>7</v>
+      </c>
+      <c r="U136" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V136" s="4">
+        <v>0</v>
+      </c>
+      <c r="W136" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X136" s="9">
+        <v>45.735862740426953</v>
+      </c>
+      <c r="Y136" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z136" s="4">
+        <v>49</v>
+      </c>
+      <c r="AA136" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB136" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC136" s="5">
+        <v>0.20429644217857951</v>
+      </c>
+      <c r="AD136" s="5">
+        <v>-7.2044268898341965E-2</v>
+      </c>
+      <c r="AE136" s="5">
+        <v>-3.9545507431030268E-2</v>
+      </c>
+      <c r="AF136" s="5">
+        <v>7.2044268898341965E-2</v>
+      </c>
+      <c r="AG136" s="5">
+        <v>-0.20429644217857951</v>
+      </c>
+      <c r="AH136" s="5">
+        <v>3.9545507431030268E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B137" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C137" s="4">
+        <v>14</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F137" s="4">
+        <v>10</v>
+      </c>
+      <c r="G137" s="4">
+        <v>20</v>
+      </c>
+      <c r="H137" s="8">
+        <v>0.58521779221591275</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J137" s="8">
+        <v>0.41478220778408731</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="L137" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M137" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N137" s="4">
+        <v>0</v>
+      </c>
+      <c r="O137" s="15">
+        <v>24.503425116822331</v>
+      </c>
+      <c r="P137" s="15">
+        <v>21.018607733612999</v>
+      </c>
+      <c r="Q137" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R137" s="9">
+        <v>3.484817383209339</v>
+      </c>
+      <c r="S137" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T137" s="4">
+        <v>-10</v>
+      </c>
+      <c r="U137" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V137" s="4">
+        <v>1</v>
+      </c>
+      <c r="W137" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="X137" s="9">
+        <v>45.52203285043533</v>
+      </c>
+      <c r="Y137" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z137" s="4">
+        <v>30</v>
+      </c>
+      <c r="AA137" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB137" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC137" s="5">
+        <v>-0.29289536249069942</v>
+      </c>
+      <c r="AD137" s="5">
+        <v>6.7336961201259066E-2</v>
+      </c>
+      <c r="AE137" s="5">
+        <v>-1.6681918391474971E-2</v>
+      </c>
+      <c r="AF137" s="5">
+        <v>-6.7336961201259066E-2</v>
+      </c>
+      <c r="AG137" s="5">
+        <v>0.29289536249069942</v>
+      </c>
+      <c r="AH137" s="5">
+        <v>1.6681918391474971E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B138" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C138" s="4">
+        <v>14</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="4">
+        <v>22</v>
+      </c>
+      <c r="G138" s="4">
+        <v>19</v>
+      </c>
+      <c r="H138" s="8">
+        <v>0.52226003132554621</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J138" s="8">
+        <v>0.47773996867445379</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="L138" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M138" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N138" s="4">
+        <v>1</v>
+      </c>
+      <c r="O138" s="9">
+        <v>23.7279398523062</v>
+      </c>
+      <c r="P138" s="15">
+        <v>21.418776422921539</v>
+      </c>
+      <c r="Q138" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="R138" s="9">
+        <v>2.3091634293846681</v>
+      </c>
+      <c r="S138" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T138" s="4">
+        <v>3</v>
+      </c>
+      <c r="U138" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V138" s="4">
+        <v>1</v>
+      </c>
+      <c r="W138" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="X138" s="9">
+        <v>45.146716275227739</v>
+      </c>
+      <c r="Y138" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z138" s="4">
+        <v>41</v>
+      </c>
+      <c r="AA138" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB138" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC138" s="5">
+        <v>-0.24720269280510981</v>
+      </c>
+      <c r="AD138" s="5">
+        <v>0.27643983023507263</v>
+      </c>
+      <c r="AE138" s="5">
+        <v>6.8867346819709331E-3</v>
+      </c>
+      <c r="AF138" s="5">
+        <v>-0.27643983023507263</v>
+      </c>
+      <c r="AG138" s="5">
+        <v>0.24720269280510981</v>
+      </c>
+      <c r="AH138" s="5">
+        <v>-6.8867346819709331E-3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="AF7:AH7"/>
@@ -10775,6 +12266,234 @@
     <mergeCell ref="AC7:AE7"/>
   </mergeCells>
   <conditionalFormatting sqref="AC9:AC23">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC24:AC38">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC39:AC51">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC52:AC65">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC66:AC79">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC80:AC94">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC95:AC108">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC109:AC124">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC125:AC138">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD9:AD23">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD24:AD38">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD39:AD51">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD52:AD65">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD66:AD79">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD80:AD94">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD95:AD108">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD109:AD124">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD125:AD138">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9:AE23">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE24:AE38">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -10786,7 +12505,115 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC24:AC38">
+  <conditionalFormatting sqref="AE39:AE51">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE52:AE65">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE66:AE79">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE80:AE94">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE95:AE108">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE109:AE124">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE125:AE138">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF9:AF23">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF24:AF38">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF39:AF51">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -10798,7 +12625,235 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC39:AC51">
+  <conditionalFormatting sqref="AF52:AF65">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF66:AF79">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF80:AF94">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF95:AF108">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF109:AF124">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF125:AF138">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9:AG23">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG24:AG38">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG39:AG51">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG52:AG65">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG66:AG79">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG80:AG94">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG95:AG108">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG109:AG124">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG125:AG138">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH9:AH23">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH24:AH38">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH39:AH51">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH52:AH65">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH66:AH79">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -10810,103 +12865,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC52:AC65">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC66:AC79">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC80:AC94">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC95:AC108">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD9:AD23">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD24:AD38">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD39:AD51">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD52:AD65">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD66:AD79">
+  <conditionalFormatting sqref="AH80:AH94">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -10918,8 +12877,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD80:AD94">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="AH95:AH108">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10930,343 +12889,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD95:AD108">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE9:AE23">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE24:AE38">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE39:AE51">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE52:AE65">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE66:AE79">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE80:AE94">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE95:AE108">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF9:AF23">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF24:AF38">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF39:AF51">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF52:AF65">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF66:AF79">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF80:AF94">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF95:AF108">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG9:AG23">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG24:AG38">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG39:AG51">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG52:AG65">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG66:AG79">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG80:AG94">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG95:AG108">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH9:AH23">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH24:AH38">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH39:AH51">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH52:AH65">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH66:AH79">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH80:AH94">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH95:AH108">
+  <conditionalFormatting sqref="AH109:AH124">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -11278,67 +12901,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC109:AC124">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD109:AD124">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE109:AE124">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF109:AF124">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG109:AG124">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH109:AH124">
+  <conditionalFormatting sqref="AH125:AH138">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -11358,7 +12921,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{EDEA8277-96E2-534B-9496-1DB5484BFD68}">
+          <x14:cfRule type="iconSet" priority="36" id="{EDEA8277-96E2-534B-9496-1DB5484BFD68}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11377,7 +12940,7 @@
           <xm:sqref>N80:N94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{DD4EF5CC-2E62-F245-AF58-2756E5752FDF}">
+          <x14:cfRule type="iconSet" priority="19" id="{DD4EF5CC-2E62-F245-AF58-2756E5752FDF}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11396,7 +12959,45 @@
           <xm:sqref>N95:N108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="49" id="{48C4D57C-361D-AB47-A2B7-3D4E42CE6188}">
+          <x14:cfRule type="iconSet" priority="10" id="{37C61786-4A12-0746-A763-4990B69F05C7}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>N109:N124</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{212E7F37-E966-AF4F-A0C3-E0E8E1340734}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>N125:N138</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="58" id="{48C4D57C-361D-AB47-A2B7-3D4E42CE6188}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11415,7 +13016,7 @@
           <xm:sqref>N24:AA38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="42" id="{C3D59626-8CA7-8645-8330-0E71AB30C540}">
+          <x14:cfRule type="iconSet" priority="51" id="{C3D59626-8CA7-8645-8330-0E71AB30C540}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11434,7 +13035,7 @@
           <xm:sqref>N39:AA51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="35" id="{6D153A18-6D77-9445-BF8D-3BA4EDDD3FBA}">
+          <x14:cfRule type="iconSet" priority="44" id="{6D153A18-6D77-9445-BF8D-3BA4EDDD3FBA}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11453,7 +13054,7 @@
           <xm:sqref>N52:AA65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{C34C5491-7DF8-D04C-B3C0-3779DAAA33EE}">
+          <x14:cfRule type="iconSet" priority="37" id="{C34C5491-7DF8-D04C-B3C0-3779DAAA33EE}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11472,7 +13073,7 @@
           <xm:sqref>N66:AA79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="56" id="{4DC6D28C-E799-D04F-BAD2-092B8419C03D}">
+          <x14:cfRule type="iconSet" priority="65" id="{4DC6D28C-E799-D04F-BAD2-092B8419C03D}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11491,7 +13092,7 @@
           <xm:sqref>N9:AB23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{92AD66C2-D91E-D648-9AC6-2417C2445C43}">
+          <x14:cfRule type="iconSet" priority="29" id="{92AD66C2-D91E-D648-9AC6-2417C2445C43}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11510,7 +13111,7 @@
           <xm:sqref>V80:V94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{2D523F71-4BB4-9940-8B5D-C962CA9D6F15}">
+          <x14:cfRule type="iconSet" priority="20" id="{2D523F71-4BB4-9940-8B5D-C962CA9D6F15}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11529,7 +13130,45 @@
           <xm:sqref>V95:V108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{409D8166-545E-3045-805D-7C96DC6956B1}">
+          <x14:cfRule type="iconSet" priority="11" id="{2094B9A9-658A-3D41-A969-4F7B5F1A7D42}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>V109:V124</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{7AD482D6-AFFD-C546-9642-22AC15E71775}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>V125:V138</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="28" id="{409D8166-545E-3045-805D-7C96DC6956B1}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11548,7 +13187,7 @@
           <xm:sqref>AB80:AB94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{578139A0-9556-A24C-89D1-3B66D89331FA}">
+          <x14:cfRule type="iconSet" priority="21" id="{578139A0-9556-A24C-89D1-3B66D89331FA}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11567,45 +13206,7 @@
           <xm:sqref>AB95:AB108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{37C61786-4A12-0746-A763-4990B69F05C7}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>N109:N124</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{2094B9A9-658A-3D41-A969-4F7B5F1A7D42}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>V109:V124</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{869A3731-7EDB-9143-AD0D-591DEB781BAF}">
+          <x14:cfRule type="iconSet" priority="12" id="{869A3731-7EDB-9143-AD0D-591DEB781BAF}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11622,6 +13223,1821 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>AB109:AB124</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{90EFE230-91F0-784C-B726-5BE6F84EE2FC}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AB125:AB138</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6F99A6-DB14-2A48-9B19-182C2194F0B5}">
+  <dimension ref="B2:AH22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:AH22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="13">
+        <f>COUNTA($C$9:$C$22)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="13">
+        <f>SUM(N9:$N$22)</f>
+        <v>8</v>
+      </c>
+      <c r="D3" s="14">
+        <f>C3/$C$2</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="13">
+        <f>SUM(V9:$V$22)</f>
+        <v>8</v>
+      </c>
+      <c r="D4" s="14">
+        <f t="shared" ref="D4:D5" si="0">C4/$C$2</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="13">
+        <f>SUM(AB9:$AB$22)</f>
+        <v>4</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="H7" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B9" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="4">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4">
+        <v>44</v>
+      </c>
+      <c r="G9" s="4">
+        <v>30</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.51872586974214685</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.48127413025785309</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="15">
+        <v>26.082421122049201</v>
+      </c>
+      <c r="P9" s="15">
+        <v>23.23212581345059</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="R9" s="15">
+        <v>2.8502953085986178</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T9" s="4">
+        <v>14</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>55.5</v>
+      </c>
+      <c r="X9" s="9">
+        <v>49.314546935499791</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>74</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>0.2641339619954427</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>6.7213211530520595E-2</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>-0.22207884107317241</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>-6.7213211530520595E-2</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>-0.2641339619954427</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>0.22207884107317241</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B10" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="4">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4">
+        <v>37</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.41498900290638502</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.58501099709361504</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="15">
+        <v>21.281556408156519</v>
+      </c>
+      <c r="P10" s="15">
+        <v>22.920687871562979</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>-7</v>
+      </c>
+      <c r="R10" s="15">
+        <v>-1.639131463406464</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T10" s="4">
+        <v>-28</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X10" s="9">
+        <v>44.202244279719501</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>46</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>-0.2973821759223938</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>-0.1188917550884309</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>-0.25661842028299969</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>0.1188917550884309</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>0.2973821759223938</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>0.25661842028299969</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B11" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="4">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4">
+        <v>22</v>
+      </c>
+      <c r="G11" s="4">
+        <v>27</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.56606634291720703</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.43393365708279302</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15">
+        <v>20.586488304350539</v>
+      </c>
+      <c r="P11" s="15">
+        <v>17.640015408147601</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="R11" s="9">
+        <v>2.9464728962029381</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T11" s="4">
+        <v>-5</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V11" s="4">
+        <v>1</v>
+      </c>
+      <c r="W11" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="X11" s="9">
+        <v>38.226503712498143</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>49</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>2.4042957868331521E-2</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>-0.24276742748185701</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>4.1653892823628018E-2</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>0.24276742748185701</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>-2.4042957868331521E-2</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>-4.1653892823628018E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B12" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C12" s="4">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="4">
+        <v>39</v>
+      </c>
+      <c r="G12" s="4">
+        <v>34</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.64344730114031246</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.35655269885968749</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="15">
+        <v>25.81515874475074</v>
+      </c>
+      <c r="P12" s="15">
+        <v>22.745751219596269</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>6</v>
+      </c>
+      <c r="R12" s="9">
+        <v>3.069407525154475</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T12" s="4">
+        <v>5</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V12" s="4">
+        <v>1</v>
+      </c>
+      <c r="W12" s="4">
+        <v>54.5</v>
+      </c>
+      <c r="X12" s="9">
+        <v>48.560909964347012</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>73</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>0.26668303807576499</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>-0.187973701347739</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>-1.9132118958693281E-2</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>0.187973701347739</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>-0.26668303807576499</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>1.9132118958693281E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B13" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C13" s="4">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="4">
+        <v>29</v>
+      </c>
+      <c r="G13" s="4">
+        <v>31</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.61064355659787484</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.38935644340212522</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="15">
+        <v>21.745571355545529</v>
+      </c>
+      <c r="P13" s="15">
+        <v>19.382764623152521</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R13" s="9">
+        <v>2.362806732393008</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T13" s="4">
+        <v>-2</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V13" s="4">
+        <v>1</v>
+      </c>
+      <c r="W13" s="4">
+        <v>33.5</v>
+      </c>
+      <c r="X13" s="9">
+        <v>41.128335978698047</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>60</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>-2.806742867427086E-2</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>0.10117867498686819</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>-0.27779840778660131</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>-0.10117867498686819</v>
+      </c>
+      <c r="AG13" s="5">
+        <v>2.806742867427086E-2</v>
+      </c>
+      <c r="AH13" s="5">
+        <v>0.27779840778660131</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B14" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C14" s="4">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="4">
+        <v>36</v>
+      </c>
+      <c r="G14" s="4">
+        <v>19</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.44249000306642372</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.55750999693357639</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="15">
+        <v>23.558138792925071</v>
+      </c>
+      <c r="P14" s="15">
+        <v>22.157250809323219</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>-2.5</v>
+      </c>
+      <c r="R14" s="15">
+        <v>1.4008879836018551</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T14" s="4">
+        <v>17</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V14" s="4">
+        <v>1</v>
+      </c>
+      <c r="W14" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X14" s="9">
+        <v>45.715389602248287</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>55</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>6.9307522695572651E-2</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>0.1406877742094152</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>0.1256219148635864</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>-0.1406877742094152</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>-6.9307522695572651E-2</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>-0.1256219148635864</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B15" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C15" s="4">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="4">
+        <v>31</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.38445518210763951</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.61554481789236049</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="15">
+        <v>20.682521724811011</v>
+      </c>
+      <c r="P15" s="15">
+        <v>22.82301635712933</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="R15" s="9">
+        <v>-2.140494632318322</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T15" s="4">
+        <v>31</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="X15" s="9">
+        <v>43.505538081940337</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>31</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>0.30457706451416022</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>0.37201723685631383</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>0.2078226953744888</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>-0.37201723685631383</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>-0.30457706451416022</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>-0.2078226953744888</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B16" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C16" s="4">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4">
+        <v>10</v>
+      </c>
+      <c r="G16" s="4">
+        <v>34</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.47827311700536812</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.52172688299463199</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="15">
+        <v>23.31364207408232</v>
+      </c>
+      <c r="P16" s="15">
+        <v>23.38174447974518</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>-2.5</v>
+      </c>
+      <c r="R16" s="15">
+        <v>-6.8102405662859411E-2</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T16" s="4">
+        <v>-24</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="X16" s="9">
+        <v>46.695386553827497</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>44</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>-0.40068050966424462</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>-0.21568928067646331</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>0.16751027504603069</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>0.21568928067646331</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>0.40068050966424462</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>-0.16751027504603069</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B17" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C17" s="4">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="4">
+        <v>20</v>
+      </c>
+      <c r="G17" s="4">
+        <v>24</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.65998997864793829</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.34001002135206171</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="15">
+        <v>24.01809321828236</v>
+      </c>
+      <c r="P17" s="15">
+        <v>17.234152513095399</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="R17" s="9">
+        <v>6.7839407051869571</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T17" s="4">
+        <v>-4</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V17" s="4">
+        <v>1</v>
+      </c>
+      <c r="W17" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="X17" s="9">
+        <v>41.252245731377762</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>44</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>-0.14934490822456981</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>-1.1082674775804791E-3</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>8.6620735085528824E-2</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>1.1082674775804791E-3</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>0.14934490822456981</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>-8.6620735085528824E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B18" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C18" s="4">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="4">
+        <v>17</v>
+      </c>
+      <c r="G18" s="4">
+        <v>24</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.2366009774534466</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.76339902254655334</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="O18" s="15">
+        <v>13.824416276482729</v>
+      </c>
+      <c r="P18" s="15">
+        <v>25.89895427149396</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>-8.5</v>
+      </c>
+      <c r="R18" s="9">
+        <v>-12.074537995011219</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T18" s="4">
+        <v>-7</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <v>40.5</v>
+      </c>
+      <c r="X18" s="9">
+        <v>39.723370547976693</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>41</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>1.238377571105957E-2</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>-0.1455832816459037</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>-5.2487238457328403E-2</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>0.1455832816459037</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>-1.238377571105957E-2</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>5.2487238457328403E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B19" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C19" s="4">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="4">
+        <v>17</v>
+      </c>
+      <c r="G19" s="4">
+        <v>45</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.2543071218872075</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.7456928781127925</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="15">
+        <v>16.828829019756881</v>
+      </c>
+      <c r="P19" s="15">
+        <v>26.52248276866775</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>-9.5</v>
+      </c>
+      <c r="R19" s="15">
+        <v>-9.6936537489108652</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T19" s="4">
+        <v>-28</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V19" s="4">
+        <v>1</v>
+      </c>
+      <c r="W19" s="4">
+        <v>49.5</v>
+      </c>
+      <c r="X19" s="9">
+        <v>43.351311788424617</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>62</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>-7.8832572506320087E-2</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>-0.43546619699962102</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>-2.7752737845143961E-2</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>0.43546619699962102</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>7.8832572506320087E-2</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>2.7752737845143961E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B20" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C20" s="4">
+        <v>14</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="4">
+        <v>28</v>
+      </c>
+      <c r="G20" s="4">
+        <v>21</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.61412239240691768</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.38587760759308232</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="O20" s="15">
+        <v>24.651050080501729</v>
+      </c>
+      <c r="P20" s="15">
+        <v>21.08481265992522</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="R20" s="9">
+        <v>3.5662374205765102</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T20" s="4">
+        <v>7</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X20" s="9">
+        <v>45.735862740426953</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>49</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>0.20429644217857951</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>-7.2044268898341965E-2</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>-3.9545507431030268E-2</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>7.2044268898341965E-2</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>-0.20429644217857951</v>
+      </c>
+      <c r="AH20" s="5">
+        <v>3.9545507431030268E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B21" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C21" s="4">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="4">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4">
+        <v>20</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.58521779221591275</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0.41478220778408731</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="15">
+        <v>24.503425116822331</v>
+      </c>
+      <c r="P21" s="15">
+        <v>21.018607733612999</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R21" s="9">
+        <v>3.484817383209339</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T21" s="4">
+        <v>-10</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V21" s="4">
+        <v>1</v>
+      </c>
+      <c r="W21" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="X21" s="9">
+        <v>45.52203285043533</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>30</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>-0.29289536249069942</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>6.7336961201259066E-2</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>-1.6681918391474971E-2</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>-6.7336961201259066E-2</v>
+      </c>
+      <c r="AG21" s="5">
+        <v>0.29289536249069942</v>
+      </c>
+      <c r="AH21" s="5">
+        <v>1.6681918391474971E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B22" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C22" s="4">
+        <v>14</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4">
+        <v>22</v>
+      </c>
+      <c r="G22" s="4">
+        <v>19</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.52226003132554621</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.47773996867445379</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
+      <c r="O22" s="9">
+        <v>23.7279398523062</v>
+      </c>
+      <c r="P22" s="15">
+        <v>21.418776422921539</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="R22" s="9">
+        <v>2.3091634293846681</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T22" s="4">
+        <v>3</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V22" s="4">
+        <v>1</v>
+      </c>
+      <c r="W22" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="X22" s="9">
+        <v>45.146716275227739</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>41</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>-0.24720269280510981</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>0.27643983023507263</v>
+      </c>
+      <c r="AE22" s="5">
+        <v>6.8867346819709331E-3</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>-0.27643983023507263</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>0.24720269280510981</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>-6.8867346819709331E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="W7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="AC9:AC22">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD9:AD22">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9:AE22">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF9:AF22">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9:AG22">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH9:AH22">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="63" id="{E22ED31F-1512-5940-B25E-3A03E1A0E52F}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>N9:N22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="64" id="{080D3704-835F-1841-8E99-2AF58566C92C}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>V9:V22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="65" id="{CBE72D50-2769-B54F-8C11-F18CBE35FDB2}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AB9:AB22</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -11684,27 +15100,27 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="19" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19" t="s">
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19" t="s">
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -12742,28 +16158,28 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="19" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19" t="s">
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -13834,28 +17250,28 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="19" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19" t="s">
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -14814,28 +18230,28 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="19" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19" t="s">
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -15843,28 +19259,28 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="19" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19" t="s">
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -17925,45 +21341,45 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19" t="s">
+      <c r="N7" s="18"/>
+      <c r="O7" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19" t="s">
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19" t="s">
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19" t="s">
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -19726,45 +23142,45 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19" t="s">
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19" t="s">
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19" t="s">
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19" t="s">
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -21436,8 +24852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44FA5A1-BBDB-B847-B56F-A988AF1A9410}">
   <dimension ref="B2:AH24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21525,45 +24941,45 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19" t="s">
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19" t="s">
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19" t="s">
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19" t="s">
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -23284,12 +26700,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AF7:AH7"/>
     <mergeCell ref="H7:N7"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="Q7:V7"/>
     <mergeCell ref="W7:AB7"/>
     <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="AF7:AH7"/>
   </mergeCells>
   <conditionalFormatting sqref="AC9:AC24">
     <cfRule type="colorScale" priority="4">

--- a/model results/2025 Results.xlsx
+++ b/model results/2025 Results.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmiller/Documents/Fun/nfl/model results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8270270B-8CFF-4846-86D0-8B07216FB90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C377EDB8-9ACA-BE48-9DC7-F980D27593EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
-    <sheet name="Week 6" sheetId="1" r:id="rId2"/>
-    <sheet name="Week 7" sheetId="3" r:id="rId3"/>
-    <sheet name="Week 8" sheetId="4" r:id="rId4"/>
-    <sheet name="Week 9" sheetId="5" r:id="rId5"/>
-    <sheet name="Week 10" sheetId="6" r:id="rId6"/>
-    <sheet name="Week 11" sheetId="8" r:id="rId7"/>
-    <sheet name="Week 12" sheetId="9" r:id="rId8"/>
-    <sheet name="Week 13" sheetId="10" r:id="rId9"/>
-    <sheet name="Week 14" sheetId="11" r:id="rId10"/>
+    <sheet name="Weekly Record" sheetId="13" r:id="rId2"/>
+    <sheet name="Week 6" sheetId="1" r:id="rId3"/>
+    <sheet name="Week 7" sheetId="3" r:id="rId4"/>
+    <sheet name="Week 8" sheetId="4" r:id="rId5"/>
+    <sheet name="Week 9" sheetId="5" r:id="rId6"/>
+    <sheet name="Week 10" sheetId="6" r:id="rId7"/>
+    <sheet name="Week 11" sheetId="8" r:id="rId8"/>
+    <sheet name="Week 12" sheetId="9" r:id="rId9"/>
+    <sheet name="Week 13" sheetId="10" r:id="rId10"/>
+    <sheet name="Week 14" sheetId="11" r:id="rId11"/>
+    <sheet name="Week 15" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,8 +43,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="225">
   <si>
     <t>season</t>
   </si>
@@ -709,6 +733,15 @@
   <si>
     <t>Loss</t>
   </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Wins</t>
+  </si>
+  <si>
+    <t>Losses</t>
+  </si>
 </sst>
 </file>
 
@@ -821,7 +854,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -872,6 +905,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1175,11 +1209,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E32420-1D15-E549-AAF4-FB71DE782F62}">
-  <dimension ref="B2:AH138"/>
+  <dimension ref="B2:AH154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1237,19 +1271,19 @@
       </c>
       <c r="C3" s="13">
         <f>COUNTA(N9:N1000)</f>
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D3" s="13">
         <f>SUM(N9:N1000)</f>
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E3" s="13">
         <f>C3-D3</f>
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F3" s="14">
         <f>D3/C3</f>
-        <v>0.66923076923076918</v>
+        <v>0.65068493150684936</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -1259,19 +1293,19 @@
       </c>
       <c r="C4" s="13">
         <f>COUNTA(V9:V1000)</f>
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D4" s="13">
         <f>SUM(V9:V1000)</f>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E4" s="13">
         <f>C4-D4</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F4" s="14">
         <f>D4/C4</f>
-        <v>0.5423728813559322</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G4" s="6"/>
     </row>
@@ -1281,19 +1315,19 @@
       </c>
       <c r="C5" s="13">
         <f>COUNTA(AB9:AB1000)</f>
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D5" s="13">
         <f>SUM(AB9:AB1000)</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E5" s="13">
         <f>C5-D5</f>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F5" s="14">
         <f>D5/C5</f>
-        <v>0.44067796610169491</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -12256,6 +12290,1622 @@
         <v>-6.8867346819709331E-3</v>
       </c>
     </row>
+    <row r="139" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B139" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C139" s="4">
+        <v>15</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F139" s="4">
+        <v>28</v>
+      </c>
+      <c r="G139" s="4">
+        <v>29</v>
+      </c>
+      <c r="H139" s="8">
+        <v>0.55311107736891651</v>
+      </c>
+      <c r="I139" s="4">
+        <v>-123</v>
+      </c>
+      <c r="J139" s="8">
+        <v>0.44688892263108349</v>
+      </c>
+      <c r="K139" s="4">
+        <v>123</v>
+      </c>
+      <c r="L139" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M139" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N139" s="4">
+        <v>0</v>
+      </c>
+      <c r="O139" s="15">
+        <v>23.43704823660822</v>
+      </c>
+      <c r="P139" s="15">
+        <v>20.275458358410571</v>
+      </c>
+      <c r="Q139" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R139" s="15">
+        <v>3.161589878197645</v>
+      </c>
+      <c r="S139" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T139" s="4">
+        <v>-1</v>
+      </c>
+      <c r="U139" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V139" s="4">
+        <v>1</v>
+      </c>
+      <c r="W139" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="X139" s="9">
+        <v>43.712506595018787</v>
+      </c>
+      <c r="Y139" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z139" s="4">
+        <v>57</v>
+      </c>
+      <c r="AA139" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB139" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC139" s="5">
+        <v>0.1317733175614301</v>
+      </c>
+      <c r="AD139" s="5">
+        <v>-0.2193315278238325</v>
+      </c>
+      <c r="AE139" s="5">
+        <v>0.1114644748823983</v>
+      </c>
+      <c r="AF139" s="5">
+        <v>0.2193315278238325</v>
+      </c>
+      <c r="AG139" s="5">
+        <v>-0.1317733175614301</v>
+      </c>
+      <c r="AH139" s="5">
+        <v>-0.1114644748823983</v>
+      </c>
+    </row>
+    <row r="140" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B140" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C140" s="4">
+        <v>15</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F140" s="4">
+        <v>31</v>
+      </c>
+      <c r="G140" s="4">
+        <v>3</v>
+      </c>
+      <c r="H140" s="8">
+        <v>0.7379495008536272</v>
+      </c>
+      <c r="I140" s="4">
+        <v>-281</v>
+      </c>
+      <c r="J140" s="8">
+        <v>0.2620504991463728</v>
+      </c>
+      <c r="K140" s="4">
+        <v>281</v>
+      </c>
+      <c r="L140" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M140" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N140" s="4">
+        <v>1</v>
+      </c>
+      <c r="O140" s="15">
+        <v>26.281883545499731</v>
+      </c>
+      <c r="P140" s="15">
+        <v>16.895162011024251</v>
+      </c>
+      <c r="Q140" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="R140" s="15">
+        <v>9.3867215344754804</v>
+      </c>
+      <c r="S140" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T140" s="4">
+        <v>28</v>
+      </c>
+      <c r="U140" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V140" s="4">
+        <v>1</v>
+      </c>
+      <c r="W140" s="4">
+        <v>39.5</v>
+      </c>
+      <c r="X140" s="9">
+        <v>43.177045556523993</v>
+      </c>
+      <c r="Y140" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z140" s="4">
+        <v>34</v>
+      </c>
+      <c r="AA140" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB140" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC140" s="5">
+        <v>5.5679310451854362E-2</v>
+      </c>
+      <c r="AD140" s="5">
+        <v>0.46604476656232557</v>
+      </c>
+      <c r="AE140" s="5">
+        <v>3.8387454473055332E-2</v>
+      </c>
+      <c r="AF140" s="5">
+        <v>-0.46604476656232557</v>
+      </c>
+      <c r="AG140" s="5">
+        <v>-5.5679310451854362E-2</v>
+      </c>
+      <c r="AH140" s="5">
+        <v>-3.8387454473055332E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B141" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C141" s="4">
+        <v>15</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F141" s="4">
+        <v>0</v>
+      </c>
+      <c r="G141" s="4">
+        <v>24</v>
+      </c>
+      <c r="H141" s="8">
+        <v>0.49854539536194609</v>
+      </c>
+      <c r="I141" s="4">
+        <v>100</v>
+      </c>
+      <c r="J141" s="8">
+        <v>0.50145460463805391</v>
+      </c>
+      <c r="K141" s="4">
+        <v>-100</v>
+      </c>
+      <c r="L141" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M141" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N141" s="4">
+        <v>1</v>
+      </c>
+      <c r="O141" s="15">
+        <v>19.543828147685989</v>
+      </c>
+      <c r="P141" s="15">
+        <v>25.629978778733761</v>
+      </c>
+      <c r="Q141" s="4">
+        <v>-2.5</v>
+      </c>
+      <c r="R141" s="9">
+        <v>-6.0861506310477722</v>
+      </c>
+      <c r="S141" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T141" s="4">
+        <v>-24</v>
+      </c>
+      <c r="U141" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V141" s="4">
+        <v>1</v>
+      </c>
+      <c r="W141" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="X141" s="9">
+        <v>45.173806926419743</v>
+      </c>
+      <c r="Y141" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z141" s="4">
+        <v>24</v>
+      </c>
+      <c r="AA141" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB141" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC141" s="5">
+        <v>-0.31780488867508738</v>
+      </c>
+      <c r="AD141" s="5">
+        <v>-0.20007620359721939</v>
+      </c>
+      <c r="AE141" s="5">
+        <v>-5.1181500448900109E-2</v>
+      </c>
+      <c r="AF141" s="5">
+        <v>0.20007620359721939</v>
+      </c>
+      <c r="AG141" s="5">
+        <v>0.31780488867508738</v>
+      </c>
+      <c r="AH141" s="5">
+        <v>5.1181500448900109E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B142" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C142" s="4">
+        <v>15</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F142" s="4">
+        <v>40</v>
+      </c>
+      <c r="G142" s="4">
+        <v>20</v>
+      </c>
+      <c r="H142" s="8">
+        <v>0.6759915607053375</v>
+      </c>
+      <c r="I142" s="4">
+        <v>-208</v>
+      </c>
+      <c r="J142" s="8">
+        <v>0.3240084392946625</v>
+      </c>
+      <c r="K142" s="4">
+        <v>208</v>
+      </c>
+      <c r="L142" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M142" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N142" s="4">
+        <v>1</v>
+      </c>
+      <c r="O142" s="15">
+        <v>25.86818038659403</v>
+      </c>
+      <c r="P142" s="15">
+        <v>16.553565513587881</v>
+      </c>
+      <c r="Q142" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="R142" s="9">
+        <v>9.3146148730061533</v>
+      </c>
+      <c r="S142" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T142" s="4">
+        <v>20</v>
+      </c>
+      <c r="U142" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V142" s="4">
+        <v>0</v>
+      </c>
+      <c r="W142" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="X142" s="9">
+        <v>42.421745900181918</v>
+      </c>
+      <c r="Y142" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z142" s="4">
+        <v>60</v>
+      </c>
+      <c r="AA142" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB142" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC142" s="5">
+        <v>0.22322595119476321</v>
+      </c>
+      <c r="AD142" s="5">
+        <v>-5.1856294045081512E-2</v>
+      </c>
+      <c r="AE142" s="5">
+        <v>0.43710761234678069</v>
+      </c>
+      <c r="AF142" s="5">
+        <v>5.1856294045081512E-2</v>
+      </c>
+      <c r="AG142" s="5">
+        <v>-0.22322595119476321</v>
+      </c>
+      <c r="AH142" s="5">
+        <v>-0.43710761234678069</v>
+      </c>
+    </row>
+    <row r="143" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B143" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C143" s="4">
+        <v>15</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" s="4">
+        <v>48</v>
+      </c>
+      <c r="G143" s="4">
+        <v>20</v>
+      </c>
+      <c r="H143" s="8">
+        <v>0.72977689201558893</v>
+      </c>
+      <c r="I143" s="4">
+        <v>-270</v>
+      </c>
+      <c r="J143" s="8">
+        <v>0.27022310798441113</v>
+      </c>
+      <c r="K143" s="4">
+        <v>270</v>
+      </c>
+      <c r="L143" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M143" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N143" s="4">
+        <v>1</v>
+      </c>
+      <c r="O143" s="15">
+        <v>26.285730689686201</v>
+      </c>
+      <c r="P143" s="15">
+        <v>16.475169081439521</v>
+      </c>
+      <c r="Q143" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="R143" s="9">
+        <v>9.8105616082466796</v>
+      </c>
+      <c r="S143" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T143" s="4">
+        <v>28</v>
+      </c>
+      <c r="U143" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V143" s="4">
+        <v>0</v>
+      </c>
+      <c r="W143" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="X143" s="9">
+        <v>42.760899771125708</v>
+      </c>
+      <c r="Y143" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z143" s="4">
+        <v>68</v>
+      </c>
+      <c r="AA143" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB143" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC143" s="5">
+        <v>0.31214617066464179</v>
+      </c>
+      <c r="AD143" s="5">
+        <v>0.15684513484730439</v>
+      </c>
+      <c r="AE143" s="5">
+        <v>8.5648218790690105E-3</v>
+      </c>
+      <c r="AF143" s="5">
+        <v>-0.15684513484730439</v>
+      </c>
+      <c r="AG143" s="5">
+        <v>-0.31214617066464179</v>
+      </c>
+      <c r="AH143" s="5">
+        <v>-8.5648218790690105E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B144" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C144" s="4">
+        <v>15</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F144" s="4">
+        <v>13</v>
+      </c>
+      <c r="G144" s="4">
+        <v>16</v>
+      </c>
+      <c r="H144" s="8">
+        <v>0.51386550246563023</v>
+      </c>
+      <c r="I144" s="4">
+        <v>-105</v>
+      </c>
+      <c r="J144" s="8">
+        <v>0.48613449753436982</v>
+      </c>
+      <c r="K144" s="4">
+        <v>105</v>
+      </c>
+      <c r="L144" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M144" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N144" s="4">
+        <v>0</v>
+      </c>
+      <c r="O144" s="15">
+        <v>21.747223428365839</v>
+      </c>
+      <c r="P144" s="15">
+        <v>25.16930628181456</v>
+      </c>
+      <c r="Q144" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R144" s="15">
+        <v>-3.4220828534487211</v>
+      </c>
+      <c r="S144" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T144" s="4">
+        <v>-3</v>
+      </c>
+      <c r="U144" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V144" s="4">
+        <v>1</v>
+      </c>
+      <c r="W144" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="X144" s="9">
+        <v>46.916529710180392</v>
+      </c>
+      <c r="Y144" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z144" s="4">
+        <v>29</v>
+      </c>
+      <c r="AA144" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB144" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC144" s="5">
+        <v>-0.1133985441239154</v>
+      </c>
+      <c r="AD144" s="5">
+        <v>1.000016836019663E-2</v>
+      </c>
+      <c r="AE144" s="5">
+        <v>4.7639032204945878E-2</v>
+      </c>
+      <c r="AF144" s="5">
+        <v>-1.000016836019663E-2</v>
+      </c>
+      <c r="AG144" s="5">
+        <v>0.1133985441239154</v>
+      </c>
+      <c r="AH144" s="5">
+        <v>-4.7639032204945878E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B145" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C145" s="4">
+        <v>15</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F145" s="4">
+        <v>31</v>
+      </c>
+      <c r="G145" s="4">
+        <v>35</v>
+      </c>
+      <c r="H145" s="8">
+        <v>0.54182075644723904</v>
+      </c>
+      <c r="I145" s="4">
+        <v>-118</v>
+      </c>
+      <c r="J145" s="8">
+        <v>0.45817924355276102</v>
+      </c>
+      <c r="K145" s="4">
+        <v>118</v>
+      </c>
+      <c r="L145" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M145" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N145" s="4">
+        <v>0</v>
+      </c>
+      <c r="O145" s="15">
+        <v>25.39383005978841</v>
+      </c>
+      <c r="P145" s="15">
+        <v>22.897335356714201</v>
+      </c>
+      <c r="Q145" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="R145" s="9">
+        <v>2.4964947030742048</v>
+      </c>
+      <c r="S145" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T145" s="4">
+        <v>-4</v>
+      </c>
+      <c r="U145" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V145" s="4">
+        <v>0</v>
+      </c>
+      <c r="W145" s="4">
+        <v>50.5</v>
+      </c>
+      <c r="X145" s="9">
+        <v>48.291165416502608</v>
+      </c>
+      <c r="Y145" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z145" s="4">
+        <v>66</v>
+      </c>
+      <c r="AA145" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB145" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC145" s="5">
+        <v>0.2300455020024226</v>
+      </c>
+      <c r="AD145" s="5">
+        <v>-0.27603377157182829</v>
+      </c>
+      <c r="AE145" s="5">
+        <v>-0.13226565292903361</v>
+      </c>
+      <c r="AF145" s="5">
+        <v>0.27603377157182829</v>
+      </c>
+      <c r="AG145" s="5">
+        <v>-0.2300455020024226</v>
+      </c>
+      <c r="AH145" s="5">
+        <v>0.13226565292903361</v>
+      </c>
+    </row>
+    <row r="146" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B146" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C146" s="4">
+        <v>15</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F146" s="4">
+        <v>21</v>
+      </c>
+      <c r="G146" s="4">
+        <v>29</v>
+      </c>
+      <c r="H146" s="8">
+        <v>0.57741471893306551</v>
+      </c>
+      <c r="I146" s="4">
+        <v>-136</v>
+      </c>
+      <c r="J146" s="8">
+        <v>0.42258528106693449</v>
+      </c>
+      <c r="K146" s="4">
+        <v>136</v>
+      </c>
+      <c r="L146" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M146" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N146" s="4">
+        <v>0</v>
+      </c>
+      <c r="O146" s="15">
+        <v>23.975062571943312</v>
+      </c>
+      <c r="P146" s="15">
+        <v>22.258502332493009</v>
+      </c>
+      <c r="Q146" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="R146" s="15">
+        <v>1.716560239450295</v>
+      </c>
+      <c r="S146" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T146" s="4">
+        <v>-8</v>
+      </c>
+      <c r="U146" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V146" s="4">
+        <v>1</v>
+      </c>
+      <c r="W146" s="4">
+        <v>47.5</v>
+      </c>
+      <c r="X146" s="9">
+        <v>46.233564904436321</v>
+      </c>
+      <c r="Y146" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z146" s="4">
+        <v>50</v>
+      </c>
+      <c r="AA146" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC146" s="5">
+        <v>3.8744337418500113E-2</v>
+      </c>
+      <c r="AD146" s="5">
+        <v>6.4041614532470703E-3</v>
+      </c>
+      <c r="AE146" s="5">
+        <v>-0.51649937341953145</v>
+      </c>
+      <c r="AF146" s="5">
+        <v>-6.4041614532470703E-3</v>
+      </c>
+      <c r="AG146" s="5">
+        <v>-3.8744337418500113E-2</v>
+      </c>
+      <c r="AH146" s="5">
+        <v>0.51649937341953145</v>
+      </c>
+    </row>
+    <row r="147" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B147" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C147" s="4">
+        <v>15</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F147" s="4">
+        <v>31</v>
+      </c>
+      <c r="G147" s="4">
+        <v>0</v>
+      </c>
+      <c r="H147" s="8">
+        <v>0.72040986504828619</v>
+      </c>
+      <c r="I147" s="4">
+        <v>-257</v>
+      </c>
+      <c r="J147" s="8">
+        <v>0.27959013495171381</v>
+      </c>
+      <c r="K147" s="4">
+        <v>257</v>
+      </c>
+      <c r="L147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N147" s="4">
+        <v>1</v>
+      </c>
+      <c r="O147" s="15">
+        <v>22.774364550091789</v>
+      </c>
+      <c r="P147" s="15">
+        <v>16.30674468620445</v>
+      </c>
+      <c r="Q147" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="R147" s="9">
+        <v>6.4676198638873386</v>
+      </c>
+      <c r="S147" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T147" s="4">
+        <v>31</v>
+      </c>
+      <c r="U147" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V147" s="4">
+        <v>0</v>
+      </c>
+      <c r="W147" s="4">
+        <v>38.5</v>
+      </c>
+      <c r="X147" s="9">
+        <v>39.081109236296228</v>
+      </c>
+      <c r="Y147" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z147" s="4">
+        <v>31</v>
+      </c>
+      <c r="AA147" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC147" s="5">
+        <v>0.27447755785955902</v>
+      </c>
+      <c r="AD147" s="5">
+        <v>0.41019966488792781</v>
+      </c>
+      <c r="AE147" s="5">
+        <v>-6.5953307681613504E-2</v>
+      </c>
+      <c r="AF147" s="5">
+        <v>-0.41019966488792781</v>
+      </c>
+      <c r="AG147" s="5">
+        <v>-0.27447755785955902</v>
+      </c>
+      <c r="AH147" s="5">
+        <v>6.5953307681613504E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B148" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C148" s="4">
+        <v>15</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F148" s="4">
+        <v>34</v>
+      </c>
+      <c r="G148" s="4">
+        <v>26</v>
+      </c>
+      <c r="H148" s="8">
+        <v>0.43988287428103162</v>
+      </c>
+      <c r="I148" s="4">
+        <v>127</v>
+      </c>
+      <c r="J148" s="8">
+        <v>0.56011712571896843</v>
+      </c>
+      <c r="K148" s="4">
+        <v>-127</v>
+      </c>
+      <c r="L148" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M148" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N148" s="4">
+        <v>0</v>
+      </c>
+      <c r="O148" s="15">
+        <v>23.839145609454121</v>
+      </c>
+      <c r="P148" s="15">
+        <v>23.600464291307691</v>
+      </c>
+      <c r="Q148" s="4">
+        <v>-2.5</v>
+      </c>
+      <c r="R148" s="9">
+        <v>0.23868131814643689</v>
+      </c>
+      <c r="S148" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T148" s="4">
+        <v>8</v>
+      </c>
+      <c r="U148" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V148" s="4">
+        <v>1</v>
+      </c>
+      <c r="W148" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="X148" s="9">
+        <v>47.439609900761809</v>
+      </c>
+      <c r="Y148" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z148" s="4">
+        <v>60</v>
+      </c>
+      <c r="AA148" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB148" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC148" s="5">
+        <v>0.18422170785757211</v>
+      </c>
+      <c r="AD148" s="5">
+        <v>-4.5897548848932442E-2</v>
+      </c>
+      <c r="AE148" s="5">
+        <v>-2.9521880326447661E-2</v>
+      </c>
+      <c r="AF148" s="5">
+        <v>4.5897548848932442E-2</v>
+      </c>
+      <c r="AG148" s="5">
+        <v>-0.18422170785757211</v>
+      </c>
+      <c r="AH148" s="5">
+        <v>2.9521880326447661E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B149" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C149" s="4">
+        <v>15</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F149" s="4">
+        <v>41</v>
+      </c>
+      <c r="G149" s="4">
+        <v>34</v>
+      </c>
+      <c r="H149" s="8">
+        <v>0.65340354530499767</v>
+      </c>
+      <c r="I149" s="4">
+        <v>-188</v>
+      </c>
+      <c r="J149" s="8">
+        <v>0.34659645469500228</v>
+      </c>
+      <c r="K149" s="4">
+        <v>188</v>
+      </c>
+      <c r="L149" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M149" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N149" s="4">
+        <v>1</v>
+      </c>
+      <c r="O149" s="15">
+        <v>25.5145740038494</v>
+      </c>
+      <c r="P149" s="15">
+        <v>21.29288341932779</v>
+      </c>
+      <c r="Q149" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="R149" s="15">
+        <v>4.2216905845216166</v>
+      </c>
+      <c r="S149" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T149" s="4">
+        <v>7</v>
+      </c>
+      <c r="U149" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V149" s="4">
+        <v>0</v>
+      </c>
+      <c r="W149" s="4">
+        <v>55.5</v>
+      </c>
+      <c r="X149" s="9">
+        <v>46.80745742317719</v>
+      </c>
+      <c r="Y149" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z149" s="4">
+        <v>75</v>
+      </c>
+      <c r="AA149" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB149" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC149" s="5">
+        <v>0.20446423689524329</v>
+      </c>
+      <c r="AD149" s="5">
+        <v>-0.18640026450157171</v>
+      </c>
+      <c r="AE149" s="5">
+        <v>8.0822855234146118E-2</v>
+      </c>
+      <c r="AF149" s="5">
+        <v>0.18640026450157171</v>
+      </c>
+      <c r="AG149" s="5">
+        <v>-0.20446423689524329</v>
+      </c>
+      <c r="AH149" s="5">
+        <v>-8.0822855234146118E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B150" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C150" s="4">
+        <v>15</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F150" s="4">
+        <v>20</v>
+      </c>
+      <c r="G150" s="4">
+        <v>17</v>
+      </c>
+      <c r="H150" s="8">
+        <v>0.38670585764743137</v>
+      </c>
+      <c r="I150" s="4">
+        <v>158</v>
+      </c>
+      <c r="J150" s="8">
+        <v>0.61329414235256863</v>
+      </c>
+      <c r="K150" s="4">
+        <v>-158</v>
+      </c>
+      <c r="L150" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M150" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N150" s="4">
+        <v>0</v>
+      </c>
+      <c r="O150" s="15">
+        <v>19.979862518048542</v>
+      </c>
+      <c r="P150" s="15">
+        <v>23.449353689463511</v>
+      </c>
+      <c r="Q150" s="4">
+        <v>-2.5</v>
+      </c>
+      <c r="R150" s="9">
+        <v>-3.469491171414973</v>
+      </c>
+      <c r="S150" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T150" s="4">
+        <v>3</v>
+      </c>
+      <c r="U150" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V150" s="4">
+        <v>0</v>
+      </c>
+      <c r="W150" s="4">
+        <v>40.5</v>
+      </c>
+      <c r="X150" s="9">
+        <v>43.429216207512063</v>
+      </c>
+      <c r="Y150" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z150" s="4">
+        <v>37</v>
+      </c>
+      <c r="AA150" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB150" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC150" s="5">
+        <v>0.12060855751606959</v>
+      </c>
+      <c r="AD150" s="5">
+        <v>-9.2158878058717961E-2</v>
+      </c>
+      <c r="AE150" s="5">
+        <v>-2.602231502532959E-2</v>
+      </c>
+      <c r="AF150" s="5">
+        <v>9.2158878058717961E-2</v>
+      </c>
+      <c r="AG150" s="5">
+        <v>-0.12060855751606959</v>
+      </c>
+      <c r="AH150" s="5">
+        <v>2.602231502532959E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B151" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C151" s="4">
+        <v>15</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F151" s="4">
+        <v>18</v>
+      </c>
+      <c r="G151" s="4">
+        <v>16</v>
+      </c>
+      <c r="H151" s="8">
+        <v>0.61517315708416764</v>
+      </c>
+      <c r="I151" s="4">
+        <v>-159</v>
+      </c>
+      <c r="J151" s="8">
+        <v>0.38482684291583241</v>
+      </c>
+      <c r="K151" s="4">
+        <v>159</v>
+      </c>
+      <c r="L151" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M151" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N151" s="4">
+        <v>1</v>
+      </c>
+      <c r="O151" s="15">
+        <v>26.482532403537771</v>
+      </c>
+      <c r="P151" s="15">
+        <v>20.587491299679471</v>
+      </c>
+      <c r="Q151" s="4">
+        <v>14</v>
+      </c>
+      <c r="R151" s="9">
+        <v>5.8950411038583042</v>
+      </c>
+      <c r="S151" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T151" s="4">
+        <v>2</v>
+      </c>
+      <c r="U151" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V151" s="4">
+        <v>1</v>
+      </c>
+      <c r="W151" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="X151" s="9">
+        <v>47.070023703217252</v>
+      </c>
+      <c r="Y151" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z151" s="4">
+        <v>34</v>
+      </c>
+      <c r="AA151" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB151" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC151" s="5">
+        <v>-5.2897453308105469E-2</v>
+      </c>
+      <c r="AD151" s="5">
+        <v>5.0182624657948809E-2</v>
+      </c>
+      <c r="AE151" s="5">
+        <v>-2.289349238077799E-2</v>
+      </c>
+      <c r="AF151" s="5">
+        <v>-5.0182624657948809E-2</v>
+      </c>
+      <c r="AG151" s="5">
+        <v>5.2897453308105469E-2</v>
+      </c>
+      <c r="AH151" s="5">
+        <v>2.289349238077799E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B152" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C152" s="4">
+        <v>15</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F152" s="4">
+        <v>37</v>
+      </c>
+      <c r="G152" s="4">
+        <v>24</v>
+      </c>
+      <c r="H152" s="8">
+        <v>0.81195214311802133</v>
+      </c>
+      <c r="I152" s="4">
+        <v>-431</v>
+      </c>
+      <c r="J152" s="8">
+        <v>0.1880478568819787</v>
+      </c>
+      <c r="K152" s="4">
+        <v>431</v>
+      </c>
+      <c r="L152" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M152" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N152" s="4">
+        <v>1</v>
+      </c>
+      <c r="O152" s="9">
+        <v>31.622566271482949</v>
+      </c>
+      <c r="P152" s="15">
+        <v>17.63250567140237</v>
+      </c>
+      <c r="Q152" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="R152" s="9">
+        <v>13.99006060008058</v>
+      </c>
+      <c r="S152" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T152" s="4">
+        <v>13</v>
+      </c>
+      <c r="U152" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V152" s="4">
+        <v>1</v>
+      </c>
+      <c r="W152" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X152" s="9">
+        <v>49.255071942885323</v>
+      </c>
+      <c r="Y152" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z152" s="4">
+        <v>61</v>
+      </c>
+      <c r="AA152" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB152" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC152" s="5">
+        <v>0.24674415588378909</v>
+      </c>
+      <c r="AD152" s="5">
+        <v>-0.166762280014326</v>
+      </c>
+      <c r="AE152" s="5">
+        <v>0.12605456369263779</v>
+      </c>
+      <c r="AF152" s="5">
+        <v>0.166762280014326</v>
+      </c>
+      <c r="AG152" s="5">
+        <v>-0.24674415588378909</v>
+      </c>
+      <c r="AH152" s="5">
+        <v>-0.12605456369263779</v>
+      </c>
+    </row>
+    <row r="153" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B153" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C153" s="4">
+        <v>15</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F153" s="4">
+        <v>26</v>
+      </c>
+      <c r="G153" s="4">
+        <v>34</v>
+      </c>
+      <c r="H153" s="8">
+        <v>0.7043288685541208</v>
+      </c>
+      <c r="I153" s="4">
+        <v>-238</v>
+      </c>
+      <c r="J153" s="8">
+        <v>0.2956711314458792</v>
+      </c>
+      <c r="K153" s="4">
+        <v>238</v>
+      </c>
+      <c r="L153" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M153" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N153" s="4">
+        <v>0</v>
+      </c>
+      <c r="O153" s="9">
+        <v>25.772461126347459</v>
+      </c>
+      <c r="P153" s="15">
+        <v>19.607648842037531</v>
+      </c>
+      <c r="Q153" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="R153" s="9">
+        <v>6.1648122843099351</v>
+      </c>
+      <c r="S153" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T153" s="4">
+        <v>-8</v>
+      </c>
+      <c r="U153" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V153" s="4">
+        <v>0</v>
+      </c>
+      <c r="W153" s="4">
+        <v>47.5</v>
+      </c>
+      <c r="X153" s="9">
+        <v>45.380109968384993</v>
+      </c>
+      <c r="Y153" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z153" s="4">
+        <v>60</v>
+      </c>
+      <c r="AA153" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB153" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC153" s="5">
+        <v>0.1033906869485345</v>
+      </c>
+      <c r="AD153" s="5">
+        <v>-0.21643484963311091</v>
+      </c>
+      <c r="AE153" s="5">
+        <v>-0.24118071986782941</v>
+      </c>
+      <c r="AF153" s="5">
+        <v>0.21643484963311091</v>
+      </c>
+      <c r="AG153" s="5">
+        <v>-0.1033906869485345</v>
+      </c>
+      <c r="AH153" s="5">
+        <v>0.24118071986782941</v>
+      </c>
+    </row>
+    <row r="154" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B154" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C154" s="4">
+        <v>15</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F154" s="4">
+        <v>28</v>
+      </c>
+      <c r="G154" s="4">
+        <v>15</v>
+      </c>
+      <c r="H154" s="8">
+        <v>0.48235151259621789</v>
+      </c>
+      <c r="I154" s="4">
+        <v>107</v>
+      </c>
+      <c r="J154" s="8">
+        <v>0.51764848740378211</v>
+      </c>
+      <c r="K154" s="4">
+        <v>-107</v>
+      </c>
+      <c r="L154" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M154" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N154" s="4">
+        <v>0</v>
+      </c>
+      <c r="O154" s="9">
+        <v>23.431135929767429</v>
+      </c>
+      <c r="P154" s="15">
+        <v>23.529503393557441</v>
+      </c>
+      <c r="Q154" s="4">
+        <v>3</v>
+      </c>
+      <c r="R154" s="9">
+        <v>-9.8367463790019372E-2</v>
+      </c>
+      <c r="S154" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T154" s="4">
+        <v>13</v>
+      </c>
+      <c r="U154" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V154" s="4">
+        <v>0</v>
+      </c>
+      <c r="W154" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="X154" s="9">
+        <v>46.96063932332487</v>
+      </c>
+      <c r="Y154" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z154" s="4">
+        <v>43</v>
+      </c>
+      <c r="AA154" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB154" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC154" s="5">
+        <v>0.20847795948837741</v>
+      </c>
+      <c r="AD154" s="5">
+        <v>2.4986797943711281E-3</v>
+      </c>
+      <c r="AE154" s="5">
+        <v>-7.7380194664001464E-2</v>
+      </c>
+      <c r="AF154" s="5">
+        <v>-2.4986797943711281E-3</v>
+      </c>
+      <c r="AG154" s="5">
+        <v>-0.20847795948837741</v>
+      </c>
+      <c r="AH154" s="5">
+        <v>7.7380194664001464E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="AF7:AH7"/>
@@ -12266,7 +13916,7 @@
     <mergeCell ref="AC7:AE7"/>
   </mergeCells>
   <conditionalFormatting sqref="AC9:AC23">
-    <cfRule type="colorScale" priority="71">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12278,7 +13928,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC24:AC38">
-    <cfRule type="colorScale" priority="64">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12290,7 +13940,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC39:AC51">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12302,7 +13952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC52:AC65">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12314,7 +13964,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC66:AC79">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12326,7 +13976,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC80:AC94">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12338,6 +13988,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC95:AC108">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC109:AC124">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -12349,7 +14011,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC109:AC124">
+  <conditionalFormatting sqref="AC125:AC138">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -12361,7 +14023,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC125:AC138">
+  <conditionalFormatting sqref="AC139:AC154">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -12374,7 +14036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD9:AD23">
-    <cfRule type="colorScale" priority="70">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12386,7 +14048,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD24:AD38">
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12398,7 +14060,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD39:AD51">
-    <cfRule type="colorScale" priority="53">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12410,7 +14072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD52:AD65">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12422,7 +14084,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD66:AD79">
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12434,7 +14096,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD80:AD94">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12446,6 +14108,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD95:AD108">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD109:AD124">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -12457,7 +14131,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD109:AD124">
+  <conditionalFormatting sqref="AD125:AD138">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -12469,7 +14143,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD125:AD138">
+  <conditionalFormatting sqref="AD139:AD154">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -12482,7 +14156,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE9:AE23">
-    <cfRule type="colorScale" priority="69">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12494,7 +14168,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE24:AE38">
-    <cfRule type="colorScale" priority="62">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12506,7 +14180,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE39:AE51">
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12518,7 +14192,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE52:AE65">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12530,7 +14204,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE66:AE79">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12542,6 +14216,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE80:AE94">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE95:AE108">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -12553,7 +14239,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE95:AE108">
+  <conditionalFormatting sqref="AE109:AE124">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -12565,7 +14251,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE109:AE124">
+  <conditionalFormatting sqref="AE125:AE138">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -12577,7 +14263,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE125:AE138">
+  <conditionalFormatting sqref="AE139:AE154">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -12590,7 +14276,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF9:AF23">
-    <cfRule type="colorScale" priority="68">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12602,7 +14288,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF24:AF38">
-    <cfRule type="colorScale" priority="61">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12614,7 +14300,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF39:AF51">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12626,7 +14312,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF52:AF65">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12638,6 +14324,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF66:AF79">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF80:AF94">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -12649,8 +14347,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF80:AF94">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="AF95:AF108">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12661,7 +14359,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF95:AF108">
+  <conditionalFormatting sqref="AF109:AF124">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -12673,7 +14371,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF109:AF124">
+  <conditionalFormatting sqref="AF125:AF138">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -12685,7 +14383,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF125:AF138">
+  <conditionalFormatting sqref="AF139:AF154">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -12698,7 +14396,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG9:AG23">
-    <cfRule type="colorScale" priority="67">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12710,7 +14408,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG24:AG38">
-    <cfRule type="colorScale" priority="60">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12722,7 +14420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG39:AG51">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12734,7 +14432,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG52:AG65">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12746,7 +14444,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG66:AG79">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12758,7 +14456,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG80:AG94">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12770,6 +14468,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG95:AG108">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG109:AG124">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -12781,7 +14491,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG109:AG124">
+  <conditionalFormatting sqref="AG125:AG138">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -12793,7 +14503,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG125:AG138">
+  <conditionalFormatting sqref="AG139:AG154">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -12806,6 +14516,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH9:AH23">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH24:AH38">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH39:AH51">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -12817,7 +14551,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH24:AH38">
+  <conditionalFormatting sqref="AH52:AH65">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -12829,32 +14563,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH39:AH51">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH52:AH65">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AH66:AH79">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12866,7 +14576,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH80:AH94">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12878,6 +14588,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH95:AH108">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH109:AH124">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -12889,7 +14611,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH109:AH124">
+  <conditionalFormatting sqref="AH125:AH138">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -12901,7 +14623,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH125:AH138">
+  <conditionalFormatting sqref="AH139:AH154">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -12921,7 +14643,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="36" id="{EDEA8277-96E2-534B-9496-1DB5484BFD68}">
+          <x14:cfRule type="iconSet" priority="45" id="{EDEA8277-96E2-534B-9496-1DB5484BFD68}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12940,7 +14662,7 @@
           <xm:sqref>N80:N94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{DD4EF5CC-2E62-F245-AF58-2756E5752FDF}">
+          <x14:cfRule type="iconSet" priority="28" id="{DD4EF5CC-2E62-F245-AF58-2756E5752FDF}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12959,7 +14681,7 @@
           <xm:sqref>N95:N108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{37C61786-4A12-0746-A763-4990B69F05C7}">
+          <x14:cfRule type="iconSet" priority="19" id="{37C61786-4A12-0746-A763-4990B69F05C7}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12978,7 +14700,7 @@
           <xm:sqref>N109:N124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{212E7F37-E966-AF4F-A0C3-E0E8E1340734}">
+          <x14:cfRule type="iconSet" priority="10" id="{212E7F37-E966-AF4F-A0C3-E0E8E1340734}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12997,7 +14719,26 @@
           <xm:sqref>N125:N138</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="58" id="{48C4D57C-361D-AB47-A2B7-3D4E42CE6188}">
+          <x14:cfRule type="iconSet" priority="1" id="{9742010F-AC5F-C647-A8CE-71E3275DF15E}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>N139:N154</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="67" id="{48C4D57C-361D-AB47-A2B7-3D4E42CE6188}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13016,7 +14757,7 @@
           <xm:sqref>N24:AA38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="51" id="{C3D59626-8CA7-8645-8330-0E71AB30C540}">
+          <x14:cfRule type="iconSet" priority="60" id="{C3D59626-8CA7-8645-8330-0E71AB30C540}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13035,7 +14776,7 @@
           <xm:sqref>N39:AA51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="44" id="{6D153A18-6D77-9445-BF8D-3BA4EDDD3FBA}">
+          <x14:cfRule type="iconSet" priority="53" id="{6D153A18-6D77-9445-BF8D-3BA4EDDD3FBA}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13054,7 +14795,7 @@
           <xm:sqref>N52:AA65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="37" id="{C34C5491-7DF8-D04C-B3C0-3779DAAA33EE}">
+          <x14:cfRule type="iconSet" priority="46" id="{C34C5491-7DF8-D04C-B3C0-3779DAAA33EE}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13073,7 +14814,7 @@
           <xm:sqref>N66:AA79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="65" id="{4DC6D28C-E799-D04F-BAD2-092B8419C03D}">
+          <x14:cfRule type="iconSet" priority="74" id="{4DC6D28C-E799-D04F-BAD2-092B8419C03D}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13092,7 +14833,7 @@
           <xm:sqref>N9:AB23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{92AD66C2-D91E-D648-9AC6-2417C2445C43}">
+          <x14:cfRule type="iconSet" priority="38" id="{92AD66C2-D91E-D648-9AC6-2417C2445C43}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13111,7 +14852,7 @@
           <xm:sqref>V80:V94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{2D523F71-4BB4-9940-8B5D-C962CA9D6F15}">
+          <x14:cfRule type="iconSet" priority="29" id="{2D523F71-4BB4-9940-8B5D-C962CA9D6F15}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13130,7 +14871,7 @@
           <xm:sqref>V95:V108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{2094B9A9-658A-3D41-A969-4F7B5F1A7D42}">
+          <x14:cfRule type="iconSet" priority="20" id="{2094B9A9-658A-3D41-A969-4F7B5F1A7D42}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13149,7 +14890,7 @@
           <xm:sqref>V109:V124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{7AD482D6-AFFD-C546-9642-22AC15E71775}">
+          <x14:cfRule type="iconSet" priority="11" id="{7AD482D6-AFFD-C546-9642-22AC15E71775}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13168,7 +14909,26 @@
           <xm:sqref>V125:V138</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{409D8166-545E-3045-805D-7C96DC6956B1}">
+          <x14:cfRule type="iconSet" priority="2" id="{3B475BB3-A842-F24C-8D71-84FCC9C136B4}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>V139:V154</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="37" id="{409D8166-545E-3045-805D-7C96DC6956B1}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13187,7 +14947,7 @@
           <xm:sqref>AB80:AB94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{578139A0-9556-A24C-89D1-3B66D89331FA}">
+          <x14:cfRule type="iconSet" priority="30" id="{578139A0-9556-A24C-89D1-3B66D89331FA}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13206,7 +14966,7 @@
           <xm:sqref>AB95:AB108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{869A3731-7EDB-9143-AD0D-591DEB781BAF}">
+          <x14:cfRule type="iconSet" priority="21" id="{869A3731-7EDB-9143-AD0D-591DEB781BAF}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13225,7 +14985,7 @@
           <xm:sqref>AB109:AB124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{90EFE230-91F0-784C-B726-5BE6F84EE2FC}">
+          <x14:cfRule type="iconSet" priority="12" id="{90EFE230-91F0-784C-B726-5BE6F84EE2FC}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13243,6 +15003,25 @@
           </x14:cfRule>
           <xm:sqref>AB125:AB138</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{7941D79E-AD1D-3F44-8D4F-313B45BDFDD4}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AB139:AB154</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -13250,6 +15029,2007 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44FA5A1-BBDB-B847-B56F-A988AF1A9410}">
+  <dimension ref="B2:AH24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="13">
+        <f>COUNTA($C$9:$C$24)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="13">
+        <f>SUM(N9:$N$24)</f>
+        <v>10</v>
+      </c>
+      <c r="D3" s="14">
+        <f>C3/$C$2</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="13">
+        <f>SUM(V9:$V$24)</f>
+        <v>10</v>
+      </c>
+      <c r="D4" s="14">
+        <f t="shared" ref="D4:D5" si="0">C4/$C$2</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="13">
+        <f>SUM(AB9:$AB$24)</f>
+        <v>8</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="H7" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B9" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="4">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="4">
+        <v>24</v>
+      </c>
+      <c r="G9" s="4">
+        <v>31</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.48253295193992413</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.51746704806007582</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="15">
+        <v>25.529233570599331</v>
+      </c>
+      <c r="P9" s="15">
+        <v>25.607126002885931</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="R9" s="15">
+        <v>-7.7892432286603253E-2</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T9" s="4">
+        <v>-7</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
+      <c r="W9" s="4">
+        <v>48.5</v>
+      </c>
+      <c r="X9" s="9">
+        <v>51.136359573485272</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>55</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>4.8194105662996797E-2</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>-0.31817717471365198</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>5.2845547596613557E-2</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>0.31817717471365198</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>-4.8194105662996797E-2</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>-5.2845547596613557E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B10" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="4">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="4">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4">
+        <v>28</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.46143532478045052</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.53856467521954954</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="15">
+        <v>23.335191684024949</v>
+      </c>
+      <c r="P10" s="15">
+        <v>27.11730556268461</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>-3.5</v>
+      </c>
+      <c r="R10" s="15">
+        <v>-3.7821138786596542</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T10" s="4">
+        <v>3</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>53.5</v>
+      </c>
+      <c r="X10" s="9">
+        <v>50.452497246709562</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>59</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>0.27415717857471411</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>-0.17532253265380859</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>-7.3952504566737586E-3</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>0.17532253265380859</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>-0.27415717857471411</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>7.3952504566737586E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B11" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="4">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="4">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4">
+        <v>32</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.63629110319441307</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.36370889680558688</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15">
+        <v>25.27901628321883</v>
+      </c>
+      <c r="P11" s="15">
+        <v>20.5041983289656</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>7</v>
+      </c>
+      <c r="R11" s="9">
+        <v>4.774817954253237</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T11" s="4">
+        <v>-18</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V11" s="4">
+        <v>1</v>
+      </c>
+      <c r="W11" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="X11" s="9">
+        <v>45.78321461218443</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>46</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>-0.33492178836111303</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>-1.9006772213671579E-2</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>-0.16997030929282861</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>1.9006772213671579E-2</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>0.33492178836111303</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>0.16997030929282861</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B12" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C12" s="4">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="4">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4">
+        <v>24</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.56753267068476598</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.43246732931523402</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="15">
+        <v>24.962502032181931</v>
+      </c>
+      <c r="P12" s="15">
+        <v>18.993511265401501</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>7</v>
+      </c>
+      <c r="R12" s="9">
+        <v>5.9689907667804292</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T12" s="4">
+        <v>-9</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V12" s="4">
+        <v>1</v>
+      </c>
+      <c r="W12" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="X12" s="9">
+        <v>43.956013297583432</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>39</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>-3.8964977451399263E-2</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>-4.2160286459811902E-2</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>-0.1730813407897949</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>4.2160286459811902E-2</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>3.8964977451399263E-2</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>0.1730813407897949</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B13" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C13" s="4">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="4">
+        <v>31</v>
+      </c>
+      <c r="G13" s="4">
+        <v>28</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.28542976443971663</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.71457023556028343</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="15">
+        <v>21.008246054848851</v>
+      </c>
+      <c r="P13" s="15">
+        <v>27.144541748462359</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>-10</v>
+      </c>
+      <c r="R13" s="9">
+        <v>-6.1362956936135076</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T13" s="4">
+        <v>3</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V13" s="4">
+        <v>1</v>
+      </c>
+      <c r="W13" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X13" s="9">
+        <v>48.152787803311213</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>59</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>0.19092290909563911</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>-0.14862052132101619</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>-0.12567351758480069</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>0.14862052132101619</v>
+      </c>
+      <c r="AG13" s="5">
+        <v>-0.19092290909563911</v>
+      </c>
+      <c r="AH13" s="5">
+        <v>0.12567351758480069</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B14" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C14" s="4">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="4">
+        <v>8</v>
+      </c>
+      <c r="G14" s="4">
+        <v>26</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.29341196841472611</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.70658803158527395</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="15">
+        <v>19.126576732061579</v>
+      </c>
+      <c r="P14" s="15">
+        <v>24.024825809834759</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>-5.5</v>
+      </c>
+      <c r="R14" s="15">
+        <v>-4.8982490777731833</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T14" s="4">
+        <v>-18</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <v>35.5</v>
+      </c>
+      <c r="X14" s="9">
+        <v>43.151402541896353</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>34</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>-0.237057993488927</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>-2.5767023746783919E-2</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>-0.40003050457347522</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>2.5767023746783919E-2</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>0.237057993488927</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>0.40003050457347522</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B15" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C15" s="4">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="4">
+        <v>16</v>
+      </c>
+      <c r="G15" s="4">
+        <v>20</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.64065800177892263</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.35934199822107737</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="15">
+        <v>26.080700971734249</v>
+      </c>
+      <c r="P15" s="15">
+        <v>21.40125468180058</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>3</v>
+      </c>
+      <c r="R15" s="9">
+        <v>4.6794462899336624</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T15" s="4">
+        <v>-4</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X15" s="9">
+        <v>47.481955653534833</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>36</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>-3.4005244572957359E-2</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>-3.0582845211029049E-2</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>-0.1390877257693898</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>3.0582845211029049E-2</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>3.4005244572957359E-2</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>0.1390877257693898</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B16" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C16" s="4">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="4">
+        <v>21</v>
+      </c>
+      <c r="G16" s="4">
+        <v>17</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.71553632687105495</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.28446367312894499</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="15">
+        <v>26.918813575615321</v>
+      </c>
+      <c r="P16" s="15">
+        <v>17.904846113736539</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="R16" s="15">
+        <v>9.0139674618787886</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T16" s="4">
+        <v>4</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="X16" s="9">
+        <v>44.823659689351857</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>38</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>-0.1349042739186968</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>0.14688459123883929</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>1.8373789610686121E-2</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>-0.14688459123883929</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>0.1349042739186968</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>-1.8373789610686121E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B17" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C17" s="4">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="4">
+        <v>27</v>
+      </c>
+      <c r="G17" s="4">
+        <v>24</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.46351676924061591</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.53648323075938409</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="15">
+        <v>24.52010004134878</v>
+      </c>
+      <c r="P17" s="15">
+        <v>24.57762602875588</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>-3</v>
+      </c>
+      <c r="R17" s="9">
+        <v>-5.7525987407096579E-2</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T17" s="4">
+        <v>3</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V17" s="4">
+        <v>1</v>
+      </c>
+      <c r="W17" s="4">
+        <v>38.5</v>
+      </c>
+      <c r="X17" s="9">
+        <v>49.097726070104663</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>51</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>2.3049904749943659E-2</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>-0.1808726822120556</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>0.46029137120102392</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>0.1808726822120556</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>-2.3049904749943659E-2</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>-0.46029137120102392</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B18" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C18" s="4">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="4">
+        <v>20</v>
+      </c>
+      <c r="G18" s="4">
+        <v>17</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.54317326890060746</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.45682673109939248</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="O18" s="15">
+        <v>22.25229424880515</v>
+      </c>
+      <c r="P18" s="15">
+        <v>19.465320455178389</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R18" s="9">
+        <v>2.7869737936267569</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T18" s="4">
+        <v>3</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V18" s="4">
+        <v>1</v>
+      </c>
+      <c r="W18" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X18" s="9">
+        <v>41.717614703983543</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>37</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>-2.9960443233621532E-2</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>2.6304463545481369E-2</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>0.3582997114762016</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>-2.6304463545481369E-2</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>2.9960443233621532E-2</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>-0.3582997114762016</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B19" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C19" s="4">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3</v>
+      </c>
+      <c r="G19" s="4">
+        <v>25</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.31470373992465139</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.68529626007534861</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="15">
+        <v>19.256245495337371</v>
+      </c>
+      <c r="P19" s="15">
+        <v>24.747670521983679</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>-6</v>
+      </c>
+      <c r="R19" s="15">
+        <v>-5.4914250266463078</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T19" s="4">
+        <v>-22</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="X19" s="9">
+        <v>44.003916017321053</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>28</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>-0.37743313029661019</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>-9.9263052145640053E-3</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>-8.1854213367808945E-2</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>9.9263052145640053E-3</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>0.37743313029661019</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>8.1854213367808945E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B20" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C20" s="4">
+        <v>13</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="4">
+        <v>26</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.76149653354981373</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.2385034664501863</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="O20" s="15">
+        <v>26.62777531950438</v>
+      </c>
+      <c r="P20" s="15">
+        <v>17.542469137365181</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="R20" s="9">
+        <v>9.0853061821392025</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T20" s="4">
+        <v>26</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="X20" s="9">
+        <v>44.170244456869547</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>26</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>-0.1377916763077921</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>0.6641845703125</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>0.18704989682073181</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>-0.6641845703125</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>0.1377916763077921</v>
+      </c>
+      <c r="AH20" s="5">
+        <v>-0.18704989682073181</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B21" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C21" s="4">
+        <v>13</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="4">
+        <v>31</v>
+      </c>
+      <c r="G21" s="4">
+        <v>14</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.75882698175695307</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0.2411730182430469</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="15">
+        <v>26.695924407346009</v>
+      </c>
+      <c r="P21" s="15">
+        <v>16.29599177358509</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>10</v>
+      </c>
+      <c r="R21" s="9">
+        <v>10.399932633760921</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T21" s="4">
+        <v>17</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V21" s="4">
+        <v>1</v>
+      </c>
+      <c r="W21" s="4">
+        <v>40.5</v>
+      </c>
+      <c r="X21" s="9">
+        <v>42.991916180931099</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>45</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>0.1381939227764423</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>0.25111865997314448</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>9.6234646710482513E-2</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>-0.25111865997314448</v>
+      </c>
+      <c r="AG21" s="5">
+        <v>-0.1381939227764423</v>
+      </c>
+      <c r="AH21" s="5">
+        <v>-9.6234646710482513E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B22" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C22" s="4">
+        <v>13</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="4">
+        <v>7</v>
+      </c>
+      <c r="G22" s="4">
+        <v>26</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.39730694064557293</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.60269305935442707</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
+      <c r="O22" s="9">
+        <v>20.211740109905939</v>
+      </c>
+      <c r="P22" s="15">
+        <v>26.383452346648141</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>-3</v>
+      </c>
+      <c r="R22" s="9">
+        <v>-6.1717122367422057</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T22" s="4">
+        <v>-19</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V22" s="4">
+        <v>1</v>
+      </c>
+      <c r="W22" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X22" s="9">
+        <v>46.595192456554066</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>33</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>-0.42424911676451221</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>-0.10006493491095469</v>
+      </c>
+      <c r="AE22" s="5">
+        <v>3.5115478932857512E-2</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>0.10006493491095469</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>0.42424911676451221</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>-3.5115478932857512E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B23" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C23" s="4">
+        <v>13</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="4">
+        <v>26</v>
+      </c>
+      <c r="G23" s="4">
+        <v>27</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.37833675513830672</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.62166324486169333</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1</v>
+      </c>
+      <c r="O23" s="9">
+        <v>20.29185647762786</v>
+      </c>
+      <c r="P23" s="15">
+        <v>25.954848263773609</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="R23" s="9">
+        <v>-5.6629917861457528</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V23" s="4">
+        <v>1</v>
+      </c>
+      <c r="W23" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="X23" s="9">
+        <v>46.246704741401473</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>53</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="5">
+        <v>9.9916902455416595E-2</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>-0.15219854627336771</v>
+      </c>
+      <c r="AE23" s="5">
+        <v>1.051500687996546E-2</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>0.15219854627336771</v>
+      </c>
+      <c r="AG23" s="5">
+        <v>-9.9916902455416595E-2</v>
+      </c>
+      <c r="AH23" s="5">
+        <v>-1.051500687996546E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B24" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C24" s="4">
+        <v>13</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="4">
+        <v>33</v>
+      </c>
+      <c r="G24" s="4">
+        <v>15</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0.6888767985257922</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.3111232014742078</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1</v>
+      </c>
+      <c r="O24" s="9">
+        <v>29.212794798274679</v>
+      </c>
+      <c r="P24" s="15">
+        <v>20.605659243440741</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>7</v>
+      </c>
+      <c r="R24" s="9">
+        <v>8.6071355548339383</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T24" s="4">
+        <v>18</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V24" s="4">
+        <v>1</v>
+      </c>
+      <c r="W24" s="4">
+        <v>46.5</v>
+      </c>
+      <c r="X24" s="9">
+        <v>49.81845404171542</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>48</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>0.15040765489850719</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>9.7416504946621976E-2</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>0.19194484674013579</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>-9.7416504946621976E-2</v>
+      </c>
+      <c r="AG24" s="5">
+        <v>-0.15040765489850719</v>
+      </c>
+      <c r="AH24" s="5">
+        <v>-0.19194484674013579</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="W7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="AC9:AC24">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD9:AD24">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9:AE24">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF9:AF24">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9:AG24">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH9:AH24">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="I9:I24 K9:K24" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{F0045535-50AB-FD43-BD0D-DA5C2BC9A48E}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>N9:N24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{7F3AA7BA-ACA0-A44B-A7C2-F377D285B9E5}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>V9:V24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{76996824-64F7-F44B-9CF9-E228A6EF54ED}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AB9:AB24</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6F99A6-DB14-2A48-9B19-182C2194F0B5}">
   <dimension ref="B2:AH22"/>
   <sheetViews>
@@ -15045,7 +18825,2719 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56BC9E5-A1CF-E344-B421-18BC62C87574}">
+  <dimension ref="B2:AH24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="13">
+        <f>COUNTA($C$9:$C$24)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="13">
+        <f>SUM(N9:$N$24)</f>
+        <v>8</v>
+      </c>
+      <c r="D3" s="14">
+        <f>C3/$C$2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="13">
+        <f>SUM(V9:$V$24)</f>
+        <v>8</v>
+      </c>
+      <c r="D4" s="14">
+        <f t="shared" ref="D4:D5" si="0">C4/$C$2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="13">
+        <f>SUM(AB9:$AB$24)</f>
+        <v>6</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="H7" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B9" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="4">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="4">
+        <v>28</v>
+      </c>
+      <c r="G9" s="4">
+        <v>29</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.55311107736891651</v>
+      </c>
+      <c r="I9" s="4">
+        <v>-123</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.44688892263108349</v>
+      </c>
+      <c r="K9" s="4">
+        <v>123</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
+        <v>23.43704823660822</v>
+      </c>
+      <c r="P9" s="15">
+        <v>20.275458358410571</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R9" s="15">
+        <v>3.161589878197645</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
+      <c r="W9" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="X9" s="9">
+        <v>43.712506595018787</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>57</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>0.1317733175614301</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>-0.2193315278238325</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>0.1114644748823983</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>0.2193315278238325</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>-0.1317733175614301</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>-0.1114644748823983</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B10" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="4">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.7379495008536272</v>
+      </c>
+      <c r="I10" s="4">
+        <v>-281</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.2620504991463728</v>
+      </c>
+      <c r="K10" s="4">
+        <v>281</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="15">
+        <v>26.281883545499731</v>
+      </c>
+      <c r="P10" s="15">
+        <v>16.895162011024251</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="R10" s="15">
+        <v>9.3867215344754804</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T10" s="4">
+        <v>28</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V10" s="4">
+        <v>1</v>
+      </c>
+      <c r="W10" s="4">
+        <v>39.5</v>
+      </c>
+      <c r="X10" s="9">
+        <v>43.177045556523993</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>34</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>5.5679310451854362E-2</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>0.46604476656232557</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>3.8387454473055332E-2</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>-0.46604476656232557</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>-5.5679310451854362E-2</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>-3.8387454473055332E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B11" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="4">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>24</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.49854539536194609</v>
+      </c>
+      <c r="I11" s="4">
+        <v>100</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.50145460463805391</v>
+      </c>
+      <c r="K11" s="4">
+        <v>-100</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="15">
+        <v>19.543828147685989</v>
+      </c>
+      <c r="P11" s="15">
+        <v>25.629978778733761</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>-2.5</v>
+      </c>
+      <c r="R11" s="9">
+        <v>-6.0861506310477722</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T11" s="4">
+        <v>-24</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V11" s="4">
+        <v>1</v>
+      </c>
+      <c r="W11" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="X11" s="9">
+        <v>45.173806926419743</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>24</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>-0.31780488867508738</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>-0.20007620359721939</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>-5.1181500448900109E-2</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>0.20007620359721939</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>0.31780488867508738</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>5.1181500448900109E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B12" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C12" s="4">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="4">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4">
+        <v>20</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.6759915607053375</v>
+      </c>
+      <c r="I12" s="4">
+        <v>-208</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.3240084392946625</v>
+      </c>
+      <c r="K12" s="4">
+        <v>208</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="15">
+        <v>25.86818038659403</v>
+      </c>
+      <c r="P12" s="15">
+        <v>16.553565513587881</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="R12" s="9">
+        <v>9.3146148730061533</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T12" s="4">
+        <v>20</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="X12" s="9">
+        <v>42.421745900181918</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>60</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>0.22322595119476321</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>-5.1856294045081512E-2</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>0.43710761234678069</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>5.1856294045081512E-2</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>-0.22322595119476321</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>-0.43710761234678069</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B13" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C13" s="4">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4">
+        <v>48</v>
+      </c>
+      <c r="G13" s="4">
+        <v>20</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.72977689201558893</v>
+      </c>
+      <c r="I13" s="4">
+        <v>-270</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.27022310798441113</v>
+      </c>
+      <c r="K13" s="4">
+        <v>270</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="15">
+        <v>26.285730689686201</v>
+      </c>
+      <c r="P13" s="15">
+        <v>16.475169081439521</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="R13" s="9">
+        <v>9.8105616082466796</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T13" s="4">
+        <v>28</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="X13" s="9">
+        <v>42.760899771125708</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>68</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>0.31214617066464179</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>0.15684513484730439</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>8.5648218790690105E-3</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>-0.15684513484730439</v>
+      </c>
+      <c r="AG13" s="5">
+        <v>-0.31214617066464179</v>
+      </c>
+      <c r="AH13" s="5">
+        <v>-8.5648218790690105E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B14" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C14" s="4">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="4">
+        <v>13</v>
+      </c>
+      <c r="G14" s="4">
+        <v>16</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.51386550246563023</v>
+      </c>
+      <c r="I14" s="4">
+        <v>-105</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.48613449753436982</v>
+      </c>
+      <c r="K14" s="4">
+        <v>105</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="15">
+        <v>21.747223428365839</v>
+      </c>
+      <c r="P14" s="15">
+        <v>25.16930628181456</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R14" s="15">
+        <v>-3.4220828534487211</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T14" s="4">
+        <v>-3</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V14" s="4">
+        <v>1</v>
+      </c>
+      <c r="W14" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="X14" s="9">
+        <v>46.916529710180392</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>29</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>-0.1133985441239154</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>1.000016836019663E-2</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>4.7639032204945878E-2</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>-1.000016836019663E-2</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>0.1133985441239154</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>-4.7639032204945878E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B15" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C15" s="4">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="4">
+        <v>31</v>
+      </c>
+      <c r="G15" s="4">
+        <v>35</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.54182075644723904</v>
+      </c>
+      <c r="I15" s="4">
+        <v>-118</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.45817924355276102</v>
+      </c>
+      <c r="K15" s="4">
+        <v>118</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="15">
+        <v>25.39383005978841</v>
+      </c>
+      <c r="P15" s="15">
+        <v>22.897335356714201</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="R15" s="9">
+        <v>2.4964947030742048</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T15" s="4">
+        <v>-4</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>50.5</v>
+      </c>
+      <c r="X15" s="9">
+        <v>48.291165416502608</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>66</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>0.2300455020024226</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>-0.27603377157182829</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>-0.13226565292903361</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>0.27603377157182829</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>-0.2300455020024226</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>0.13226565292903361</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B16" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C16" s="4">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="4">
+        <v>21</v>
+      </c>
+      <c r="G16" s="4">
+        <v>29</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.57741471893306551</v>
+      </c>
+      <c r="I16" s="4">
+        <v>-136</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.42258528106693449</v>
+      </c>
+      <c r="K16" s="4">
+        <v>136</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="15">
+        <v>23.975062571943312</v>
+      </c>
+      <c r="P16" s="15">
+        <v>22.258502332493009</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="R16" s="15">
+        <v>1.716560239450295</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T16" s="4">
+        <v>-8</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V16" s="4">
+        <v>1</v>
+      </c>
+      <c r="W16" s="4">
+        <v>47.5</v>
+      </c>
+      <c r="X16" s="9">
+        <v>46.233564904436321</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>50</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>3.8744337418500113E-2</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>6.4041614532470703E-3</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>-0.51649937341953145</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>-6.4041614532470703E-3</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>-3.8744337418500113E-2</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>0.51649937341953145</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B17" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C17" s="4">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="4">
+        <v>31</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.72040986504828619</v>
+      </c>
+      <c r="I17" s="4">
+        <v>-257</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.27959013495171381</v>
+      </c>
+      <c r="K17" s="4">
+        <v>257</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+      <c r="O17" s="15">
+        <v>22.774364550091789</v>
+      </c>
+      <c r="P17" s="15">
+        <v>16.30674468620445</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="R17" s="9">
+        <v>6.4676198638873386</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T17" s="4">
+        <v>31</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>38.5</v>
+      </c>
+      <c r="X17" s="9">
+        <v>39.081109236296228</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>31</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>0.27447755785955902</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>0.41019966488792781</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>-6.5953307681613504E-2</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>-0.41019966488792781</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>-0.27447755785955902</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>6.5953307681613504E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B18" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C18" s="4">
+        <v>15</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="4">
+        <v>34</v>
+      </c>
+      <c r="G18" s="4">
+        <v>26</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.43988287428103162</v>
+      </c>
+      <c r="I18" s="4">
+        <v>127</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.56011712571896843</v>
+      </c>
+      <c r="K18" s="4">
+        <v>-127</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15">
+        <v>23.839145609454121</v>
+      </c>
+      <c r="P18" s="15">
+        <v>23.600464291307691</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>-2.5</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0.23868131814643689</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T18" s="4">
+        <v>8</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V18" s="4">
+        <v>1</v>
+      </c>
+      <c r="W18" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="X18" s="9">
+        <v>47.439609900761809</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>60</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>0.18422170785757211</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>-4.5897548848932442E-2</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>-2.9521880326447661E-2</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>4.5897548848932442E-2</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>-0.18422170785757211</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>2.9521880326447661E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B19" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C19" s="4">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="4">
+        <v>41</v>
+      </c>
+      <c r="G19" s="4">
+        <v>34</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.65340354530499767</v>
+      </c>
+      <c r="I19" s="4">
+        <v>-188</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.34659645469500228</v>
+      </c>
+      <c r="K19" s="4">
+        <v>188</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="15">
+        <v>25.5145740038494</v>
+      </c>
+      <c r="P19" s="15">
+        <v>21.29288341932779</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="R19" s="15">
+        <v>4.2216905845216166</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T19" s="4">
+        <v>7</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>55.5</v>
+      </c>
+      <c r="X19" s="9">
+        <v>46.80745742317719</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>75</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>0.20446423689524329</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>-0.18640026450157171</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>8.0822855234146118E-2</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>0.18640026450157171</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>-0.20446423689524329</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>-8.0822855234146118E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B20" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C20" s="4">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4">
+        <v>17</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.38670585764743137</v>
+      </c>
+      <c r="I20" s="4">
+        <v>158</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.61329414235256863</v>
+      </c>
+      <c r="K20" s="4">
+        <v>-158</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="15">
+        <v>19.979862518048542</v>
+      </c>
+      <c r="P20" s="15">
+        <v>23.449353689463511</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>-2.5</v>
+      </c>
+      <c r="R20" s="9">
+        <v>-3.469491171414973</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T20" s="4">
+        <v>3</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <v>40.5</v>
+      </c>
+      <c r="X20" s="9">
+        <v>43.429216207512063</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>37</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>0.12060855751606959</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>-9.2158878058717961E-2</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>-2.602231502532959E-2</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>9.2158878058717961E-2</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>-0.12060855751606959</v>
+      </c>
+      <c r="AH20" s="5">
+        <v>2.602231502532959E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B21" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C21" s="4">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="4">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <v>16</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.61517315708416764</v>
+      </c>
+      <c r="I21" s="4">
+        <v>-159</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0.38482684291583241</v>
+      </c>
+      <c r="K21" s="4">
+        <v>159</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="15">
+        <v>26.482532403537771</v>
+      </c>
+      <c r="P21" s="15">
+        <v>20.587491299679471</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>14</v>
+      </c>
+      <c r="R21" s="9">
+        <v>5.8950411038583042</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T21" s="4">
+        <v>2</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V21" s="4">
+        <v>1</v>
+      </c>
+      <c r="W21" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="X21" s="9">
+        <v>47.070023703217252</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>34</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>-5.2897453308105469E-2</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>5.0182624657948809E-2</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>-2.289349238077799E-2</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>-5.0182624657948809E-2</v>
+      </c>
+      <c r="AG21" s="5">
+        <v>5.2897453308105469E-2</v>
+      </c>
+      <c r="AH21" s="5">
+        <v>2.289349238077799E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B22" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C22" s="4">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="4">
+        <v>37</v>
+      </c>
+      <c r="G22" s="4">
+        <v>24</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.81195214311802133</v>
+      </c>
+      <c r="I22" s="4">
+        <v>-431</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.1880478568819787</v>
+      </c>
+      <c r="K22" s="4">
+        <v>431</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
+      <c r="O22" s="9">
+        <v>31.622566271482949</v>
+      </c>
+      <c r="P22" s="15">
+        <v>17.63250567140237</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="R22" s="9">
+        <v>13.99006060008058</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T22" s="4">
+        <v>13</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V22" s="4">
+        <v>1</v>
+      </c>
+      <c r="W22" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X22" s="9">
+        <v>49.255071942885323</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>61</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>0.24674415588378909</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>-0.166762280014326</v>
+      </c>
+      <c r="AE22" s="5">
+        <v>0.12605456369263779</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>0.166762280014326</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>-0.24674415588378909</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>-0.12605456369263779</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B23" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C23" s="4">
+        <v>15</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="4">
+        <v>26</v>
+      </c>
+      <c r="G23" s="4">
+        <v>34</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.7043288685541208</v>
+      </c>
+      <c r="I23" s="4">
+        <v>-238</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.2956711314458792</v>
+      </c>
+      <c r="K23" s="4">
+        <v>238</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>25.772461126347459</v>
+      </c>
+      <c r="P23" s="15">
+        <v>19.607648842037531</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="R23" s="9">
+        <v>6.1648122843099351</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T23" s="4">
+        <v>-8</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4">
+        <v>47.5</v>
+      </c>
+      <c r="X23" s="9">
+        <v>45.380109968384993</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>60</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="5">
+        <v>0.1033906869485345</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>-0.21643484963311091</v>
+      </c>
+      <c r="AE23" s="5">
+        <v>-0.24118071986782941</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>0.21643484963311091</v>
+      </c>
+      <c r="AG23" s="5">
+        <v>-0.1033906869485345</v>
+      </c>
+      <c r="AH23" s="5">
+        <v>0.24118071986782941</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B24" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C24" s="4">
+        <v>15</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="4">
+        <v>28</v>
+      </c>
+      <c r="G24" s="4">
+        <v>15</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0.48235151259621789</v>
+      </c>
+      <c r="I24" s="4">
+        <v>107</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.51764848740378211</v>
+      </c>
+      <c r="K24" s="4">
+        <v>-107</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <v>23.431135929767429</v>
+      </c>
+      <c r="P24" s="15">
+        <v>23.529503393557441</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>3</v>
+      </c>
+      <c r="R24" s="9">
+        <v>-9.8367463790019372E-2</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T24" s="4">
+        <v>13</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="X24" s="9">
+        <v>46.96063932332487</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>43</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>0.20847795948837741</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>2.4986797943711281E-3</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>-7.7380194664001464E-2</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>-2.4986797943711281E-3</v>
+      </c>
+      <c r="AG24" s="5">
+        <v>-0.20847795948837741</v>
+      </c>
+      <c r="AH24" s="5">
+        <v>7.7380194664001464E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="W7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="AC9:AC24">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD9:AD24">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9:AE24">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF9:AF24">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9:AG24">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH9:AH24">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{52FDEA58-FD41-2248-847A-D00EDF33D351}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>N9:N24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{B14A221A-A780-2542-95CF-3320F7E34618}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>V9:V24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{031DA987-B5E0-2D4F-AEB4-39B1F9AE8319}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AB9:AB24</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3197922-17FD-3446-ABDB-5FDED8A662DF}">
+  <dimension ref="B2:F44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" cm="1">
+        <f t="array" ref="B4:B13">_xlfn.UNIQUE(_xlfn._xlws.FILTER(Master!C9:C1000,NOT(ISBLANK(Master!C9:C1000))))</f>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B4)</f>
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <f>SUMIFS(Master!N:N, Master!C:C,'Weekly Record'!B4)</f>
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <f>C4-D4</f>
+        <v>6</v>
+      </c>
+      <c r="F4" s="12">
+        <f>D4/C4</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B5)</f>
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <f>SUMIFS(Master!N:N, Master!C:C,'Weekly Record'!B5)</f>
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E13" si="0">C5-D5</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" ref="F5:F13" si="1">D5/C5</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B6)</f>
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <f>SUMIFS(Master!N:N, Master!C:C,'Weekly Record'!B6)</f>
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="1"/>
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B7)</f>
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <f>SUMIFS(Master!N:N, Master!C:C,'Weekly Record'!B7)</f>
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B8)</f>
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <f>SUMIFS(Master!N:N, Master!C:C,'Weekly Record'!B8)</f>
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="1"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B9)</f>
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <f>SUMIFS(Master!N:N, Master!C:C,'Weekly Record'!B9)</f>
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B10)</f>
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <f>SUMIFS(Master!N:N, Master!C:C,'Weekly Record'!B10)</f>
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="1"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B11)</f>
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <f>SUMIFS(Master!N:N, Master!C:C,'Weekly Record'!B11)</f>
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B12)</f>
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <f>SUMIFS(Master!N:N, Master!C:C,'Weekly Record'!B12)</f>
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="1"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B13)</f>
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <f>SUMIFS(Master!N:N, Master!C:C,'Weekly Record'!B13)</f>
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" cm="1">
+        <f t="array" ref="B19:B28">_xlfn.UNIQUE(_xlfn._xlws.FILTER(Master!C9:C1000,NOT(ISBLANK(Master!C9:C1000))))</f>
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B19)</f>
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <f>SUMIFS(Master!V:V, Master!C:C,'Weekly Record'!B19)</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>C19-D19</f>
+        <v>15</v>
+      </c>
+      <c r="F19" s="12">
+        <f>D19/C19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B20)</f>
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <f>SUMIFS(Master!V:V, Master!C:C,'Weekly Record'!B20)</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E28" si="2">C20-D20</f>
+        <v>15</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" ref="F20:F28" si="3">D20/C20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B21)</f>
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <f>SUMIFS(Master!V:V, Master!C:C,'Weekly Record'!B21)</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B22)</f>
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <f>SUMIFS(Master!V:V, Master!C:C,'Weekly Record'!B22)</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B23)</f>
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <f>SUMIFS(Master!V:V, Master!C:C,'Weekly Record'!B23)</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B24)</f>
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <f>SUMIFS(Master!V:V, Master!C:C,'Weekly Record'!B24)</f>
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B25)</f>
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <f>SUMIFS(Master!V:V, Master!C:C,'Weekly Record'!B25)</f>
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="3"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B26)</f>
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <f>SUMIFS(Master!V:V, Master!C:C,'Weekly Record'!B26)</f>
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F26" s="12">
+        <f t="shared" si="3"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B27)</f>
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <f>SUMIFS(Master!V:V, Master!C:C,'Weekly Record'!B27)</f>
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" si="3"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B28)</f>
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <f>SUMIFS(Master!V:V, Master!C:C,'Weekly Record'!B28)</f>
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F28" s="12">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" cm="1">
+        <f t="array" ref="B35:B44">_xlfn.UNIQUE(_xlfn._xlws.FILTER(Master!C9:C1000,NOT(ISBLANK(Master!C9:C1000))))</f>
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B35)</f>
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <f>SUMIFS(Master!AB:AB, Master!C:C,'Weekly Record'!B35)</f>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f>C35-D35</f>
+        <v>15</v>
+      </c>
+      <c r="F35" s="12">
+        <f>D35/C35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B36)</f>
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <f>SUMIFS(Master!AB:AB, Master!C:C,'Weekly Record'!B36)</f>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:E44" si="4">C36-D36</f>
+        <v>15</v>
+      </c>
+      <c r="F36" s="12">
+        <f t="shared" ref="F36:F44" si="5">D36/C36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B37)</f>
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <f>SUMIFS(Master!AB:AB, Master!C:C,'Weekly Record'!B37)</f>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="F37" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B38)</f>
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <f>SUMIFS(Master!AB:AB, Master!C:C,'Weekly Record'!B38)</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F38" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B39)</f>
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <f>SUMIFS(Master!AB:AB, Master!C:C,'Weekly Record'!B39)</f>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F39" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B40)</f>
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <f>SUMIFS(Master!AB:AB, Master!C:C,'Weekly Record'!B40)</f>
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="F40" s="12">
+        <f t="shared" si="5"/>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B41)</f>
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <f>SUMIFS(Master!AB:AB, Master!C:C,'Weekly Record'!B41)</f>
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F41" s="12">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B42)</f>
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <f>SUMIFS(Master!AB:AB, Master!C:C,'Weekly Record'!B42)</f>
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="F42" s="12">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B43)</f>
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <f>SUMIFS(Master!AB:AB, Master!C:C,'Weekly Record'!B43)</f>
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F43" s="12">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B44)</f>
+        <v>16</v>
+      </c>
+      <c r="D44">
+        <f>SUMIFS(Master!AB:AB, Master!C:C,'Weekly Record'!B44)</f>
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F44" s="12">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R23"/>
   <sheetViews>
@@ -16099,7 +22591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904BBABB-8FBC-B540-9904-E291515243AC}">
   <dimension ref="B2:S23"/>
   <sheetViews>
@@ -17192,7 +23684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5594BAC1-D709-AC4F-951E-5F0ED06816C5}">
   <dimension ref="B2:S21"/>
   <sheetViews>
@@ -18172,7 +24664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D539A5CD-9ABB-684B-97CA-499DC15CED77}">
   <dimension ref="B2:S21"/>
   <sheetViews>
@@ -19201,7 +25693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B346F6-01FE-6642-AB7B-08715D2CF0D5}">
   <dimension ref="B2:W38"/>
   <sheetViews>
@@ -21250,7 +27742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46299F28-F7F7-4146-8090-5B44E7C856D4}">
   <dimension ref="B2:AF23"/>
   <sheetViews>
@@ -23049,7 +29541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5168B967-3FE3-EE4E-A104-AA63F82E9BED}">
   <dimension ref="B2:AH22"/>
   <sheetViews>
@@ -24846,2005 +31338,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44FA5A1-BBDB-B847-B56F-A988AF1A9410}">
-  <dimension ref="B2:AH24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="16" width="11.6640625" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="13">
-        <f>COUNTA($C$9:$C$24)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="13">
-        <f>SUM(N9:$N$24)</f>
-        <v>10</v>
-      </c>
-      <c r="D3" s="14">
-        <f>C3/$C$2</f>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="13">
-        <f>SUM(V9:$V$24)</f>
-        <v>10</v>
-      </c>
-      <c r="D4" s="14">
-        <f t="shared" ref="D4:D5" si="0">C4/$C$2</f>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="13">
-        <f>SUM(AB9:$AB$24)</f>
-        <v>8</v>
-      </c>
-      <c r="D5" s="14">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="H7" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-    </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B9" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C9" s="4">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="4">
-        <v>24</v>
-      </c>
-      <c r="G9" s="4">
-        <v>31</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0.48253295193992413</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0.51746704806007582</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="4">
-        <v>1</v>
-      </c>
-      <c r="O9" s="15">
-        <v>25.529233570599331</v>
-      </c>
-      <c r="P9" s="15">
-        <v>25.607126002885931</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="R9" s="15">
-        <v>-7.7892432286603253E-2</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="T9" s="4">
-        <v>-7</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="V9" s="4">
-        <v>1</v>
-      </c>
-      <c r="W9" s="4">
-        <v>48.5</v>
-      </c>
-      <c r="X9" s="9">
-        <v>51.136359573485272</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>55</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="5">
-        <v>4.8194105662996797E-2</v>
-      </c>
-      <c r="AD9" s="5">
-        <v>-0.31817717471365198</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>5.2845547596613557E-2</v>
-      </c>
-      <c r="AF9" s="5">
-        <v>0.31817717471365198</v>
-      </c>
-      <c r="AG9" s="5">
-        <v>-4.8194105662996797E-2</v>
-      </c>
-      <c r="AH9" s="5">
-        <v>-5.2845547596613557E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B10" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C10" s="4">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="4">
-        <v>31</v>
-      </c>
-      <c r="G10" s="4">
-        <v>28</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0.46143532478045052</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0.53856467521954954</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="15">
-        <v>23.335191684024949</v>
-      </c>
-      <c r="P10" s="15">
-        <v>27.11730556268461</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>-3.5</v>
-      </c>
-      <c r="R10" s="15">
-        <v>-3.7821138786596542</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="T10" s="4">
-        <v>3</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="V10" s="4">
-        <v>0</v>
-      </c>
-      <c r="W10" s="4">
-        <v>53.5</v>
-      </c>
-      <c r="X10" s="9">
-        <v>50.452497246709562</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>59</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="5">
-        <v>0.27415717857471411</v>
-      </c>
-      <c r="AD10" s="5">
-        <v>-0.17532253265380859</v>
-      </c>
-      <c r="AE10" s="5">
-        <v>-7.3952504566737586E-3</v>
-      </c>
-      <c r="AF10" s="5">
-        <v>0.17532253265380859</v>
-      </c>
-      <c r="AG10" s="5">
-        <v>-0.27415717857471411</v>
-      </c>
-      <c r="AH10" s="5">
-        <v>7.3952504566737586E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B11" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C11" s="4">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="4">
-        <v>14</v>
-      </c>
-      <c r="G11" s="4">
-        <v>32</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0.63629110319441307</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0.36370889680558688</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="15">
-        <v>25.27901628321883</v>
-      </c>
-      <c r="P11" s="15">
-        <v>20.5041983289656</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>7</v>
-      </c>
-      <c r="R11" s="9">
-        <v>4.774817954253237</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="T11" s="4">
-        <v>-18</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="V11" s="4">
-        <v>1</v>
-      </c>
-      <c r="W11" s="4">
-        <v>52.5</v>
-      </c>
-      <c r="X11" s="9">
-        <v>45.78321461218443</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z11" s="4">
-        <v>46</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="5">
-        <v>-0.33492178836111303</v>
-      </c>
-      <c r="AD11" s="5">
-        <v>-1.9006772213671579E-2</v>
-      </c>
-      <c r="AE11" s="5">
-        <v>-0.16997030929282861</v>
-      </c>
-      <c r="AF11" s="5">
-        <v>1.9006772213671579E-2</v>
-      </c>
-      <c r="AG11" s="5">
-        <v>0.33492178836111303</v>
-      </c>
-      <c r="AH11" s="5">
-        <v>0.16997030929282861</v>
-      </c>
-    </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B12" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C12" s="4">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="4">
-        <v>15</v>
-      </c>
-      <c r="G12" s="4">
-        <v>24</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0.56753267068476598</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0.43246732931523402</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="15">
-        <v>24.962502032181931</v>
-      </c>
-      <c r="P12" s="15">
-        <v>18.993511265401501</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>7</v>
-      </c>
-      <c r="R12" s="9">
-        <v>5.9689907667804292</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="T12" s="4">
-        <v>-9</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="V12" s="4">
-        <v>1</v>
-      </c>
-      <c r="W12" s="4">
-        <v>43.5</v>
-      </c>
-      <c r="X12" s="9">
-        <v>43.956013297583432</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>39</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="5">
-        <v>-3.8964977451399263E-2</v>
-      </c>
-      <c r="AD12" s="5">
-        <v>-4.2160286459811902E-2</v>
-      </c>
-      <c r="AE12" s="5">
-        <v>-0.1730813407897949</v>
-      </c>
-      <c r="AF12" s="5">
-        <v>4.2160286459811902E-2</v>
-      </c>
-      <c r="AG12" s="5">
-        <v>3.8964977451399263E-2</v>
-      </c>
-      <c r="AH12" s="5">
-        <v>0.1730813407897949</v>
-      </c>
-    </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B13" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C13" s="4">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="4">
-        <v>31</v>
-      </c>
-      <c r="G13" s="4">
-        <v>28</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0.28542976443971663</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0.71457023556028343</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="15">
-        <v>21.008246054848851</v>
-      </c>
-      <c r="P13" s="15">
-        <v>27.144541748462359</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>-10</v>
-      </c>
-      <c r="R13" s="9">
-        <v>-6.1362956936135076</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="T13" s="4">
-        <v>3</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="V13" s="4">
-        <v>1</v>
-      </c>
-      <c r="W13" s="4">
-        <v>44.5</v>
-      </c>
-      <c r="X13" s="9">
-        <v>48.152787803311213</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z13" s="4">
-        <v>59</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="5">
-        <v>0.19092290909563911</v>
-      </c>
-      <c r="AD13" s="5">
-        <v>-0.14862052132101619</v>
-      </c>
-      <c r="AE13" s="5">
-        <v>-0.12567351758480069</v>
-      </c>
-      <c r="AF13" s="5">
-        <v>0.14862052132101619</v>
-      </c>
-      <c r="AG13" s="5">
-        <v>-0.19092290909563911</v>
-      </c>
-      <c r="AH13" s="5">
-        <v>0.12567351758480069</v>
-      </c>
-    </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B14" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C14" s="4">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="4">
-        <v>8</v>
-      </c>
-      <c r="G14" s="4">
-        <v>26</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0.29341196841472611</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0.70658803158527395</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="4">
-        <v>1</v>
-      </c>
-      <c r="O14" s="15">
-        <v>19.126576732061579</v>
-      </c>
-      <c r="P14" s="15">
-        <v>24.024825809834759</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>-5.5</v>
-      </c>
-      <c r="R14" s="15">
-        <v>-4.8982490777731833</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="T14" s="4">
-        <v>-18</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="V14" s="4">
-        <v>0</v>
-      </c>
-      <c r="W14" s="4">
-        <v>35.5</v>
-      </c>
-      <c r="X14" s="9">
-        <v>43.151402541896353</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z14" s="4">
-        <v>34</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="5">
-        <v>-0.237057993488927</v>
-      </c>
-      <c r="AD14" s="5">
-        <v>-2.5767023746783919E-2</v>
-      </c>
-      <c r="AE14" s="5">
-        <v>-0.40003050457347522</v>
-      </c>
-      <c r="AF14" s="5">
-        <v>2.5767023746783919E-2</v>
-      </c>
-      <c r="AG14" s="5">
-        <v>0.237057993488927</v>
-      </c>
-      <c r="AH14" s="5">
-        <v>0.40003050457347522</v>
-      </c>
-    </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B15" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C15" s="4">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="4">
-        <v>16</v>
-      </c>
-      <c r="G15" s="4">
-        <v>20</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0.64065800177892263</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0.35934199822107737</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="15">
-        <v>26.080700971734249</v>
-      </c>
-      <c r="P15" s="15">
-        <v>21.40125468180058</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>3</v>
-      </c>
-      <c r="R15" s="9">
-        <v>4.6794462899336624</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="T15" s="4">
-        <v>-4</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="V15" s="4">
-        <v>0</v>
-      </c>
-      <c r="W15" s="4">
-        <v>44.5</v>
-      </c>
-      <c r="X15" s="9">
-        <v>47.481955653534833</v>
-      </c>
-      <c r="Y15" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>36</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="5">
-        <v>-3.4005244572957359E-2</v>
-      </c>
-      <c r="AD15" s="5">
-        <v>-3.0582845211029049E-2</v>
-      </c>
-      <c r="AE15" s="5">
-        <v>-0.1390877257693898</v>
-      </c>
-      <c r="AF15" s="5">
-        <v>3.0582845211029049E-2</v>
-      </c>
-      <c r="AG15" s="5">
-        <v>3.4005244572957359E-2</v>
-      </c>
-      <c r="AH15" s="5">
-        <v>0.1390877257693898</v>
-      </c>
-    </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B16" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C16" s="4">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="4">
-        <v>21</v>
-      </c>
-      <c r="G16" s="4">
-        <v>17</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0.71553632687105495</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0.28446367312894499</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" s="4">
-        <v>1</v>
-      </c>
-      <c r="O16" s="15">
-        <v>26.918813575615321</v>
-      </c>
-      <c r="P16" s="15">
-        <v>17.904846113736539</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="R16" s="15">
-        <v>9.0139674618787886</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="T16" s="4">
-        <v>4</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="V16" s="4">
-        <v>0</v>
-      </c>
-      <c r="W16" s="4">
-        <v>41.5</v>
-      </c>
-      <c r="X16" s="9">
-        <v>44.823659689351857</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>38</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="5">
-        <v>-0.1349042739186968</v>
-      </c>
-      <c r="AD16" s="5">
-        <v>0.14688459123883929</v>
-      </c>
-      <c r="AE16" s="5">
-        <v>1.8373789610686121E-2</v>
-      </c>
-      <c r="AF16" s="5">
-        <v>-0.14688459123883929</v>
-      </c>
-      <c r="AG16" s="5">
-        <v>0.1349042739186968</v>
-      </c>
-      <c r="AH16" s="5">
-        <v>-1.8373789610686121E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B17" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C17" s="4">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="4">
-        <v>27</v>
-      </c>
-      <c r="G17" s="4">
-        <v>24</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0.46351676924061591</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0.53648323075938409</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="15">
-        <v>24.52010004134878</v>
-      </c>
-      <c r="P17" s="15">
-        <v>24.57762602875588</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>-3</v>
-      </c>
-      <c r="R17" s="9">
-        <v>-5.7525987407096579E-2</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="T17" s="4">
-        <v>3</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="V17" s="4">
-        <v>1</v>
-      </c>
-      <c r="W17" s="4">
-        <v>38.5</v>
-      </c>
-      <c r="X17" s="9">
-        <v>49.097726070104663</v>
-      </c>
-      <c r="Y17" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>51</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB17" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="5">
-        <v>2.3049904749943659E-2</v>
-      </c>
-      <c r="AD17" s="5">
-        <v>-0.1808726822120556</v>
-      </c>
-      <c r="AE17" s="5">
-        <v>0.46029137120102392</v>
-      </c>
-      <c r="AF17" s="5">
-        <v>0.1808726822120556</v>
-      </c>
-      <c r="AG17" s="5">
-        <v>-2.3049904749943659E-2</v>
-      </c>
-      <c r="AH17" s="5">
-        <v>-0.46029137120102392</v>
-      </c>
-    </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B18" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C18" s="4">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="4">
-        <v>20</v>
-      </c>
-      <c r="G18" s="4">
-        <v>17</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0.54317326890060746</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0.45682673109939248</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N18" s="4">
-        <v>1</v>
-      </c>
-      <c r="O18" s="15">
-        <v>22.25229424880515</v>
-      </c>
-      <c r="P18" s="15">
-        <v>19.465320455178389</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="R18" s="9">
-        <v>2.7869737936267569</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="T18" s="4">
-        <v>3</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="V18" s="4">
-        <v>1</v>
-      </c>
-      <c r="W18" s="4">
-        <v>44.5</v>
-      </c>
-      <c r="X18" s="9">
-        <v>41.717614703983543</v>
-      </c>
-      <c r="Y18" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z18" s="4">
-        <v>37</v>
-      </c>
-      <c r="AA18" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB18" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="5">
-        <v>-2.9960443233621532E-2</v>
-      </c>
-      <c r="AD18" s="5">
-        <v>2.6304463545481369E-2</v>
-      </c>
-      <c r="AE18" s="5">
-        <v>0.3582997114762016</v>
-      </c>
-      <c r="AF18" s="5">
-        <v>-2.6304463545481369E-2</v>
-      </c>
-      <c r="AG18" s="5">
-        <v>2.9960443233621532E-2</v>
-      </c>
-      <c r="AH18" s="5">
-        <v>-0.3582997114762016</v>
-      </c>
-    </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B19" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C19" s="4">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="4">
-        <v>3</v>
-      </c>
-      <c r="G19" s="4">
-        <v>25</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0.31470373992465139</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0.68529626007534861</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="4">
-        <v>1</v>
-      </c>
-      <c r="O19" s="15">
-        <v>19.256245495337371</v>
-      </c>
-      <c r="P19" s="15">
-        <v>24.747670521983679</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>-6</v>
-      </c>
-      <c r="R19" s="15">
-        <v>-5.4914250266463078</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="T19" s="4">
-        <v>-22</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="V19" s="4">
-        <v>0</v>
-      </c>
-      <c r="W19" s="4">
-        <v>42.5</v>
-      </c>
-      <c r="X19" s="9">
-        <v>44.003916017321053</v>
-      </c>
-      <c r="Y19" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z19" s="4">
-        <v>28</v>
-      </c>
-      <c r="AA19" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="5">
-        <v>-0.37743313029661019</v>
-      </c>
-      <c r="AD19" s="5">
-        <v>-9.9263052145640053E-3</v>
-      </c>
-      <c r="AE19" s="5">
-        <v>-8.1854213367808945E-2</v>
-      </c>
-      <c r="AF19" s="5">
-        <v>9.9263052145640053E-3</v>
-      </c>
-      <c r="AG19" s="5">
-        <v>0.37743313029661019</v>
-      </c>
-      <c r="AH19" s="5">
-        <v>8.1854213367808945E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B20" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C20" s="4">
-        <v>13</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="4">
-        <v>26</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0.76149653354981373</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="J20" s="8">
-        <v>0.2385034664501863</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="4">
-        <v>1</v>
-      </c>
-      <c r="O20" s="15">
-        <v>26.62777531950438</v>
-      </c>
-      <c r="P20" s="15">
-        <v>17.542469137365181</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="R20" s="9">
-        <v>9.0853061821392025</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="T20" s="4">
-        <v>26</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="V20" s="4">
-        <v>0</v>
-      </c>
-      <c r="W20" s="4">
-        <v>42.5</v>
-      </c>
-      <c r="X20" s="9">
-        <v>44.170244456869547</v>
-      </c>
-      <c r="Y20" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z20" s="4">
-        <v>26</v>
-      </c>
-      <c r="AA20" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="5">
-        <v>-0.1377916763077921</v>
-      </c>
-      <c r="AD20" s="5">
-        <v>0.6641845703125</v>
-      </c>
-      <c r="AE20" s="5">
-        <v>0.18704989682073181</v>
-      </c>
-      <c r="AF20" s="5">
-        <v>-0.6641845703125</v>
-      </c>
-      <c r="AG20" s="5">
-        <v>0.1377916763077921</v>
-      </c>
-      <c r="AH20" s="5">
-        <v>-0.18704989682073181</v>
-      </c>
-    </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B21" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C21" s="4">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="4">
-        <v>31</v>
-      </c>
-      <c r="G21" s="4">
-        <v>14</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0.75882698175695307</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0.2411730182430469</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="4">
-        <v>1</v>
-      </c>
-      <c r="O21" s="15">
-        <v>26.695924407346009</v>
-      </c>
-      <c r="P21" s="15">
-        <v>16.29599177358509</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>10</v>
-      </c>
-      <c r="R21" s="9">
-        <v>10.399932633760921</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="T21" s="4">
-        <v>17</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="V21" s="4">
-        <v>1</v>
-      </c>
-      <c r="W21" s="4">
-        <v>40.5</v>
-      </c>
-      <c r="X21" s="9">
-        <v>42.991916180931099</v>
-      </c>
-      <c r="Y21" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z21" s="4">
-        <v>45</v>
-      </c>
-      <c r="AA21" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB21" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="5">
-        <v>0.1381939227764423</v>
-      </c>
-      <c r="AD21" s="5">
-        <v>0.25111865997314448</v>
-      </c>
-      <c r="AE21" s="5">
-        <v>9.6234646710482513E-2</v>
-      </c>
-      <c r="AF21" s="5">
-        <v>-0.25111865997314448</v>
-      </c>
-      <c r="AG21" s="5">
-        <v>-0.1381939227764423</v>
-      </c>
-      <c r="AH21" s="5">
-        <v>-9.6234646710482513E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B22" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C22" s="4">
-        <v>13</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="4">
-        <v>7</v>
-      </c>
-      <c r="G22" s="4">
-        <v>26</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0.39730694064557293</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="8">
-        <v>0.60269305935442707</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N22" s="4">
-        <v>1</v>
-      </c>
-      <c r="O22" s="9">
-        <v>20.211740109905939</v>
-      </c>
-      <c r="P22" s="15">
-        <v>26.383452346648141</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>-3</v>
-      </c>
-      <c r="R22" s="9">
-        <v>-6.1717122367422057</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="T22" s="4">
-        <v>-19</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="V22" s="4">
-        <v>1</v>
-      </c>
-      <c r="W22" s="4">
-        <v>44.5</v>
-      </c>
-      <c r="X22" s="9">
-        <v>46.595192456554066</v>
-      </c>
-      <c r="Y22" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z22" s="4">
-        <v>33</v>
-      </c>
-      <c r="AA22" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="5">
-        <v>-0.42424911676451221</v>
-      </c>
-      <c r="AD22" s="5">
-        <v>-0.10006493491095469</v>
-      </c>
-      <c r="AE22" s="5">
-        <v>3.5115478932857512E-2</v>
-      </c>
-      <c r="AF22" s="5">
-        <v>0.10006493491095469</v>
-      </c>
-      <c r="AG22" s="5">
-        <v>0.42424911676451221</v>
-      </c>
-      <c r="AH22" s="5">
-        <v>-3.5115478932857512E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B23" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C23" s="4">
-        <v>13</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="4">
-        <v>26</v>
-      </c>
-      <c r="G23" s="4">
-        <v>27</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0.37833675513830672</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="J23" s="8">
-        <v>0.62166324486169333</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N23" s="4">
-        <v>1</v>
-      </c>
-      <c r="O23" s="9">
-        <v>20.29185647762786</v>
-      </c>
-      <c r="P23" s="15">
-        <v>25.954848263773609</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>-6.5</v>
-      </c>
-      <c r="R23" s="9">
-        <v>-5.6629917861457528</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="T23" s="4">
-        <v>-1</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="V23" s="4">
-        <v>1</v>
-      </c>
-      <c r="W23" s="4">
-        <v>43.5</v>
-      </c>
-      <c r="X23" s="9">
-        <v>46.246704741401473</v>
-      </c>
-      <c r="Y23" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z23" s="4">
-        <v>53</v>
-      </c>
-      <c r="AA23" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB23" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="5">
-        <v>9.9916902455416595E-2</v>
-      </c>
-      <c r="AD23" s="5">
-        <v>-0.15219854627336771</v>
-      </c>
-      <c r="AE23" s="5">
-        <v>1.051500687996546E-2</v>
-      </c>
-      <c r="AF23" s="5">
-        <v>0.15219854627336771</v>
-      </c>
-      <c r="AG23" s="5">
-        <v>-9.9916902455416595E-2</v>
-      </c>
-      <c r="AH23" s="5">
-        <v>-1.051500687996546E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B24" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C24" s="4">
-        <v>13</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="4">
-        <v>33</v>
-      </c>
-      <c r="G24" s="4">
-        <v>15</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0.6888767985257922</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0.3111232014742078</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N24" s="4">
-        <v>1</v>
-      </c>
-      <c r="O24" s="9">
-        <v>29.212794798274679</v>
-      </c>
-      <c r="P24" s="15">
-        <v>20.605659243440741</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>7</v>
-      </c>
-      <c r="R24" s="9">
-        <v>8.6071355548339383</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="T24" s="4">
-        <v>18</v>
-      </c>
-      <c r="U24" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="V24" s="4">
-        <v>1</v>
-      </c>
-      <c r="W24" s="4">
-        <v>46.5</v>
-      </c>
-      <c r="X24" s="9">
-        <v>49.81845404171542</v>
-      </c>
-      <c r="Y24" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z24" s="4">
-        <v>48</v>
-      </c>
-      <c r="AA24" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB24" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="5">
-        <v>0.15040765489850719</v>
-      </c>
-      <c r="AD24" s="5">
-        <v>9.7416504946621976E-2</v>
-      </c>
-      <c r="AE24" s="5">
-        <v>0.19194484674013579</v>
-      </c>
-      <c r="AF24" s="5">
-        <v>-9.7416504946621976E-2</v>
-      </c>
-      <c r="AG24" s="5">
-        <v>-0.15040765489850719</v>
-      </c>
-      <c r="AH24" s="5">
-        <v>-0.19194484674013579</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="W7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-  </mergeCells>
-  <conditionalFormatting sqref="AC9:AC24">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD9:AD24">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE9:AE24">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF9:AF24">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG9:AG24">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH9:AH24">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="I9:I24 K9:K24" numberStoredAsText="1"/>
-  </ignoredErrors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{F0045535-50AB-FD43-BD0D-DA5C2BC9A48E}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>N9:N24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{7F3AA7BA-ACA0-A44B-A7C2-F377D285B9E5}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>V9:V24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{76996824-64F7-F44B-9CF9-E228A6EF54ED}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>AB9:AB24</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/model results/2025 Results.xlsx
+++ b/model results/2025 Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmiller/Documents/Fun/nfl/model results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C377EDB8-9ACA-BE48-9DC7-F980D27593EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241D04A0-070B-AA44-B82F-226740C18F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,7 @@
     <sheet name="Week 13" sheetId="10" r:id="rId10"/>
     <sheet name="Week 14" sheetId="11" r:id="rId11"/>
     <sheet name="Week 15" sheetId="12" r:id="rId12"/>
+    <sheet name="Week 16" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="225">
   <si>
     <t>season</t>
   </si>
@@ -893,6 +894,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -905,7 +907,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1209,11 +1210,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E32420-1D15-E549-AAF4-FB71DE782F62}">
-  <dimension ref="B2:AH154"/>
+  <dimension ref="B2:AH170"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V15" sqref="V15"/>
+      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1271,19 +1272,19 @@
       </c>
       <c r="C3" s="13">
         <f>COUNTA(N9:N1000)</f>
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D3" s="13">
         <f>SUM(N9:N1000)</f>
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E3" s="13">
         <f>C3-D3</f>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F3" s="14">
         <f>D3/C3</f>
-        <v>0.65068493150684936</v>
+        <v>0.63580246913580252</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -1293,19 +1294,19 @@
       </c>
       <c r="C4" s="13">
         <f>COUNTA(V9:V1000)</f>
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D4" s="13">
         <f>SUM(V9:V1000)</f>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E4" s="13">
         <f>C4-D4</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F4" s="14">
         <f>D4/C4</f>
-        <v>0.53333333333333333</v>
+        <v>0.50549450549450547</v>
       </c>
       <c r="G4" s="6"/>
     </row>
@@ -1315,19 +1316,19 @@
       </c>
       <c r="C5" s="13">
         <f>COUNTA(AB9:AB1000)</f>
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D5" s="13">
         <f>SUM(AB9:AB1000)</f>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E5" s="13">
         <f>C5-D5</f>
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F5" s="14">
         <f>D5/C5</f>
-        <v>0.42666666666666669</v>
+        <v>0.43956043956043955</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -1336,45 +1337,45 @@
       <c r="C6" s="17"/>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18" t="s">
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18" t="s">
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18" t="s">
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18" t="s">
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -13906,6 +13907,1622 @@
         <v>7.7380194664001464E-2</v>
       </c>
     </row>
+    <row r="155" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B155" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C155" s="4">
+        <v>16</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F155" s="4">
+        <v>38</v>
+      </c>
+      <c r="G155" s="4">
+        <v>37</v>
+      </c>
+      <c r="H155" s="8">
+        <v>0.45677058285211442</v>
+      </c>
+      <c r="I155" s="4">
+        <v>118</v>
+      </c>
+      <c r="J155" s="8">
+        <v>0.54322941714788564</v>
+      </c>
+      <c r="K155" s="4">
+        <v>-118</v>
+      </c>
+      <c r="L155" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M155" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N155" s="4">
+        <v>0</v>
+      </c>
+      <c r="O155" s="15">
+        <v>24.42712587642151</v>
+      </c>
+      <c r="P155" s="15">
+        <v>24.708560713285468</v>
+      </c>
+      <c r="Q155" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="R155" s="15">
+        <v>-0.28143483686396209</v>
+      </c>
+      <c r="S155" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T155" s="4">
+        <v>1</v>
+      </c>
+      <c r="U155" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V155" s="4">
+        <v>1</v>
+      </c>
+      <c r="W155" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="X155" s="9">
+        <v>49.135686589706978</v>
+      </c>
+      <c r="Y155" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z155" s="4">
+        <v>75</v>
+      </c>
+      <c r="AA155" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB155" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC155" s="5">
+        <v>-1.42985749989748E-2</v>
+      </c>
+      <c r="AD155" s="5">
+        <v>-0.20208874992702319</v>
+      </c>
+      <c r="AE155" s="5">
+        <v>0.43977342711554629</v>
+      </c>
+      <c r="AF155" s="5">
+        <v>0.20208874992702319</v>
+      </c>
+      <c r="AG155" s="5">
+        <v>1.42985749989748E-2</v>
+      </c>
+      <c r="AH155" s="5">
+        <v>-0.43977342711554629</v>
+      </c>
+    </row>
+    <row r="156" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B156" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C156" s="4">
+        <v>16</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="4">
+        <v>18</v>
+      </c>
+      <c r="G156" s="4">
+        <v>29</v>
+      </c>
+      <c r="H156" s="8">
+        <v>0.3810037585176117</v>
+      </c>
+      <c r="I156" s="4">
+        <v>162</v>
+      </c>
+      <c r="J156" s="8">
+        <v>0.6189962414823883</v>
+      </c>
+      <c r="K156" s="4">
+        <v>-162</v>
+      </c>
+      <c r="L156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N156" s="4">
+        <v>1</v>
+      </c>
+      <c r="O156" s="15">
+        <v>20.38051855290929</v>
+      </c>
+      <c r="P156" s="15">
+        <v>25.95462517993742</v>
+      </c>
+      <c r="Q156" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="R156" s="15">
+        <v>-5.5741066270281294</v>
+      </c>
+      <c r="S156" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T156" s="4">
+        <v>-11</v>
+      </c>
+      <c r="U156" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V156" s="4">
+        <v>0</v>
+      </c>
+      <c r="W156" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X156" s="9">
+        <v>46.33514373284671</v>
+      </c>
+      <c r="Y156" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z156" s="4">
+        <v>47</v>
+      </c>
+      <c r="AA156" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB156" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC156" s="5">
+        <v>-9.0667981367844805E-2</v>
+      </c>
+      <c r="AD156" s="5">
+        <v>-0.34741071444838789</v>
+      </c>
+      <c r="AE156" s="5">
+        <v>0.39216567993164059</v>
+      </c>
+      <c r="AF156" s="5">
+        <v>0.34741071444838789</v>
+      </c>
+      <c r="AG156" s="5">
+        <v>9.0667981367844805E-2</v>
+      </c>
+      <c r="AH156" s="5">
+        <v>-0.39216567993164059</v>
+      </c>
+    </row>
+    <row r="157" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B157" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C157" s="4">
+        <v>16</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F157" s="4">
+        <v>22</v>
+      </c>
+      <c r="G157" s="4">
+        <v>16</v>
+      </c>
+      <c r="H157" s="8">
+        <v>0.46716785972320179</v>
+      </c>
+      <c r="I157" s="4">
+        <v>114</v>
+      </c>
+      <c r="J157" s="8">
+        <v>0.53283214027679815</v>
+      </c>
+      <c r="K157" s="4">
+        <v>-114</v>
+      </c>
+      <c r="L157" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M157" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N157" s="4">
+        <v>0</v>
+      </c>
+      <c r="O157" s="15">
+        <v>24.27378101370709</v>
+      </c>
+      <c r="P157" s="15">
+        <v>23.759865990496468</v>
+      </c>
+      <c r="Q157" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="R157" s="9">
+        <v>0.51391502321062177</v>
+      </c>
+      <c r="S157" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T157" s="4">
+        <v>6</v>
+      </c>
+      <c r="U157" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V157" s="4">
+        <v>0</v>
+      </c>
+      <c r="W157" s="4">
+        <v>46.5</v>
+      </c>
+      <c r="X157" s="9">
+        <v>48.033647004203573</v>
+      </c>
+      <c r="Y157" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z157" s="4">
+        <v>38</v>
+      </c>
+      <c r="AA157" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB157" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC157" s="5">
+        <v>0.1089127063751221</v>
+      </c>
+      <c r="AD157" s="5">
+        <v>-9.5630128043038498E-2</v>
+      </c>
+      <c r="AE157" s="5">
+        <v>0.26111322234977369</v>
+      </c>
+      <c r="AF157" s="5">
+        <v>9.5630128043038498E-2</v>
+      </c>
+      <c r="AG157" s="5">
+        <v>-0.1089127063751221</v>
+      </c>
+      <c r="AH157" s="5">
+        <v>-0.26111322234977369</v>
+      </c>
+    </row>
+    <row r="158" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B158" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C158" s="4">
+        <v>16</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F158" s="4">
+        <v>23</v>
+      </c>
+      <c r="G158" s="4">
+        <v>20</v>
+      </c>
+      <c r="H158" s="8">
+        <v>0.50862761293109249</v>
+      </c>
+      <c r="I158" s="4">
+        <v>-103</v>
+      </c>
+      <c r="J158" s="8">
+        <v>0.49137238706890751</v>
+      </c>
+      <c r="K158" s="4">
+        <v>103</v>
+      </c>
+      <c r="L158" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M158" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N158" s="4">
+        <v>1</v>
+      </c>
+      <c r="O158" s="15">
+        <v>23.518132326291521</v>
+      </c>
+      <c r="P158" s="15">
+        <v>24.246959773348038</v>
+      </c>
+      <c r="Q158" s="4">
+        <v>-3</v>
+      </c>
+      <c r="R158" s="9">
+        <v>-0.72882744705651703</v>
+      </c>
+      <c r="S158" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T158" s="4">
+        <v>3</v>
+      </c>
+      <c r="U158" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V158" s="4">
+        <v>1</v>
+      </c>
+      <c r="W158" s="4">
+        <v>45.5</v>
+      </c>
+      <c r="X158" s="9">
+        <v>47.765092099639567</v>
+      </c>
+      <c r="Y158" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z158" s="4">
+        <v>43</v>
+      </c>
+      <c r="AA158" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB158" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC158" s="5">
+        <v>0.100590687877727</v>
+      </c>
+      <c r="AD158" s="5">
+        <v>-7.9181875501360216E-2</v>
+      </c>
+      <c r="AE158" s="5">
+        <v>8.8326802620520964E-2</v>
+      </c>
+      <c r="AF158" s="5">
+        <v>7.9181875501360216E-2</v>
+      </c>
+      <c r="AG158" s="5">
+        <v>-0.100590687877727</v>
+      </c>
+      <c r="AH158" s="5">
+        <v>-8.8326802620520964E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B159" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C159" s="4">
+        <v>16</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F159" s="4">
+        <v>20</v>
+      </c>
+      <c r="G159" s="4">
+        <v>23</v>
+      </c>
+      <c r="H159" s="8">
+        <v>0.198285202130948</v>
+      </c>
+      <c r="I159" s="4">
+        <v>404</v>
+      </c>
+      <c r="J159" s="8">
+        <v>0.80171479786905198</v>
+      </c>
+      <c r="K159" s="4">
+        <v>-404</v>
+      </c>
+      <c r="L159" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M159" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N159" s="4">
+        <v>1</v>
+      </c>
+      <c r="O159" s="15">
+        <v>15.14071543153881</v>
+      </c>
+      <c r="P159" s="15">
+        <v>26.403360108958388</v>
+      </c>
+      <c r="Q159" s="4">
+        <v>-10.5</v>
+      </c>
+      <c r="R159" s="9">
+        <v>-11.262644677419569</v>
+      </c>
+      <c r="S159" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T159" s="4">
+        <v>-3</v>
+      </c>
+      <c r="U159" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V159" s="4">
+        <v>0</v>
+      </c>
+      <c r="W159" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="X159" s="9">
+        <v>41.544075540497197</v>
+      </c>
+      <c r="Y159" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z159" s="4">
+        <v>43</v>
+      </c>
+      <c r="AA159" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB159" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC159" s="5">
+        <v>-0.1195580069698505</v>
+      </c>
+      <c r="AD159" s="5">
+        <v>-6.0782894492149353E-2</v>
+      </c>
+      <c r="AE159" s="5">
+        <v>0.21042259879734199</v>
+      </c>
+      <c r="AF159" s="5">
+        <v>6.0782894492149353E-2</v>
+      </c>
+      <c r="AG159" s="5">
+        <v>0.1195580069698505</v>
+      </c>
+      <c r="AH159" s="5">
+        <v>-0.21042259879734199</v>
+      </c>
+    </row>
+    <row r="160" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B160" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C160" s="4">
+        <v>16</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F160" s="4">
+        <v>17</v>
+      </c>
+      <c r="G160" s="4">
+        <v>34</v>
+      </c>
+      <c r="H160" s="8">
+        <v>0.52451465676521247</v>
+      </c>
+      <c r="I160" s="4">
+        <v>-110</v>
+      </c>
+      <c r="J160" s="8">
+        <v>0.47548534323478753</v>
+      </c>
+      <c r="K160" s="4">
+        <v>110</v>
+      </c>
+      <c r="L160" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M160" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N160" s="4">
+        <v>0</v>
+      </c>
+      <c r="O160" s="15">
+        <v>23.282829122070581</v>
+      </c>
+      <c r="P160" s="15">
+        <v>26.756905933402141</v>
+      </c>
+      <c r="Q160" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="R160" s="15">
+        <v>-3.4740768113315599</v>
+      </c>
+      <c r="S160" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T160" s="4">
+        <v>-17</v>
+      </c>
+      <c r="U160" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V160" s="4">
+        <v>1</v>
+      </c>
+      <c r="W160" s="4">
+        <v>49.5</v>
+      </c>
+      <c r="X160" s="9">
+        <v>50.039735055472718</v>
+      </c>
+      <c r="Y160" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z160" s="4">
+        <v>51</v>
+      </c>
+      <c r="AA160" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB160" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC160" s="5">
+        <v>1.2319071539517111E-2</v>
+      </c>
+      <c r="AD160" s="5">
+        <v>-0.41529864356631319</v>
+      </c>
+      <c r="AE160" s="5">
+        <v>5.8993493968790226E-3</v>
+      </c>
+      <c r="AF160" s="5">
+        <v>0.41529864356631319</v>
+      </c>
+      <c r="AG160" s="5">
+        <v>-1.2319071539517111E-2</v>
+      </c>
+      <c r="AH160" s="5">
+        <v>-5.8993493968790226E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B161" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C161" s="4">
+        <v>16</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F161" s="4">
+        <v>21</v>
+      </c>
+      <c r="G161" s="4">
+        <v>45</v>
+      </c>
+      <c r="H161" s="8">
+        <v>0.64262223922015771</v>
+      </c>
+      <c r="I161" s="4">
+        <v>-179</v>
+      </c>
+      <c r="J161" s="8">
+        <v>0.35737776077984229</v>
+      </c>
+      <c r="K161" s="4">
+        <v>179</v>
+      </c>
+      <c r="L161" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M161" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N161" s="4">
+        <v>0</v>
+      </c>
+      <c r="O161" s="15">
+        <v>25.272464749512629</v>
+      </c>
+      <c r="P161" s="15">
+        <v>21.999351598057409</v>
+      </c>
+      <c r="Q161" s="4">
+        <v>-4.5</v>
+      </c>
+      <c r="R161" s="9">
+        <v>3.2731131514552199</v>
+      </c>
+      <c r="S161" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T161" s="4">
+        <v>-24</v>
+      </c>
+      <c r="U161" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V161" s="4">
+        <v>0</v>
+      </c>
+      <c r="W161" s="4">
+        <v>47.5</v>
+      </c>
+      <c r="X161" s="9">
+        <v>47.271816347570052</v>
+      </c>
+      <c r="Y161" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z161" s="4">
+        <v>66</v>
+      </c>
+      <c r="AA161" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB161" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC161" s="5">
+        <v>-8.2405801546775695E-2</v>
+      </c>
+      <c r="AD161" s="5">
+        <v>-0.37215389189172959</v>
+      </c>
+      <c r="AE161" s="5">
+        <v>-0.13656136592229209</v>
+      </c>
+      <c r="AF161" s="5">
+        <v>0.37215389189172959</v>
+      </c>
+      <c r="AG161" s="5">
+        <v>8.2405801546775695E-2</v>
+      </c>
+      <c r="AH161" s="5">
+        <v>0.13656136592229209</v>
+      </c>
+    </row>
+    <row r="162" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B162" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C162" s="4">
+        <v>16</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" s="4">
+        <v>29</v>
+      </c>
+      <c r="G162" s="4">
+        <v>6</v>
+      </c>
+      <c r="H162" s="8">
+        <v>0.52049589597517043</v>
+      </c>
+      <c r="I162" s="4">
+        <v>-108</v>
+      </c>
+      <c r="J162" s="8">
+        <v>0.47950410402482962</v>
+      </c>
+      <c r="K162" s="4">
+        <v>108</v>
+      </c>
+      <c r="L162" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M162" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N162" s="4">
+        <v>1</v>
+      </c>
+      <c r="O162" s="15">
+        <v>21.956531139303191</v>
+      </c>
+      <c r="P162" s="15">
+        <v>19.83597304471391</v>
+      </c>
+      <c r="Q162" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R162" s="15">
+        <v>2.1205580945892808</v>
+      </c>
+      <c r="S162" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T162" s="4">
+        <v>23</v>
+      </c>
+      <c r="U162" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V162" s="4">
+        <v>0</v>
+      </c>
+      <c r="W162" s="4">
+        <v>40.5</v>
+      </c>
+      <c r="X162" s="9">
+        <v>41.792504184017098</v>
+      </c>
+      <c r="Y162" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z162" s="4">
+        <v>35</v>
+      </c>
+      <c r="AA162" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB162" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC162" s="5">
+        <v>-1.923598387302497E-2</v>
+      </c>
+      <c r="AD162" s="5">
+        <v>0.40649648146195838</v>
+      </c>
+      <c r="AE162" s="5">
+        <v>4.1583979571307148E-2</v>
+      </c>
+      <c r="AF162" s="5">
+        <v>-0.40649648146195838</v>
+      </c>
+      <c r="AG162" s="5">
+        <v>1.923598387302497E-2</v>
+      </c>
+      <c r="AH162" s="5">
+        <v>-4.1583979571307148E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B163" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C163" s="4">
+        <v>16</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F163" s="4">
+        <v>13</v>
+      </c>
+      <c r="G163" s="4">
+        <v>16</v>
+      </c>
+      <c r="H163" s="8">
+        <v>0.54385697669064592</v>
+      </c>
+      <c r="I163" s="4">
+        <v>-119</v>
+      </c>
+      <c r="J163" s="8">
+        <v>0.45614302330935408</v>
+      </c>
+      <c r="K163" s="4">
+        <v>119</v>
+      </c>
+      <c r="L163" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M163" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N163" s="4">
+        <v>0</v>
+      </c>
+      <c r="O163" s="15">
+        <v>21.60529888402343</v>
+      </c>
+      <c r="P163" s="15">
+        <v>20.340250591387569</v>
+      </c>
+      <c r="Q163" s="4">
+        <v>-3</v>
+      </c>
+      <c r="R163" s="9">
+        <v>1.265048292635861</v>
+      </c>
+      <c r="S163" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T163" s="4">
+        <v>-3</v>
+      </c>
+      <c r="U163" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V163" s="4">
+        <v>0</v>
+      </c>
+      <c r="W163" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="X163" s="9">
+        <v>41.945549475411013</v>
+      </c>
+      <c r="Y163" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z163" s="4">
+        <v>29</v>
+      </c>
+      <c r="AA163" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB163" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC163" s="5">
+        <v>-0.2525144304547991</v>
+      </c>
+      <c r="AD163" s="5">
+        <v>8.712315559387207E-2</v>
+      </c>
+      <c r="AE163" s="5">
+        <v>9.4729696449480552E-2</v>
+      </c>
+      <c r="AF163" s="5">
+        <v>-8.712315559387207E-2</v>
+      </c>
+      <c r="AG163" s="5">
+        <v>0.2525144304547991</v>
+      </c>
+      <c r="AH163" s="5">
+        <v>-9.4729696449480552E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B164" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C164" s="4">
+        <v>16</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F164" s="4">
+        <v>26</v>
+      </c>
+      <c r="G164" s="4">
+        <v>9</v>
+      </c>
+      <c r="H164" s="8">
+        <v>0.28893408804609783</v>
+      </c>
+      <c r="I164" s="4">
+        <v>246</v>
+      </c>
+      <c r="J164" s="8">
+        <v>0.71106591195390223</v>
+      </c>
+      <c r="K164" s="4">
+        <v>-246</v>
+      </c>
+      <c r="L164" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M164" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N164" s="4">
+        <v>0</v>
+      </c>
+      <c r="O164" s="15">
+        <v>18.766062801481251</v>
+      </c>
+      <c r="P164" s="15">
+        <v>26.221189911594909</v>
+      </c>
+      <c r="Q164" s="4">
+        <v>-3</v>
+      </c>
+      <c r="R164" s="9">
+        <v>-7.4551271101136614</v>
+      </c>
+      <c r="S164" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T164" s="4">
+        <v>17</v>
+      </c>
+      <c r="U164" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V164" s="4">
+        <v>0</v>
+      </c>
+      <c r="W164" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="X164" s="9">
+        <v>44.98725271307616</v>
+      </c>
+      <c r="Y164" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z164" s="4">
+        <v>35</v>
+      </c>
+      <c r="AA164" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB164" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC164" s="5">
+        <v>2.704334930634834E-2</v>
+      </c>
+      <c r="AD164" s="5">
+        <v>0.26126194000244141</v>
+      </c>
+      <c r="AE164" s="5">
+        <v>7.5585239208661587E-2</v>
+      </c>
+      <c r="AF164" s="5">
+        <v>-0.26126194000244141</v>
+      </c>
+      <c r="AG164" s="5">
+        <v>-2.704334930634834E-2</v>
+      </c>
+      <c r="AH164" s="5">
+        <v>-7.5585239208661587E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B165" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C165" s="4">
+        <v>16</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F165" s="4">
+        <v>19</v>
+      </c>
+      <c r="G165" s="4">
+        <v>26</v>
+      </c>
+      <c r="H165" s="8">
+        <v>0.40541773863663649</v>
+      </c>
+      <c r="I165" s="4">
+        <v>146</v>
+      </c>
+      <c r="J165" s="8">
+        <v>0.59458226136336356</v>
+      </c>
+      <c r="K165" s="4">
+        <v>-146</v>
+      </c>
+      <c r="L165" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M165" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N165" s="4">
+        <v>1</v>
+      </c>
+      <c r="O165" s="15">
+        <v>18.697322220630362</v>
+      </c>
+      <c r="P165" s="15">
+        <v>22.638798259832861</v>
+      </c>
+      <c r="Q165" s="4">
+        <v>-3</v>
+      </c>
+      <c r="R165" s="15">
+        <v>-3.9414760392024948</v>
+      </c>
+      <c r="S165" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T165" s="4">
+        <v>-7</v>
+      </c>
+      <c r="U165" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V165" s="4">
+        <v>1</v>
+      </c>
+      <c r="W165" s="4">
+        <v>48.5</v>
+      </c>
+      <c r="X165" s="9">
+        <v>41.336120480463222</v>
+      </c>
+      <c r="Y165" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z165" s="4">
+        <v>45</v>
+      </c>
+      <c r="AA165" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB165" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC165" s="5">
+        <v>2.4603760033323051E-2</v>
+      </c>
+      <c r="AD165" s="5">
+        <v>-6.4516105651855463E-2</v>
+      </c>
+      <c r="AE165" s="5">
+        <v>-0.20344829559326169</v>
+      </c>
+      <c r="AF165" s="5">
+        <v>6.4516105651855463E-2</v>
+      </c>
+      <c r="AG165" s="5">
+        <v>-2.4603760033323051E-2</v>
+      </c>
+      <c r="AH165" s="5">
+        <v>0.20344829559326169</v>
+      </c>
+    </row>
+    <row r="166" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B166" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C166" s="4">
+        <v>16</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F166" s="4">
+        <v>20</v>
+      </c>
+      <c r="G166" s="4">
+        <v>34</v>
+      </c>
+      <c r="H166" s="8">
+        <v>0.58669551577150281</v>
+      </c>
+      <c r="I166" s="4">
+        <v>-141</v>
+      </c>
+      <c r="J166" s="8">
+        <v>0.41330448422849719</v>
+      </c>
+      <c r="K166" s="4">
+        <v>141</v>
+      </c>
+      <c r="L166" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M166" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N166" s="4">
+        <v>0</v>
+      </c>
+      <c r="O166" s="15">
+        <v>24.632489708924481</v>
+      </c>
+      <c r="P166" s="15">
+        <v>21.467136197838052</v>
+      </c>
+      <c r="Q166" s="4">
+        <v>3</v>
+      </c>
+      <c r="R166" s="9">
+        <v>3.1653535110864301</v>
+      </c>
+      <c r="S166" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T166" s="4">
+        <v>-14</v>
+      </c>
+      <c r="U166" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V166" s="4">
+        <v>0</v>
+      </c>
+      <c r="W166" s="4">
+        <v>46.5</v>
+      </c>
+      <c r="X166" s="9">
+        <v>46.099625906762533</v>
+      </c>
+      <c r="Y166" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z166" s="4">
+        <v>54</v>
+      </c>
+      <c r="AA166" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB166" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC166" s="5">
+        <v>-1.7414329629955871E-2</v>
+      </c>
+      <c r="AD166" s="5">
+        <v>-0.1277331079755511</v>
+      </c>
+      <c r="AE166" s="5">
+        <v>-0.13060212207417329</v>
+      </c>
+      <c r="AF166" s="5">
+        <v>0.1277331079755511</v>
+      </c>
+      <c r="AG166" s="5">
+        <v>1.7414329629955871E-2</v>
+      </c>
+      <c r="AH166" s="5">
+        <v>0.13060212207417329</v>
+      </c>
+    </row>
+    <row r="167" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B167" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C167" s="4">
+        <v>16</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F167" s="4">
+        <v>24</v>
+      </c>
+      <c r="G167" s="4">
+        <v>29</v>
+      </c>
+      <c r="H167" s="8">
+        <v>0.63463542655933669</v>
+      </c>
+      <c r="I167" s="4">
+        <v>-173</v>
+      </c>
+      <c r="J167" s="8">
+        <v>0.36536457344066331</v>
+      </c>
+      <c r="K167" s="4">
+        <v>173</v>
+      </c>
+      <c r="L167" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M167" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N167" s="4">
+        <v>0</v>
+      </c>
+      <c r="O167" s="15">
+        <v>26.008792577260699</v>
+      </c>
+      <c r="P167" s="15">
+        <v>19.205482056892109</v>
+      </c>
+      <c r="Q167" s="4">
+        <v>7</v>
+      </c>
+      <c r="R167" s="9">
+        <v>6.8033105203685844</v>
+      </c>
+      <c r="S167" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T167" s="4">
+        <v>-5</v>
+      </c>
+      <c r="U167" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V167" s="4">
+        <v>1</v>
+      </c>
+      <c r="W167" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="X167" s="9">
+        <v>45.214274634152808</v>
+      </c>
+      <c r="Y167" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z167" s="4">
+        <v>53</v>
+      </c>
+      <c r="AA167" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB167" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC167" s="5">
+        <v>4.9338510591689852E-2</v>
+      </c>
+      <c r="AD167" s="5">
+        <v>-0.15111447669364311</v>
+      </c>
+      <c r="AE167" s="5">
+        <v>9.666322384561811E-2</v>
+      </c>
+      <c r="AF167" s="5">
+        <v>0.15111447669364311</v>
+      </c>
+      <c r="AG167" s="5">
+        <v>-4.9338510591689852E-2</v>
+      </c>
+      <c r="AH167" s="5">
+        <v>-9.666322384561811E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B168" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C168" s="4">
+        <v>16</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F168" s="4">
+        <v>23</v>
+      </c>
+      <c r="G168" s="4">
+        <v>21</v>
+      </c>
+      <c r="H168" s="8">
+        <v>0.81979303236102408</v>
+      </c>
+      <c r="I168" s="4">
+        <v>-454</v>
+      </c>
+      <c r="J168" s="8">
+        <v>0.1802069676389759</v>
+      </c>
+      <c r="K168" s="4">
+        <v>454</v>
+      </c>
+      <c r="L168" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M168" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N168" s="4">
+        <v>1</v>
+      </c>
+      <c r="O168" s="9">
+        <v>28.909848522152469</v>
+      </c>
+      <c r="P168" s="15">
+        <v>12.994568673364149</v>
+      </c>
+      <c r="Q168" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="R168" s="9">
+        <v>15.91527984878832</v>
+      </c>
+      <c r="S168" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T168" s="4">
+        <v>2</v>
+      </c>
+      <c r="U168" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V168" s="4">
+        <v>0</v>
+      </c>
+      <c r="W168" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="X168" s="9">
+        <v>41.904417195516608</v>
+      </c>
+      <c r="Y168" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z168" s="4">
+        <v>44</v>
+      </c>
+      <c r="AA168" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB168" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC168" s="5">
+        <v>-8.6954813154916918E-2</v>
+      </c>
+      <c r="AD168" s="5">
+        <v>2.735014315004702E-2</v>
+      </c>
+      <c r="AE168" s="5">
+        <v>0.25526637633641558</v>
+      </c>
+      <c r="AF168" s="5">
+        <v>-2.735014315004702E-2</v>
+      </c>
+      <c r="AG168" s="5">
+        <v>8.6954813154916918E-2</v>
+      </c>
+      <c r="AH168" s="5">
+        <v>-0.25526637633641558</v>
+      </c>
+    </row>
+    <row r="169" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B169" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C169" s="4">
+        <v>16</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F169" s="4">
+        <v>24</v>
+      </c>
+      <c r="G169" s="4">
+        <v>28</v>
+      </c>
+      <c r="H169" s="8">
+        <v>0.41655455948100439</v>
+      </c>
+      <c r="I169" s="4">
+        <v>140</v>
+      </c>
+      <c r="J169" s="8">
+        <v>0.5834454405189955</v>
+      </c>
+      <c r="K169" s="4">
+        <v>-140</v>
+      </c>
+      <c r="L169" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M169" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N169" s="4">
+        <v>1</v>
+      </c>
+      <c r="O169" s="9">
+        <v>19.247537889896488</v>
+      </c>
+      <c r="P169" s="15">
+        <v>23.037053194399551</v>
+      </c>
+      <c r="Q169" s="4">
+        <v>3</v>
+      </c>
+      <c r="R169" s="9">
+        <v>-3.789515304503063</v>
+      </c>
+      <c r="S169" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T169" s="4">
+        <v>-4</v>
+      </c>
+      <c r="U169" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V169" s="4">
+        <v>1</v>
+      </c>
+      <c r="W169" s="4">
+        <v>48.5</v>
+      </c>
+      <c r="X169" s="9">
+        <v>42.284591084296054</v>
+      </c>
+      <c r="Y169" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z169" s="4">
+        <v>52</v>
+      </c>
+      <c r="AA169" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB169" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC169" s="5">
+        <v>9.8875787523057729E-2</v>
+      </c>
+      <c r="AD169" s="5">
+        <v>-0.20078421963585749</v>
+      </c>
+      <c r="AE169" s="5">
+        <v>-7.0050115170686142E-2</v>
+      </c>
+      <c r="AF169" s="5">
+        <v>0.20078421963585749</v>
+      </c>
+      <c r="AG169" s="5">
+        <v>-9.8875787523057729E-2</v>
+      </c>
+      <c r="AH169" s="5">
+        <v>7.0050115170686142E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B170" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C170" s="4">
+        <v>16</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F170" s="4">
+        <v>27</v>
+      </c>
+      <c r="G170" s="4">
+        <v>48</v>
+      </c>
+      <c r="H170" s="8">
+        <v>0.48706739689137951</v>
+      </c>
+      <c r="I170" s="4">
+        <v>105</v>
+      </c>
+      <c r="J170" s="8">
+        <v>0.51293260310862054</v>
+      </c>
+      <c r="K170" s="4">
+        <v>-105</v>
+      </c>
+      <c r="L170" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M170" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N170" s="4">
+        <v>1</v>
+      </c>
+      <c r="O170" s="9">
+        <v>23.744265193632749</v>
+      </c>
+      <c r="P170" s="15">
+        <v>24.19909207119402</v>
+      </c>
+      <c r="Q170" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="R170" s="9">
+        <v>-0.45482687756127049</v>
+      </c>
+      <c r="S170" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T170" s="4">
+        <v>-21</v>
+      </c>
+      <c r="U170" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V170" s="4">
+        <v>0</v>
+      </c>
+      <c r="W170" s="4">
+        <v>46.5</v>
+      </c>
+      <c r="X170" s="9">
+        <v>47.943357264826759</v>
+      </c>
+      <c r="Y170" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z170" s="4">
+        <v>75</v>
+      </c>
+      <c r="AA170" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB170" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC170" s="5">
+        <v>-2.2431659698486331E-2</v>
+      </c>
+      <c r="AD170" s="5">
+        <v>-0.4026968517000713</v>
+      </c>
+      <c r="AE170" s="5">
+        <v>-0.13118640838130829</v>
+      </c>
+      <c r="AF170" s="5">
+        <v>0.4026968517000713</v>
+      </c>
+      <c r="AG170" s="5">
+        <v>2.2431659698486331E-2</v>
+      </c>
+      <c r="AH170" s="5">
+        <v>0.13118640838130829</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="AF7:AH7"/>
@@ -13916,7 +15533,7 @@
     <mergeCell ref="AC7:AE7"/>
   </mergeCells>
   <conditionalFormatting sqref="AC9:AC23">
-    <cfRule type="colorScale" priority="80">
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13928,7 +15545,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC24:AC38">
-    <cfRule type="colorScale" priority="73">
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13940,7 +15557,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC39:AC51">
-    <cfRule type="colorScale" priority="61">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13952,7 +15569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC52:AC65">
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13964,7 +15581,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC66:AC79">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13976,7 +15593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC80:AC94">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13988,6 +15605,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC95:AC108">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC109:AC124">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -13999,7 +15628,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC109:AC124">
+  <conditionalFormatting sqref="AC125:AC138">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -14011,7 +15640,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC125:AC138">
+  <conditionalFormatting sqref="AC139:AC154">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -14023,7 +15652,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC139:AC154">
+  <conditionalFormatting sqref="AC155:AC170">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -14036,7 +15665,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD9:AD23">
-    <cfRule type="colorScale" priority="79">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14048,7 +15677,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD24:AD38">
-    <cfRule type="colorScale" priority="72">
+    <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14060,7 +15689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD39:AD51">
-    <cfRule type="colorScale" priority="62">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14072,7 +15701,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD52:AD65">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14084,7 +15713,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD66:AD79">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14096,7 +15725,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD80:AD94">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14108,6 +15737,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD95:AD108">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD109:AD124">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -14119,7 +15760,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD109:AD124">
+  <conditionalFormatting sqref="AD125:AD138">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -14131,7 +15772,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD125:AD138">
+  <conditionalFormatting sqref="AD139:AD154">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -14143,7 +15784,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD139:AD154">
+  <conditionalFormatting sqref="AD155:AD170">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -14156,7 +15797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE9:AE23">
-    <cfRule type="colorScale" priority="78">
+    <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14168,7 +15809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE24:AE38">
-    <cfRule type="colorScale" priority="71">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14180,7 +15821,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE39:AE51">
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14192,7 +15833,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE52:AE65">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14204,7 +15845,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE66:AE79">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14216,6 +15857,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE80:AE94">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE95:AE108">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -14227,7 +15880,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE95:AE108">
+  <conditionalFormatting sqref="AE109:AE124">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -14239,7 +15892,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE109:AE124">
+  <conditionalFormatting sqref="AE125:AE138">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -14251,7 +15904,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE125:AE138">
+  <conditionalFormatting sqref="AE139:AE154">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -14263,7 +15916,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE139:AE154">
+  <conditionalFormatting sqref="AE155:AE170">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -14276,7 +15929,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF9:AF23">
-    <cfRule type="colorScale" priority="77">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14288,7 +15941,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF24:AF38">
-    <cfRule type="colorScale" priority="70">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14300,7 +15953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF39:AF51">
-    <cfRule type="colorScale" priority="64">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14312,7 +15965,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF52:AF65">
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14324,6 +15977,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF66:AF79">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF80:AF94">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -14335,8 +16000,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF80:AF94">
-    <cfRule type="colorScale" priority="41">
+  <conditionalFormatting sqref="AF95:AF108">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14347,7 +16012,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF95:AF108">
+  <conditionalFormatting sqref="AF109:AF124">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -14359,7 +16024,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF109:AF124">
+  <conditionalFormatting sqref="AF125:AF138">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -14371,7 +16036,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF125:AF138">
+  <conditionalFormatting sqref="AF139:AF154">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -14383,7 +16048,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF139:AF154">
+  <conditionalFormatting sqref="AF155:AF170">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -14396,7 +16061,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG9:AG23">
-    <cfRule type="colorScale" priority="76">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14408,7 +16073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG24:AG38">
-    <cfRule type="colorScale" priority="69">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14420,7 +16085,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG39:AG51">
-    <cfRule type="colorScale" priority="65">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14432,7 +16097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG52:AG65">
-    <cfRule type="colorScale" priority="58">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14444,7 +16109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG66:AG79">
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14456,7 +16121,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG80:AG94">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14468,6 +16133,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG95:AG108">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG109:AG124">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -14479,7 +16156,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG109:AG124">
+  <conditionalFormatting sqref="AG125:AG138">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -14491,7 +16168,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG125:AG138">
+  <conditionalFormatting sqref="AG139:AG154">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -14503,7 +16180,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG139:AG154">
+  <conditionalFormatting sqref="AG155:AG170">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -14516,6 +16193,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH9:AH23">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH24:AH38">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH39:AH51">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -14527,7 +16228,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH24:AH38">
+  <conditionalFormatting sqref="AH52:AH65">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -14539,32 +16240,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH39:AH51">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH52:AH65">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AH66:AH79">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14576,7 +16253,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH80:AH94">
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14588,6 +16265,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH95:AH108">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH109:AH124">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -14599,7 +16288,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH109:AH124">
+  <conditionalFormatting sqref="AH125:AH138">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -14611,7 +16300,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH125:AH138">
+  <conditionalFormatting sqref="AH139:AH154">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -14623,7 +16312,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH139:AH154">
+  <conditionalFormatting sqref="AH155:AH170">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -14643,7 +16332,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="45" id="{EDEA8277-96E2-534B-9496-1DB5484BFD68}">
+          <x14:cfRule type="iconSet" priority="54" id="{EDEA8277-96E2-534B-9496-1DB5484BFD68}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14662,7 +16351,7 @@
           <xm:sqref>N80:N94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{DD4EF5CC-2E62-F245-AF58-2756E5752FDF}">
+          <x14:cfRule type="iconSet" priority="37" id="{DD4EF5CC-2E62-F245-AF58-2756E5752FDF}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14681,7 +16370,7 @@
           <xm:sqref>N95:N108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{37C61786-4A12-0746-A763-4990B69F05C7}">
+          <x14:cfRule type="iconSet" priority="28" id="{37C61786-4A12-0746-A763-4990B69F05C7}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14700,7 +16389,7 @@
           <xm:sqref>N109:N124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{212E7F37-E966-AF4F-A0C3-E0E8E1340734}">
+          <x14:cfRule type="iconSet" priority="19" id="{212E7F37-E966-AF4F-A0C3-E0E8E1340734}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14719,7 +16408,7 @@
           <xm:sqref>N125:N138</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{9742010F-AC5F-C647-A8CE-71E3275DF15E}">
+          <x14:cfRule type="iconSet" priority="10" id="{9742010F-AC5F-C647-A8CE-71E3275DF15E}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14738,7 +16427,26 @@
           <xm:sqref>N139:N154</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="67" id="{48C4D57C-361D-AB47-A2B7-3D4E42CE6188}">
+          <x14:cfRule type="iconSet" priority="1" id="{53BBD899-D2C8-074A-936B-361D7C508C63}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>N155:N170</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="76" id="{48C4D57C-361D-AB47-A2B7-3D4E42CE6188}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14757,7 +16465,7 @@
           <xm:sqref>N24:AA38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="60" id="{C3D59626-8CA7-8645-8330-0E71AB30C540}">
+          <x14:cfRule type="iconSet" priority="69" id="{C3D59626-8CA7-8645-8330-0E71AB30C540}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14776,7 +16484,7 @@
           <xm:sqref>N39:AA51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="53" id="{6D153A18-6D77-9445-BF8D-3BA4EDDD3FBA}">
+          <x14:cfRule type="iconSet" priority="62" id="{6D153A18-6D77-9445-BF8D-3BA4EDDD3FBA}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14795,7 +16503,7 @@
           <xm:sqref>N52:AA65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="46" id="{C34C5491-7DF8-D04C-B3C0-3779DAAA33EE}">
+          <x14:cfRule type="iconSet" priority="55" id="{C34C5491-7DF8-D04C-B3C0-3779DAAA33EE}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14814,7 +16522,7 @@
           <xm:sqref>N66:AA79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="74" id="{4DC6D28C-E799-D04F-BAD2-092B8419C03D}">
+          <x14:cfRule type="iconSet" priority="83" id="{4DC6D28C-E799-D04F-BAD2-092B8419C03D}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14833,7 +16541,7 @@
           <xm:sqref>N9:AB23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="38" id="{92AD66C2-D91E-D648-9AC6-2417C2445C43}">
+          <x14:cfRule type="iconSet" priority="47" id="{92AD66C2-D91E-D648-9AC6-2417C2445C43}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14852,7 +16560,7 @@
           <xm:sqref>V80:V94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{2D523F71-4BB4-9940-8B5D-C962CA9D6F15}">
+          <x14:cfRule type="iconSet" priority="38" id="{2D523F71-4BB4-9940-8B5D-C962CA9D6F15}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14871,7 +16579,7 @@
           <xm:sqref>V95:V108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{2094B9A9-658A-3D41-A969-4F7B5F1A7D42}">
+          <x14:cfRule type="iconSet" priority="29" id="{2094B9A9-658A-3D41-A969-4F7B5F1A7D42}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14890,7 +16598,7 @@
           <xm:sqref>V109:V124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{7AD482D6-AFFD-C546-9642-22AC15E71775}">
+          <x14:cfRule type="iconSet" priority="20" id="{7AD482D6-AFFD-C546-9642-22AC15E71775}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14909,7 +16617,7 @@
           <xm:sqref>V125:V138</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{3B475BB3-A842-F24C-8D71-84FCC9C136B4}">
+          <x14:cfRule type="iconSet" priority="11" id="{3B475BB3-A842-F24C-8D71-84FCC9C136B4}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14928,7 +16636,26 @@
           <xm:sqref>V139:V154</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="37" id="{409D8166-545E-3045-805D-7C96DC6956B1}">
+          <x14:cfRule type="iconSet" priority="2" id="{ADD77C7B-8E6B-7A48-8AAC-8A63FE24FF97}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>V155:V170</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="46" id="{409D8166-545E-3045-805D-7C96DC6956B1}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14947,7 +16674,7 @@
           <xm:sqref>AB80:AB94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{578139A0-9556-A24C-89D1-3B66D89331FA}">
+          <x14:cfRule type="iconSet" priority="39" id="{578139A0-9556-A24C-89D1-3B66D89331FA}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14966,7 +16693,7 @@
           <xm:sqref>AB95:AB108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{869A3731-7EDB-9143-AD0D-591DEB781BAF}">
+          <x14:cfRule type="iconSet" priority="30" id="{869A3731-7EDB-9143-AD0D-591DEB781BAF}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14985,7 +16712,7 @@
           <xm:sqref>AB109:AB124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{90EFE230-91F0-784C-B726-5BE6F84EE2FC}">
+          <x14:cfRule type="iconSet" priority="21" id="{90EFE230-91F0-784C-B726-5BE6F84EE2FC}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15004,7 +16731,7 @@
           <xm:sqref>AB125:AB138</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{7941D79E-AD1D-3F44-8D4F-313B45BDFDD4}">
+          <x14:cfRule type="iconSet" priority="12" id="{7941D79E-AD1D-3F44-8D4F-313B45BDFDD4}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15022,6 +16749,25 @@
           </x14:cfRule>
           <xm:sqref>AB139:AB154</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{DEBE5BDC-29DE-8246-9122-5A2B43CD922F}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AB155:AB170</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -15033,7 +16779,7 @@
   <dimension ref="B2:AH24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15121,45 +16867,45 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18" t="s">
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18" t="s">
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18" t="s">
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18" t="s">
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -17034,7 +18780,7 @@
   <dimension ref="B2:AH22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:AH22"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17044,13 +18790,13 @@
     <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="16" width="11.6640625" customWidth="1"/>
     <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.83203125" bestFit="1" customWidth="1"/>
@@ -17122,45 +18868,45 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18" t="s">
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18" t="s">
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18" t="s">
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18" t="s">
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -18830,7 +20576,7 @@
   <dimension ref="B2:AH24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18918,45 +20664,45 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18" t="s">
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18" t="s">
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18" t="s">
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18" t="s">
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -20823,18 +22569,2016 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFD62D5-60EC-4D40-B52A-32136F866E06}">
+  <dimension ref="B2:AH24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="13">
+        <f>COUNTA($C$9:$C$24)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="13">
+        <f>SUM(N9:$N$24)</f>
+        <v>8</v>
+      </c>
+      <c r="D3" s="14">
+        <f>C3/$C$2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="13">
+        <f>SUM(V9:$V$24)</f>
+        <v>6</v>
+      </c>
+      <c r="D4" s="14">
+        <f t="shared" ref="D4:D5" si="0">C4/$C$2</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="13">
+        <f>SUM(AB9:$AB$24)</f>
+        <v>8</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="H7" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B9" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="4">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="4">
+        <v>38</v>
+      </c>
+      <c r="G9" s="4">
+        <v>37</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.45677058285211442</v>
+      </c>
+      <c r="I9" s="4">
+        <v>118</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.54322941714788564</v>
+      </c>
+      <c r="K9" s="4">
+        <v>-118</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
+        <v>24.42712587642151</v>
+      </c>
+      <c r="P9" s="15">
+        <v>24.708560713285468</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="R9" s="15">
+        <v>-0.28143483686396209</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
+      <c r="W9" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="X9" s="9">
+        <v>49.135686589706978</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>75</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>-1.42985749989748E-2</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>-0.20208874992702319</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>0.43977342711554629</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>0.20208874992702319</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>1.42985749989748E-2</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>-0.43977342711554629</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B10" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="4">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4">
+        <v>29</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.3810037585176117</v>
+      </c>
+      <c r="I10" s="4">
+        <v>162</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.6189962414823883</v>
+      </c>
+      <c r="K10" s="4">
+        <v>-162</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="15">
+        <v>20.38051855290929</v>
+      </c>
+      <c r="P10" s="15">
+        <v>25.95462517993742</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="R10" s="15">
+        <v>-5.5741066270281294</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T10" s="4">
+        <v>-11</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="X10" s="9">
+        <v>46.33514373284671</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>47</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>-9.0667981367844805E-2</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>-0.34741071444838789</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>0.39216567993164059</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>0.34741071444838789</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>9.0667981367844805E-2</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>-0.39216567993164059</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B11" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="4">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="4">
+        <v>22</v>
+      </c>
+      <c r="G11" s="4">
+        <v>16</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.46716785972320179</v>
+      </c>
+      <c r="I11" s="4">
+        <v>114</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.53283214027679815</v>
+      </c>
+      <c r="K11" s="4">
+        <v>-114</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15">
+        <v>24.27378101370709</v>
+      </c>
+      <c r="P11" s="15">
+        <v>23.759865990496468</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0.51391502321062177</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T11" s="4">
+        <v>6</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <v>46.5</v>
+      </c>
+      <c r="X11" s="9">
+        <v>48.033647004203573</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>38</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>0.1089127063751221</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>-9.5630128043038498E-2</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>0.26111322234977369</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>9.5630128043038498E-2</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>-0.1089127063751221</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>-0.26111322234977369</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B12" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C12" s="4">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="4">
+        <v>23</v>
+      </c>
+      <c r="G12" s="4">
+        <v>20</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.50862761293109249</v>
+      </c>
+      <c r="I12" s="4">
+        <v>-103</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.49137238706890751</v>
+      </c>
+      <c r="K12" s="4">
+        <v>103</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="15">
+        <v>23.518132326291521</v>
+      </c>
+      <c r="P12" s="15">
+        <v>24.246959773348038</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>-3</v>
+      </c>
+      <c r="R12" s="9">
+        <v>-0.72882744705651703</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T12" s="4">
+        <v>3</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V12" s="4">
+        <v>1</v>
+      </c>
+      <c r="W12" s="4">
+        <v>45.5</v>
+      </c>
+      <c r="X12" s="9">
+        <v>47.765092099639567</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>43</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>0.100590687877727</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>-7.9181875501360216E-2</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>8.8326802620520964E-2</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>7.9181875501360216E-2</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>-0.100590687877727</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>-8.8326802620520964E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B13" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C13" s="4">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="4">
+        <v>20</v>
+      </c>
+      <c r="G13" s="4">
+        <v>23</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.198285202130948</v>
+      </c>
+      <c r="I13" s="4">
+        <v>404</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.80171479786905198</v>
+      </c>
+      <c r="K13" s="4">
+        <v>-404</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="15">
+        <v>15.14071543153881</v>
+      </c>
+      <c r="P13" s="15">
+        <v>26.403360108958388</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>-10.5</v>
+      </c>
+      <c r="R13" s="9">
+        <v>-11.262644677419569</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T13" s="4">
+        <v>-3</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="X13" s="9">
+        <v>41.544075540497197</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>43</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>-0.1195580069698505</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>-6.0782894492149353E-2</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>0.21042259879734199</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>6.0782894492149353E-2</v>
+      </c>
+      <c r="AG13" s="5">
+        <v>0.1195580069698505</v>
+      </c>
+      <c r="AH13" s="5">
+        <v>-0.21042259879734199</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B14" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C14" s="4">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="4">
+        <v>17</v>
+      </c>
+      <c r="G14" s="4">
+        <v>34</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.52451465676521247</v>
+      </c>
+      <c r="I14" s="4">
+        <v>-110</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.47548534323478753</v>
+      </c>
+      <c r="K14" s="4">
+        <v>110</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="15">
+        <v>23.282829122070581</v>
+      </c>
+      <c r="P14" s="15">
+        <v>26.756905933402141</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="R14" s="15">
+        <v>-3.4740768113315599</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T14" s="4">
+        <v>-17</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V14" s="4">
+        <v>1</v>
+      </c>
+      <c r="W14" s="4">
+        <v>49.5</v>
+      </c>
+      <c r="X14" s="9">
+        <v>50.039735055472718</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>51</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>1.2319071539517111E-2</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>-0.41529864356631319</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>5.8993493968790226E-3</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>0.41529864356631319</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>-1.2319071539517111E-2</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>-5.8993493968790226E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B15" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C15" s="4">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="4">
+        <v>21</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.64262223922015771</v>
+      </c>
+      <c r="I15" s="4">
+        <v>-179</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.35737776077984229</v>
+      </c>
+      <c r="K15" s="4">
+        <v>179</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="15">
+        <v>25.272464749512629</v>
+      </c>
+      <c r="P15" s="15">
+        <v>21.999351598057409</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>-4.5</v>
+      </c>
+      <c r="R15" s="9">
+        <v>3.2731131514552199</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T15" s="4">
+        <v>-24</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>47.5</v>
+      </c>
+      <c r="X15" s="9">
+        <v>47.271816347570052</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>66</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>-8.2405801546775695E-2</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>-0.37215389189172959</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>-0.13656136592229209</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>0.37215389189172959</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>8.2405801546775695E-2</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>0.13656136592229209</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B16" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C16" s="4">
+        <v>16</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4">
+        <v>29</v>
+      </c>
+      <c r="G16" s="4">
+        <v>6</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.52049589597517043</v>
+      </c>
+      <c r="I16" s="4">
+        <v>-108</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.47950410402482962</v>
+      </c>
+      <c r="K16" s="4">
+        <v>108</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="15">
+        <v>21.956531139303191</v>
+      </c>
+      <c r="P16" s="15">
+        <v>19.83597304471391</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R16" s="15">
+        <v>2.1205580945892808</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T16" s="4">
+        <v>23</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>40.5</v>
+      </c>
+      <c r="X16" s="9">
+        <v>41.792504184017098</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>35</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>-1.923598387302497E-2</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>0.40649648146195838</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>4.1583979571307148E-2</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>-0.40649648146195838</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>1.923598387302497E-2</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>-4.1583979571307148E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B17" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C17" s="4">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="4">
+        <v>13</v>
+      </c>
+      <c r="G17" s="4">
+        <v>16</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.54385697669064592</v>
+      </c>
+      <c r="I17" s="4">
+        <v>-119</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.45614302330935408</v>
+      </c>
+      <c r="K17" s="4">
+        <v>119</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="15">
+        <v>21.60529888402343</v>
+      </c>
+      <c r="P17" s="15">
+        <v>20.340250591387569</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>-3</v>
+      </c>
+      <c r="R17" s="9">
+        <v>1.265048292635861</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T17" s="4">
+        <v>-3</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="X17" s="9">
+        <v>41.945549475411013</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>29</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>-0.2525144304547991</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>8.712315559387207E-2</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>9.4729696449480552E-2</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>-8.712315559387207E-2</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>0.2525144304547991</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>-9.4729696449480552E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B18" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C18" s="4">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="4">
+        <v>26</v>
+      </c>
+      <c r="G18" s="4">
+        <v>9</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.28893408804609783</v>
+      </c>
+      <c r="I18" s="4">
+        <v>246</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.71106591195390223</v>
+      </c>
+      <c r="K18" s="4">
+        <v>-246</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15">
+        <v>18.766062801481251</v>
+      </c>
+      <c r="P18" s="15">
+        <v>26.221189911594909</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>-3</v>
+      </c>
+      <c r="R18" s="9">
+        <v>-7.4551271101136614</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T18" s="4">
+        <v>17</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="X18" s="9">
+        <v>44.98725271307616</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>35</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>2.704334930634834E-2</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>0.26126194000244141</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>7.5585239208661587E-2</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>-0.26126194000244141</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>-2.704334930634834E-2</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>-7.5585239208661587E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B19" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C19" s="4">
+        <v>16</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="4">
+        <v>19</v>
+      </c>
+      <c r="G19" s="4">
+        <v>26</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.40541773863663649</v>
+      </c>
+      <c r="I19" s="4">
+        <v>146</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.59458226136336356</v>
+      </c>
+      <c r="K19" s="4">
+        <v>-146</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="15">
+        <v>18.697322220630362</v>
+      </c>
+      <c r="P19" s="15">
+        <v>22.638798259832861</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>-3</v>
+      </c>
+      <c r="R19" s="15">
+        <v>-3.9414760392024948</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T19" s="4">
+        <v>-7</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V19" s="4">
+        <v>1</v>
+      </c>
+      <c r="W19" s="4">
+        <v>48.5</v>
+      </c>
+      <c r="X19" s="9">
+        <v>41.336120480463222</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>45</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>2.4603760033323051E-2</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>-6.4516105651855463E-2</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>-0.20344829559326169</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>6.4516105651855463E-2</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>-2.4603760033323051E-2</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>0.20344829559326169</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B20" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C20" s="4">
+        <v>16</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="4">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4">
+        <v>34</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.58669551577150281</v>
+      </c>
+      <c r="I20" s="4">
+        <v>-141</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.41330448422849719</v>
+      </c>
+      <c r="K20" s="4">
+        <v>141</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="15">
+        <v>24.632489708924481</v>
+      </c>
+      <c r="P20" s="15">
+        <v>21.467136197838052</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>3</v>
+      </c>
+      <c r="R20" s="9">
+        <v>3.1653535110864301</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T20" s="4">
+        <v>-14</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <v>46.5</v>
+      </c>
+      <c r="X20" s="9">
+        <v>46.099625906762533</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>54</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>-1.7414329629955871E-2</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>-0.1277331079755511</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>-0.13060212207417329</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>0.1277331079755511</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>1.7414329629955871E-2</v>
+      </c>
+      <c r="AH20" s="5">
+        <v>0.13060212207417329</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B21" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C21" s="4">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="4">
+        <v>24</v>
+      </c>
+      <c r="G21" s="4">
+        <v>29</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.63463542655933669</v>
+      </c>
+      <c r="I21" s="4">
+        <v>-173</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0.36536457344066331</v>
+      </c>
+      <c r="K21" s="4">
+        <v>173</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="15">
+        <v>26.008792577260699</v>
+      </c>
+      <c r="P21" s="15">
+        <v>19.205482056892109</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>7</v>
+      </c>
+      <c r="R21" s="9">
+        <v>6.8033105203685844</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T21" s="4">
+        <v>-5</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V21" s="4">
+        <v>1</v>
+      </c>
+      <c r="W21" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="X21" s="9">
+        <v>45.214274634152808</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>53</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>4.9338510591689852E-2</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>-0.15111447669364311</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>9.666322384561811E-2</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>0.15111447669364311</v>
+      </c>
+      <c r="AG21" s="5">
+        <v>-4.9338510591689852E-2</v>
+      </c>
+      <c r="AH21" s="5">
+        <v>-9.666322384561811E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B22" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C22" s="4">
+        <v>16</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="4">
+        <v>23</v>
+      </c>
+      <c r="G22" s="4">
+        <v>21</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.81979303236102408</v>
+      </c>
+      <c r="I22" s="4">
+        <v>-454</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.1802069676389759</v>
+      </c>
+      <c r="K22" s="4">
+        <v>454</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
+      <c r="O22" s="9">
+        <v>28.909848522152469</v>
+      </c>
+      <c r="P22" s="15">
+        <v>12.994568673364149</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="R22" s="9">
+        <v>15.91527984878832</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T22" s="4">
+        <v>2</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="X22" s="9">
+        <v>41.904417195516608</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>44</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>-8.6954813154916918E-2</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>2.735014315004702E-2</v>
+      </c>
+      <c r="AE22" s="5">
+        <v>0.25526637633641558</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>-2.735014315004702E-2</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>8.6954813154916918E-2</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>-0.25526637633641558</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B23" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C23" s="4">
+        <v>16</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="4">
+        <v>24</v>
+      </c>
+      <c r="G23" s="4">
+        <v>28</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.41655455948100439</v>
+      </c>
+      <c r="I23" s="4">
+        <v>140</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.5834454405189955</v>
+      </c>
+      <c r="K23" s="4">
+        <v>-140</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1</v>
+      </c>
+      <c r="O23" s="9">
+        <v>19.247537889896488</v>
+      </c>
+      <c r="P23" s="15">
+        <v>23.037053194399551</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>3</v>
+      </c>
+      <c r="R23" s="9">
+        <v>-3.789515304503063</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T23" s="4">
+        <v>-4</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V23" s="4">
+        <v>1</v>
+      </c>
+      <c r="W23" s="4">
+        <v>48.5</v>
+      </c>
+      <c r="X23" s="9">
+        <v>42.284591084296054</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>52</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="5">
+        <v>9.8875787523057729E-2</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>-0.20078421963585749</v>
+      </c>
+      <c r="AE23" s="5">
+        <v>-7.0050115170686142E-2</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>0.20078421963585749</v>
+      </c>
+      <c r="AG23" s="5">
+        <v>-9.8875787523057729E-2</v>
+      </c>
+      <c r="AH23" s="5">
+        <v>7.0050115170686142E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B24" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C24" s="4">
+        <v>16</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="4">
+        <v>27</v>
+      </c>
+      <c r="G24" s="4">
+        <v>48</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0.48706739689137951</v>
+      </c>
+      <c r="I24" s="4">
+        <v>105</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.51293260310862054</v>
+      </c>
+      <c r="K24" s="4">
+        <v>-105</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1</v>
+      </c>
+      <c r="O24" s="9">
+        <v>23.744265193632749</v>
+      </c>
+      <c r="P24" s="15">
+        <v>24.19909207119402</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="R24" s="9">
+        <v>-0.45482687756127049</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T24" s="4">
+        <v>-21</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4">
+        <v>46.5</v>
+      </c>
+      <c r="X24" s="9">
+        <v>47.943357264826759</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>75</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>-2.2431659698486331E-2</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>-0.4026968517000713</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>-0.13118640838130829</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>0.4026968517000713</v>
+      </c>
+      <c r="AG24" s="5">
+        <v>2.2431659698486331E-2</v>
+      </c>
+      <c r="AH24" s="5">
+        <v>0.13118640838130829</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="W7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="AC9:AC24">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD9:AD24">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9:AE24">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF9:AF24">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9:AG24">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH9:AH24">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{11897EAE-E590-1748-BD20-DAA42D057E62}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>N9:N24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{61C95644-8358-0447-8A6C-E9439143A975}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>V9:V24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{4E0D31E8-1B92-2C40-B8C0-02741CFA7F05}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AB9:AB24</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3197922-17FD-3446-ABDB-5FDED8A662DF}">
-  <dimension ref="B2:F44"/>
+  <dimension ref="B2:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -20857,7 +24601,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" cm="1">
-        <f t="array" ref="B4:B13">_xlfn.UNIQUE(_xlfn._xlws.FILTER(Master!C9:C1000,NOT(ISBLANK(Master!C9:C1000))))</f>
+        <f t="array" ref="B4:B14">_xlfn.UNIQUE(_xlfn._xlws.FILTER(Master!C9:C1000,NOT(ISBLANK(Master!C9:C1000))))</f>
         <v>6</v>
       </c>
       <c r="C4">
@@ -21066,8 +24810,29 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B14)</f>
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <f>SUMIFS(Master!N:N, Master!C:C,'Weekly Record'!B14)</f>
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14" si="2">C14-D14</f>
+        <v>8</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" ref="F14" si="3">D14/C14</f>
+        <v>0.5</v>
+      </c>
+    </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="18" t="s">
         <v>146</v>
       </c>
     </row>
@@ -21090,7 +24855,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" cm="1">
-        <f t="array" ref="B19:B28">_xlfn.UNIQUE(_xlfn._xlws.FILTER(Master!C9:C1000,NOT(ISBLANK(Master!C9:C1000))))</f>
+        <f t="array" ref="B19:B29">_xlfn.UNIQUE(_xlfn._xlws.FILTER(Master!C9:C1000,NOT(ISBLANK(Master!C9:C1000))))</f>
         <v>6</v>
       </c>
       <c r="C19">
@@ -21123,11 +24888,11 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:E28" si="2">C20-D20</f>
+        <f t="shared" ref="E20:E28" si="4">C20-D20</f>
         <v>15</v>
       </c>
       <c r="F20" s="12">
-        <f t="shared" ref="F20:F28" si="3">D20/C20</f>
+        <f t="shared" ref="F20:F28" si="5">D20/C20</f>
         <v>0</v>
       </c>
     </row>
@@ -21144,11 +24909,11 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -21165,11 +24930,11 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -21186,11 +24951,11 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -21207,11 +24972,11 @@
         <v>6</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="F24" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
@@ -21228,11 +24993,11 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F25" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -21249,11 +25014,11 @@
         <v>10</v>
       </c>
       <c r="E26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F26" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
     </row>
@@ -21270,11 +25035,11 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F27" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -21291,16 +25056,37 @@
         <v>8</v>
       </c>
       <c r="E28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F28" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B29)</f>
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <f>SUMIFS(Master!V:V, Master!C:C,'Weekly Record'!B29)</f>
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29" si="6">C29-D29</f>
+        <v>10</v>
+      </c>
+      <c r="F29" s="12">
+        <f t="shared" ref="F29" si="7">D29/C29</f>
+        <v>0.375</v>
+      </c>
+    </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="18" t="s">
         <v>146</v>
       </c>
     </row>
@@ -21323,7 +25109,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" cm="1">
-        <f t="array" ref="B35:B44">_xlfn.UNIQUE(_xlfn._xlws.FILTER(Master!C9:C1000,NOT(ISBLANK(Master!C9:C1000))))</f>
+        <f t="array" ref="B35:B45">_xlfn.UNIQUE(_xlfn._xlws.FILTER(Master!C9:C1000,NOT(ISBLANK(Master!C9:C1000))))</f>
         <v>6</v>
       </c>
       <c r="C35">
@@ -21356,11 +25142,11 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:E44" si="4">C36-D36</f>
+        <f t="shared" ref="E36:E44" si="8">C36-D36</f>
         <v>15</v>
       </c>
       <c r="F36" s="12">
-        <f t="shared" ref="F36:F44" si="5">D36/C36</f>
+        <f t="shared" ref="F36:F44" si="9">D36/C36</f>
         <v>0</v>
       </c>
     </row>
@@ -21377,11 +25163,11 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="F37" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21398,11 +25184,11 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="F38" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21419,11 +25205,11 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="F39" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21440,11 +25226,11 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="F40" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.46666666666666667</v>
       </c>
     </row>
@@ -21461,11 +25247,11 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="F41" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
     </row>
@@ -21482,11 +25268,11 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="F42" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
     </row>
@@ -21503,11 +25289,11 @@
         <v>4</v>
       </c>
       <c r="E43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="F43" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -21524,12 +25310,33 @@
         <v>6</v>
       </c>
       <c r="E44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="F44" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.375</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>16</v>
+      </c>
+      <c r="C45">
+        <f>COUNTIFS(Master!C:C,'Weekly Record'!B45)</f>
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <f>SUMIFS(Master!AB:AB, Master!C:C,'Weekly Record'!B45)</f>
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="10">C45-D45</f>
+        <v>8</v>
+      </c>
+      <c r="F45" s="12">
+        <f t="shared" ref="F45" si="11">D45/C45</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -21542,7 +25349,7 @@
   <dimension ref="B2:R23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21592,27 +25399,27 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="18" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18" t="s">
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -22650,28 +26457,28 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="18" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18" t="s">
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -23689,7 +27496,7 @@
   <dimension ref="B2:S21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23742,28 +27549,28 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="18" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18" t="s">
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -24669,7 +28476,7 @@
   <dimension ref="B2:S21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S21" sqref="B8:S21"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24722,28 +28529,28 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="18" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18" t="s">
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -25697,8 +29504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B346F6-01FE-6642-AB7B-08715D2CF0D5}">
   <dimension ref="B2:W38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:S21"/>
+    <sheetView showGridLines="0" zoomScale="107" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25751,28 +29558,28 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="18" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18" t="s">
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -27747,7 +31554,7 @@
   <dimension ref="B2:AF23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27755,13 +31562,13 @@
     <col min="2" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="4.83203125" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="14" width="11.6640625" customWidth="1"/>
     <col min="15" max="15" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" bestFit="1" customWidth="1"/>
@@ -27833,45 +31640,45 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18" t="s">
+      <c r="N7" s="19"/>
+      <c r="O7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18" t="s">
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18" t="s">
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18" t="s">
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -29546,7 +33353,7 @@
   <dimension ref="B2:AH22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29556,13 +33363,13 @@
     <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="16" width="11.6640625" customWidth="1"/>
     <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.83203125" bestFit="1" customWidth="1"/>
@@ -29634,45 +33441,45 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18" t="s">
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18" t="s">
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18" t="s">
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18" t="s">
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
